--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
@@ -1,37 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM25</t>
+  </si>
+  <si>
+    <t>01_car_PM25_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25</t>
+  </si>
+  <si>
+    <t>02_taxi_PM25_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM25</t>
+  </si>
+  <si>
+    <t>03_van_PM25_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM25</t>
+  </si>
+  <si>
+    <t>04_bus_PM25_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM25_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM25_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM25 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +102,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2128 +418,2338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM25_재비산</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM25 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
         <v>2024101513</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1.254221126543996</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8.406528234391422</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E2">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.13454997536427</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1.843179419022632</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I2">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J2">
         <v>2.255476864849543</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2">
         <v>2.987222620843626</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2">
         <v>10.33744325712658</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2">
         <v>6.504863980574545</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N2" t="n">
-        <v>35.20934823782996</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="P2">
+        <v>36.62376000167555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
         <v>2024101514</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1.245780876701842</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>8.349956711952716</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D3">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E3">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.395161059102348</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>3.891156551270001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I3">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J3">
         <v>1.825862223925821</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3">
         <v>2.418227835921031</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3">
         <v>8.886574028056177</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3">
         <v>5.59190061487987</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N3" t="n">
-        <v>35.12815951015405</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="P3">
+        <v>36.54255015336717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>2024101515</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>1.320055075312792</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>8.847786109413313</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.006152589476501089</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D4">
+        <v>0.006575002125902197</v>
+      </c>
+      <c r="E4">
         <v>0.6253998115258486</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.890916625607117</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3.071965698371054</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
+        <v>0.2101527735920566</v>
+      </c>
+      <c r="I4">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="J4">
         <v>1.654016367556332</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4">
         <v>2.190629921951992</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4">
         <v>8.161139413520983</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4">
         <v>5.135418932032534</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4">
         <v>0.09402167197724577</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4">
         <v>0.3907596129899135</v>
       </c>
-      <c r="N4" t="n">
-        <v>33.38826182973563</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="P4">
+        <v>35.15640853849555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>2024101516</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1.73362731757831</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>11.61979070890981</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D5">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E5">
         <v>0.218889934034047</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.08849715515829</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>5.017543974006055</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
+        <v>0.2942138830288791</v>
+      </c>
+      <c r="I5">
+        <v>2.180600131525851</v>
+      </c>
+      <c r="J5">
         <v>1.71845856369489</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5">
         <v>2.275979139690381</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5">
         <v>4.715324994478791</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5">
         <v>2.967130938507688</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N5" t="n">
-        <v>33.5651595402181</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="P5">
+        <v>36.04012139920012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
         <v>2024101517</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.243418408044374</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>15.03671066420754</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D6">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E6">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.647283275849963</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4.300751977719476</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
+        <v>0.3502546226534275</v>
+      </c>
+      <c r="I6">
+        <v>2.595952537530775</v>
+      </c>
+      <c r="J6">
         <v>1.43920904709447</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6">
         <v>1.906132529490695</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6">
         <v>5.078042301746392</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6">
         <v>3.195371779931354</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N6" t="n">
-        <v>36.21257149217791</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="P6">
+        <v>39.15888425552448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
         <v>2024101518</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.902432314421376</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>12.75122115768389</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E7">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.575763854672597</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.559971415309212</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
+        <v>0.4343157320902502</v>
+      </c>
+      <c r="I7">
+        <v>3.218981146538159</v>
+      </c>
+      <c r="J7">
         <v>1.009594406170748</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7">
         <v>1.337137744568099</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7">
         <v>4.715324994478791</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7">
         <v>2.967130938507688</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N7" t="n">
-        <v>29.3227372724681</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="P7">
+        <v>32.97613975425887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
         <v>2024101519</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1.347063874807683</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>9.028814981217165</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.003691553685900653</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D8">
+        <v>0.003945001275541318</v>
+      </c>
+      <c r="E8">
         <v>0.3752398869155092</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.071519421177367</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.740780562410264</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
+        <v>0.2661935132166048</v>
+      </c>
+      <c r="I8">
+        <v>1.972923928523388</v>
+      </c>
+      <c r="J8">
         <v>0.5799797652470252</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8">
         <v>0.7681429596455039</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8">
         <v>7.798422106253384</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8">
         <v>4.907178090608866</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N8" t="n">
-        <v>27.75934214053072</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="P8">
+        <v>29.99871302986035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
         <v>2024101520</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0.8372727843416169</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>5.611895025919443</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E9">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.13454997536427</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.843179419022632</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
+        <v>0.4062953622779759</v>
+      </c>
+      <c r="I9">
+        <v>3.011304943535698</v>
+      </c>
+      <c r="J9">
         <v>0.6014604972932114</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9">
         <v>0.7965926988916336</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9">
         <v>8.34249806715478</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9">
         <v>5.249539352744369</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N9" t="n">
-        <v>24.67570801031368</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="P9">
+        <v>28.09343503992218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
         <v>2024101521</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>0.680284137277564</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>4.559664708559546</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E10">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.5042444334952311</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.8191908528989478</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
+        <v>0.1120814792490968</v>
+      </c>
+      <c r="I10">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="J10">
         <v>0.3651724447851641</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10">
         <v>0.4836455671842062</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10">
         <v>5.078042301746392</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10">
         <v>3.195371779931354</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>16.0329700464297</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="P10">
+        <v>16.97598866464581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
         <v>2024101522</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.4473332416341302</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>2.998290689251316</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E11">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.1890916625607117</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
+        <v>0.1821324037797823</v>
+      </c>
+      <c r="I11">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="J11">
         <v>0.2577687845542335</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11">
         <v>0.3413968709535573</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11">
         <v>5.440759609013989</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11">
         <v>3.423612621355023</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>13.50018290931042</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="P11">
+        <v>15.03227399450361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
         <v>2024101523</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.2532074952646021</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.697145673161122</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E12">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.1260611083738078</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
+        <v>0.1120814792490968</v>
+      </c>
+      <c r="I12">
+        <v>0.8307048120098477</v>
+      </c>
+      <c r="J12">
         <v>0.1288843922771168</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12">
         <v>0.1706984354767787</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12">
         <v>1.632227882704197</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12">
         <v>1.027083786406507</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N12" t="n">
-        <v>5.593559536620949</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="P12">
+        <v>6.536535913572123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
         <v>2024101600</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>0.153612547127192</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.029601708384413</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.001230517895300218</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>0.001315000425180439</v>
+      </c>
+      <c r="E13">
         <v>0.1250799623051697</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.1260611083738078</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I13">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J13">
         <v>0.1288843922771168</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13">
         <v>0.1706984354767787</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13">
         <v>1.450869229070398</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13">
         <v>0.912963365694673</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>4.303798979829587</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="P13">
+        <v>4.893124894396307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
         <v>2024101601</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0.08946664832682609</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.5996581378502626</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E14">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.1890916625607117</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I14">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J14">
         <v>0.1933265884156751</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14">
         <v>0.2560476532151679</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14">
         <v>2.720379804506995</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14">
         <v>1.711806310677511</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>6.256439095690959</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="P14">
+        <v>6.727958965115253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
         <v>2024101602</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>0.042201249210767</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.2828576121935204</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E15">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.1890916625607117</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.3071965698371054</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
+        <v>0.0140101849061371</v>
+      </c>
+      <c r="I15">
+        <v>0.103838101501231</v>
+      </c>
+      <c r="J15">
         <v>0.1933265884156751</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15">
         <v>0.2560476532151679</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15">
         <v>1.269510575436598</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15">
         <v>0.7988429449828386</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>3.496962956102971</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="P15">
+        <v>3.61491684567269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
         <v>2024101603</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.02363269955802953</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1584002628283714</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="D16">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E16">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.06303055418690388</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.1023988566123685</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16">
         <v>0.06444219613855838</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16">
         <v>0.08534921773838933</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16">
         <v>2.176303843605596</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16">
         <v>1.369445048542009</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>4.137735539360579</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="P16">
+        <v>4.137798901257989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
         <v>2024101604</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.1147873978532862</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.7693727051663752</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.1260611083738078</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I17">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J17">
         <v>0.171845856369489</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17">
         <v>0.2275979139690381</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17">
         <v>4.53396634084499</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17">
         <v>2.853010517795852</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
-        <v>9.001439553597574</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="P17">
+        <v>9.472832699227048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
         <v>2024101605</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.2768401948226317</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.855545935989493</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.001230517895300218</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="D18">
+        <v>0.001315000425180439</v>
+      </c>
+      <c r="E18">
         <v>0.1250799623051697</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.2521222167476155</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
+        <v>0.1681222188736453</v>
+      </c>
+      <c r="I18">
+        <v>1.246057218014772</v>
+      </c>
+      <c r="J18">
         <v>0.5584990332008393</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18">
         <v>0.7396932203993741</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18">
         <v>10.15608460349278</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18">
         <v>6.390743559862709</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
-        <v>20.76543467116539</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="P18">
+        <v>22.17969859058369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
         <v>2024101606</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.8744098836470925</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.860809724649742</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="D19">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E19">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.6303055418690392</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>1.023988566123685</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
+        <v>0.5884277660577583</v>
+      </c>
+      <c r="I19">
+        <v>4.361200263051701</v>
+      </c>
+      <c r="J19">
         <v>1.116998066401679</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19">
         <v>1.479386440798748</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19">
         <v>14.50869229070396</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19">
         <v>9.129633656946726</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N19" t="n">
-        <v>34.9267204391341</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="P19">
+        <v>39.87641183014097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
         <v>2024101607</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1.765700266978492</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>11.83476249417689</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="D20">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E20">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>2.080008288167829</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>3.379162268208161</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
+        <v>0.4903564717147984</v>
+      </c>
+      <c r="I20">
+        <v>3.634333552543085</v>
+      </c>
+      <c r="J20">
         <v>1.847342955972007</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20">
         <v>2.44667757516716</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20">
         <v>10.51880191076038</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20">
         <v>6.618984401286378</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N20" t="n">
-        <v>41.09643269670413</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="P20">
+        <v>45.22124944475684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
         <v>2024101608</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.939569413726852</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>13.00013585641419</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="D21">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E21">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>1.260611083738078</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>2.047977132247369</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
+        <v>0.3642648075595647</v>
+      </c>
+      <c r="I21">
+        <v>2.699790639032006</v>
+      </c>
+      <c r="J21">
         <v>1.611054903463959</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21">
         <v>2.133730443459733</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21">
         <v>9.793367296225181</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21">
         <v>6.162502718439041</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N21" t="n">
-        <v>38.71182948395184</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="P21">
+        <v>41.77611725750057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
         <v>2024101609</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1.515868871650751</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>10.16024542999125</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E22">
         <v>0.218889934034047</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>1.764855517233309</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>2.867167985146317</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
+        <v>0.3642648075595647</v>
+      </c>
+      <c r="I22">
+        <v>2.699790639032006</v>
+      </c>
+      <c r="J22">
         <v>1.890304420064379</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22">
         <v>2.50357705365942</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22">
         <v>12.33238844709838</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22">
         <v>7.760188608404719</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N22" t="n">
-        <v>41.36191202000445</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="P22">
+        <v>44.42611531102332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>2024101610</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.068535630016621</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>7.161954740739933</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.005229701055025924</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>0.005588751807016867</v>
+      </c>
+      <c r="E23">
         <v>0.5315898397969715</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>1.44970274629879</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>2.355173702084475</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I23">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J23">
         <v>2.319919060988101</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23">
         <v>3.072571838582016</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23">
         <v>12.15102979346457</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23">
         <v>7.646068187692886</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N23" t="n">
-        <v>38.17730205640552</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="P23">
+        <v>39.35614397123119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
         <v>2024101611</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>1.088792229637788</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>7.297726394592822</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E24" t="n">
+      <c r="D24">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E24">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>1.701824963046406</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2.764769128533949</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
+        <v>0.2101527735920566</v>
+      </c>
+      <c r="I24">
+        <v>1.557571522518465</v>
+      </c>
+      <c r="J24">
         <v>2.148073204618612</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24">
         <v>2.844973924612977</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24">
         <v>10.88151921802798</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24">
         <v>6.847225242710046</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24">
         <v>0.04029500227596246</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24">
         <v>0.1674684055671058</v>
       </c>
-      <c r="N24" t="n">
-        <v>35.97213343392436</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="P24">
+        <v>37.73998445382969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
         <v>2024101612</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.024646330837423</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>6.86778282405867</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.003999183159725707</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>0.004273751381836427</v>
+      </c>
+      <c r="E25">
         <v>0.4065098774918017</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>1.13454997536427</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>1.843179419022632</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
+        <v>0.1821324037797823</v>
+      </c>
+      <c r="I25">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="J25">
         <v>1.353286118909726</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25">
         <v>1.792333572506176</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25">
         <v>7.979780759887184</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25">
         <v>5.021298511320698</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N25" t="n">
-        <v>27.56587551112036</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="P25">
+        <v>29.09817780263825</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
         <v>2024101613</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1.185011077838338</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>7.94264175039405</v>
       </c>
-      <c r="D26" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="D26">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E26">
         <v>0.218889934034047</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>1.764855517233309</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>2.867167985146317</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
+        <v>0.1541120339675081</v>
+      </c>
+      <c r="I26">
+        <v>1.142219116513541</v>
+      </c>
+      <c r="J26">
         <v>2.10511174052624</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26">
         <v>2.788074446120718</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26">
         <v>8.886574028056177</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26">
         <v>5.59190061487987</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N26" t="n">
-        <v>33.69865284695096</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="P26">
+        <v>34.99513184185929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
         <v>2024101614</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1.147873978532862</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>7.693727051663751</v>
       </c>
-      <c r="D27" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="D27">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E27">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>1.386672192111885</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>2.252774845472106</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I27">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J27">
         <v>1.288843922771167</v>
       </c>
-      <c r="I27" t="n">
+      <c r="K27">
         <v>1.706984354767786</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27">
         <v>9.612008642591375</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27">
         <v>6.048382297727207</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N27" t="n">
-        <v>31.52839718460113</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="P27">
+        <v>32.70704901373457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
         <v>2024101615</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>1.26603747632301</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>8.485728365805608</v>
       </c>
-      <c r="D28" t="n">
-        <v>0.003383924212075598</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="D28">
+        <v>0.003616251169246207</v>
+      </c>
+      <c r="E28">
         <v>0.3439698963392167</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2.332130504915444</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>3.788757694657634</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
+        <v>0.2381731434043307</v>
+      </c>
+      <c r="I28">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="J28">
         <v>1.911785152110565</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28">
         <v>2.53202679290555</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28">
         <v>8.523856720788585</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28">
         <v>5.363659773456201</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N28" t="n">
-        <v>34.82835417863799</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="P28">
+        <v>36.83200737452041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
         <v>2024101616</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1.816341766031413</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>12.17419162880912</v>
       </c>
-      <c r="D29" t="n">
-        <v>0.003691553685900653</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="D29">
+        <v>0.003945001275541318</v>
+      </c>
+      <c r="E29">
         <v>0.3752398869155092</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>2.584252721663059</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>4.198353121107107</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
+        <v>0.280203698122742</v>
+      </c>
+      <c r="I29">
+        <v>2.07676203002462</v>
+      </c>
+      <c r="J29">
         <v>2.040669544387682</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29">
         <v>2.702725228382328</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29">
         <v>5.803476916281591</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29">
         <v>3.651853462778692</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N29" t="n">
-        <v>35.69706817644751</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="P29">
+        <v>38.05428735218451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
         <v>2024101617</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2.059420961485431</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>13.80345147504379</v>
       </c>
-      <c r="D30" t="n">
-        <v>0.004306812633550761</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>0.004602501488131538</v>
+      </c>
+      <c r="E30">
         <v>0.437779868068094</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>2.521222167476157</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>4.095954264494739</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
+        <v>0.3222342528411533</v>
+      </c>
+      <c r="I30">
+        <v>2.388276334528312</v>
+      </c>
+      <c r="J30">
         <v>1.33180538686354</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30">
         <v>1.763883833260046</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30">
         <v>4.17124903357739</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30">
         <v>2.624769676372185</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N30" t="n">
-        <v>33.16011582568003</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="P30">
+        <v>35.87092210190408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
         <v>2024101618</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1.931129163884698</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>12.94356433397548</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="D31">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E31">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>2.710313830036866</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>4.403150834331844</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
+        <v>0.4483259169963872</v>
+      </c>
+      <c r="I31">
+        <v>3.322819248039391</v>
+      </c>
+      <c r="J31">
         <v>1.031075138216934</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31">
         <v>1.365587483814229</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31">
         <v>6.710270184450586</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31">
         <v>4.222455566337862</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N31" t="n">
-        <v>35.77183167411172</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="P31">
+        <v>39.5431880454722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
         <v>2024101619</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1.228900377017536</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>8.236813667075307</v>
       </c>
-      <c r="D32" t="n">
-        <v>0.002461035790600435</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32">
+        <v>0.002630000850360878</v>
+      </c>
+      <c r="E32">
         <v>0.2501599246103395</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>2.584252721663059</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>4.198353121107107</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
+        <v>0.3782749924657018</v>
+      </c>
+      <c r="I32">
+        <v>2.803628740533236</v>
+      </c>
+      <c r="J32">
         <v>0.9021907459398172</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32">
         <v>1.19488904833745</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32">
         <v>7.617063452619584</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32">
         <v>4.793057669897035</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>31.00814176405784</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="P32">
+        <v>34.19021446211654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
         <v>2024101620</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0.7765029854781131</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5.204580064360772</v>
       </c>
-      <c r="D33" t="n">
-        <v>0.003691553685900653</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="D33">
+        <v>0.003945001275541318</v>
+      </c>
+      <c r="E33">
         <v>0.3752398869155092</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>1.323641637924981</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>2.150375988859738</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
+        <v>0.4483259169963872</v>
+      </c>
+      <c r="I33">
+        <v>3.322819248039391</v>
+      </c>
+      <c r="J33">
         <v>0.4940568370622809</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33">
         <v>0.6543440026609847</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33">
         <v>6.528911530816788</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33">
         <v>4.108335145626028</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>21.6196796333911</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="P33">
+        <v>25.39107824601651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
         <v>2024101621</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0.6566514377195342</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4.401264445731178</v>
       </c>
-      <c r="D34" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="D34">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E34">
         <v>0.218889934034047</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>0.6303055418690392</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>1.023988566123685</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
+        <v>0.140101849061371</v>
+      </c>
+      <c r="I34">
+        <v>1.03838101501231</v>
+      </c>
+      <c r="J34">
         <v>0.4296146409237225</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34">
         <v>0.5689947849225954</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34">
         <v>5.62211826264779</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34">
         <v>3.537733042066858</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N34" t="n">
-        <v>17.16096853163625</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="P34">
+        <v>18.33959924013721</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
         <v>2024101622</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>0.5199193902766495</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>3.484805782224169</v>
       </c>
-      <c r="D35" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="D35">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E35">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>0.6933360960559426</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>1.126387422736053</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
+        <v>0.1961425886859195</v>
+      </c>
+      <c r="I35">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="J35">
         <v>0.5584990332008393</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35">
         <v>0.7396932203993741</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35">
         <v>5.984835569915387</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35">
         <v>3.765973883490525</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N35" t="n">
-        <v>17.22690344803102</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="P35">
+        <v>18.87696954342641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
         <v>2024101623</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0.2683999449804783</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.798974413550789</v>
       </c>
-      <c r="D36" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E36" t="n">
+      <c r="D36">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E36">
         <v>0.218889934034047</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>0.3781833251214234</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>0.6143931396742108</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
+        <v>0.09807129434295973</v>
+      </c>
+      <c r="I36">
+        <v>0.7268667105086168</v>
+      </c>
+      <c r="J36">
         <v>0.2577687845542335</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36">
         <v>0.3413968709535573</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36">
         <v>2.901738458140795</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36">
         <v>1.825926731389346</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>8.607825008715656</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="P36">
+        <v>9.432910857994523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
         <v>2024101700</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>0.163740846937776</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.097487535310859</v>
       </c>
-      <c r="D37" t="n">
-        <v>0.002768665264425489</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="D37">
+        <v>0.002958750956655988</v>
+      </c>
+      <c r="E37">
         <v>0.2814299151866319</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>0.1260611083738078</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I37">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J37">
         <v>0.2792495166004196</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37">
         <v>0.3698466101996871</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37">
         <v>1.813586536337995</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37">
         <v>1.141204207118341</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37">
         <v>0.01343166742532082</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37">
         <v>0.05582280185570195</v>
       </c>
-      <c r="N37" t="n">
-        <v>5.549427123835703</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="P37">
+        <v>6.138858641564775</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
         <v>2024101701</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>0.07933834851624195</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.5317723109238183</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="D38">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E38">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>0.1260611083738078</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>0.2047977132247369</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
+        <v>0.0700509245306855</v>
+      </c>
+      <c r="I38">
+        <v>0.5191905075061549</v>
+      </c>
+      <c r="J38">
         <v>0.1933265884156751</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38">
         <v>0.2560476532151679</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38">
         <v>1.994945189971796</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38">
         <v>1.255324627830175</v>
       </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
-        <v>4.957389740972593</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="P38">
+        <v>5.546842379334135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
         <v>2024101702</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0.0607697988635045</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.4073149615586692</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.0009228884214751632</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="D39">
+        <v>0.0009862503188853295</v>
+      </c>
+      <c r="E39">
         <v>0.0938099717288773</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
+      <c r="J39">
         <v>0.1074036602309306</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39">
         <v>0.1422486962306488</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39">
         <v>1.994945189971796</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39">
         <v>1.255324627830175</v>
       </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
-        <v>4.062739794836077</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="P39">
+        <v>4.062803156733485</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
         <v>2024101703</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0.05908174889507377</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.3960006570709285</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.001230517895300218</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="D40">
+        <v>0.001315000425180439</v>
+      </c>
+      <c r="E40">
         <v>0.1250799623051697</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="H40">
+        <v>0.0280203698122742</v>
+      </c>
+      <c r="I40">
+        <v>0.2076762030024619</v>
+      </c>
+      <c r="J40">
         <v>0.1933265884156751</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40">
         <v>0.2560476532151679</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40">
         <v>3.808531726309792</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40">
         <v>2.396528834948517</v>
       </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>7.235827689055625</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="P40">
+        <v>7.471608744400242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
         <v>2024101704</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.1299798475691624</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.8712014455560423</v>
       </c>
-      <c r="D41" t="n">
-        <v>0.0006152589476501088</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="D41">
+        <v>0.0006575002125902196</v>
+      </c>
+      <c r="E41">
         <v>0.06253998115258487</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>0.2521222167476155</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>0.4095954264494739</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
+        <v>0.05604073962454841</v>
+      </c>
+      <c r="I41">
+        <v>0.4153524060049238</v>
+      </c>
+      <c r="J41">
         <v>0.3866531768313503</v>
       </c>
-      <c r="I41" t="n">
+      <c r="K41">
         <v>0.5120953064303359</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41">
         <v>7.254346145351982</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41">
         <v>4.564816828473363</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
-        <v>14.44396563350956</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="P41">
+        <v>14.91540102040397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
         <v>2024101705</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.2886565446016464</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.934746067403679</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="D42">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E42">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>0.5672749876821352</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>0.9215897095113162</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
+        <v>0.1961425886859195</v>
+      </c>
+      <c r="I42">
+        <v>1.453733421017234</v>
+      </c>
+      <c r="J42">
         <v>0.5370183011546531</v>
       </c>
-      <c r="I42" t="n">
+      <c r="K42">
         <v>0.7112434811532443</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42">
         <v>9.249291335323782</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42">
         <v>5.82014145630354</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N42" t="n">
-        <v>20.35793654199675</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="P42">
+        <v>22.00793927549472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
         <v>2024101706</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.960500432037057</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>6.437839253524516</v>
       </c>
-      <c r="D43" t="n">
-        <v>0.001538147369125272</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="D43">
+        <v>0.001643750531475549</v>
+      </c>
+      <c r="E43">
         <v>0.1563499528814621</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>0.7563666502428469</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>1.228786279348422</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
+        <v>0.6304583207761696</v>
+      </c>
+      <c r="I43">
+        <v>4.672714567555394</v>
+      </c>
+      <c r="J43">
         <v>1.396247583002098</v>
       </c>
-      <c r="I43" t="n">
+      <c r="K43">
         <v>1.849233050998435</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43">
         <v>14.14597498343637</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43">
         <v>8.901392815523058</v>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
-        <v>35.8342291483634</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="P43">
+        <v>41.13750763985731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
         <v>2024101707</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1.737003417515169</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>11.64241931788529</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.001845776842950326</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="D44">
+        <v>0.001972500637770659</v>
+      </c>
+      <c r="E44">
         <v>0.1876199434577546</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>1.890916625607117</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>3.071965698371054</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
+        <v>0.5043666566209357</v>
+      </c>
+      <c r="I44">
+        <v>3.738171654044316</v>
+      </c>
+      <c r="J44">
         <v>1.71845856369489</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44">
         <v>2.275979139690381</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44">
         <v>12.87646440799977</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44">
         <v>8.102549870540223</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44">
         <v>0.08059000455192493</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44">
         <v>0.3349368111342116</v>
       </c>
-      <c r="N44" t="n">
-        <v>43.92074957729074</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="P44">
+        <v>48.16341461175082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
         <v>2024101708</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>1.900744264452947</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>12.73990685319615</v>
       </c>
-      <c r="D45" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E45">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>1.764855517233309</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>2.867167985146317</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
+        <v>0.3362444377472905</v>
+      </c>
+      <c r="I45">
+        <v>2.492114436029544</v>
+      </c>
+      <c r="J45">
         <v>1.374766850955912</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45">
         <v>1.820783311752305</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45">
         <v>9.430649988957581</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45">
         <v>5.934261877015375</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N45" t="n">
-        <v>38.42593072633517</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="P45">
+        <v>41.2545008064367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
         <v>2024101709</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1.431466373229217</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>9.594530205604201</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.004614442107375816</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>0.004931251594426647</v>
+      </c>
+      <c r="E46">
         <v>0.4690498586443865</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>1.827886071420213</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>2.969566841758686</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
+        <v>0.3082240679350162</v>
+      </c>
+      <c r="I46">
+        <v>2.284438233027082</v>
+      </c>
+      <c r="J46">
         <v>1.654016367556332</v>
       </c>
-      <c r="I46" t="n">
+      <c r="K46">
         <v>2.190629921951992</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46">
         <v>13.05782306163358</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46">
         <v>8.216670291252056</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N46" t="n">
-        <v>41.69327131228213</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="P46">
+        <v>44.28625042273128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
         <v>2024101710</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1.083728079732496</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.263783481129601</v>
       </c>
-      <c r="D47" t="n">
-        <v>0.003076294738250545</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="D47">
+        <v>0.003287501062951099</v>
+      </c>
+      <c r="E47">
         <v>0.3126999057629243</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>1.764855517233309</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>2.867167985146317</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
+        <v>0.2241629584981936</v>
+      </c>
+      <c r="I47">
+        <v>1.661409624019695</v>
+      </c>
+      <c r="J47">
         <v>2.040669544387682</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47">
         <v>2.702725228382328</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47">
         <v>12.87646440799977</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47">
         <v>8.102549870540223</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47">
         <v>0.06715833712660414</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47">
         <v>0.2791140092785097</v>
       </c>
-      <c r="N47" t="n">
-        <v>39.36399266145801</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="P47">
+        <v>41.2497764503006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
         <v>2024101711</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1.053343180300745</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>7.060126000350265</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.002153406316775381</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48">
+        <v>0.002301250744065769</v>
+      </c>
+      <c r="E48">
         <v>0.218889934034047</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>1.386672192111885</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>2.252774845472106</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
+        <v>0.2381731434043307</v>
+      </c>
+      <c r="I48">
+        <v>1.765247725520927</v>
+      </c>
+      <c r="J48">
         <v>1.954746616202937</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48">
         <v>2.58892627139781</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48">
         <v>9.249291335323782</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48">
         <v>5.82014145630354</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48">
         <v>0.05372666970128327</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48">
         <v>0.2232912074228078</v>
       </c>
-      <c r="N48" t="n">
-        <v>31.86408311493799</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="P48">
+        <v>33.86765182829053</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
         <v>2024101712</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1.087104179669359</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>7.28641209010508</v>
       </c>
-      <c r="D49" t="n">
-        <v>0.004922071581200871</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>0.005260001700721757</v>
+      </c>
+      <c r="E49">
         <v>0.500319849220679</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>1.386672192111885</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>2.252774845472106</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
+        <v>0.1821324037797823</v>
+      </c>
+      <c r="I49">
+        <v>1.349895319516003</v>
+      </c>
+      <c r="J49">
         <v>1.611054903463959</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49">
         <v>2.133730443459733</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49">
         <v>7.435704798985785</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49">
         <v>4.678937249185199</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49">
         <v>0.02686333485064164</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49">
         <v>0.1116456037114039</v>
       </c>
-      <c r="N49" t="n">
-        <v>28.51614156181703</v>
+      <c r="P49">
+        <v>30.04850721523234</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>1.254221126543996</v>
+        <v>2.410808273177381</v>
       </c>
       <c r="C2">
-        <v>8.406528234391422</v>
+        <v>16.15865606730327</v>
       </c>
       <c r="D2">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E2">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F2">
-        <v>1.13454997536427</v>
+        <v>2.180781689173239</v>
       </c>
       <c r="G2">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="H2">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I2">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J2">
-        <v>2.255476864849543</v>
+        <v>4.335377686327564</v>
       </c>
       <c r="K2">
-        <v>2.987222620843626</v>
+        <v>5.74190695383715</v>
       </c>
       <c r="L2">
-        <v>10.33744325712658</v>
+        <v>19.87017536250078</v>
       </c>
       <c r="M2">
-        <v>6.504863980574545</v>
+        <v>12.50336130397861</v>
       </c>
       <c r="N2">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O2">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P2">
-        <v>36.62376000167555</v>
+        <v>70.39656862597514</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>1.245780876701842</v>
+        <v>2.394584798929888</v>
       </c>
       <c r="C3">
-        <v>8.349956711952716</v>
+        <v>16.04991679363367</v>
       </c>
       <c r="D3">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E3">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F3">
-        <v>2.395161059102348</v>
+        <v>4.603872454921278</v>
       </c>
       <c r="G3">
-        <v>3.891156551270001</v>
+        <v>7.479408700345335</v>
       </c>
       <c r="H3">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I3">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J3">
-        <v>1.825862223925821</v>
+        <v>3.50959146036041</v>
       </c>
       <c r="K3">
-        <v>2.418227835921031</v>
+        <v>4.648210391201502</v>
       </c>
       <c r="L3">
-        <v>8.886574028056177</v>
+        <v>17.08137882039541</v>
       </c>
       <c r="M3">
-        <v>5.59190061487987</v>
+        <v>10.74850357710442</v>
       </c>
       <c r="N3">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O3">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P3">
-        <v>36.54255015336717</v>
+        <v>70.24047065407703</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.320055075312792</v>
+        <v>2.537351372307822</v>
       </c>
       <c r="C4">
-        <v>8.847786109413313</v>
+        <v>17.00682240192618</v>
       </c>
       <c r="D4">
-        <v>0.006575002125902197</v>
+        <v>0.01263817773900961</v>
       </c>
       <c r="E4">
-        <v>0.6253998115258486</v>
+        <v>1.202115805388009</v>
       </c>
       <c r="F4">
-        <v>1.890916625607117</v>
+        <v>3.634636148622063</v>
       </c>
       <c r="G4">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H4">
-        <v>0.2101527735920566</v>
+        <v>0.403946349239821</v>
       </c>
       <c r="I4">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="J4">
-        <v>1.654016367556332</v>
+        <v>3.179276969973547</v>
       </c>
       <c r="K4">
-        <v>2.190629921951992</v>
+        <v>4.210731766147243</v>
       </c>
       <c r="L4">
-        <v>8.161139413520983</v>
+        <v>15.68698054934273</v>
       </c>
       <c r="M4">
-        <v>5.135418932032534</v>
+        <v>9.871074713667328</v>
       </c>
       <c r="N4">
-        <v>0.09402167197724577</v>
+        <v>0.1807242916448856</v>
       </c>
       <c r="O4">
-        <v>0.3907596129899135</v>
+        <v>0.7511008129925884</v>
       </c>
       <c r="P4">
-        <v>35.15640853849555</v>
+        <v>67.5760906638148</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.73362731757831</v>
+        <v>3.332301610434952</v>
       </c>
       <c r="C5">
-        <v>11.61979070890981</v>
+        <v>22.33504681173682</v>
       </c>
       <c r="D5">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E5">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F5">
-        <v>3.08849715515829</v>
+        <v>5.936572376082702</v>
       </c>
       <c r="G5">
-        <v>5.017543974006055</v>
+        <v>9.644500692550563</v>
       </c>
       <c r="H5">
-        <v>0.2942138830288791</v>
+        <v>0.5655248889357498</v>
       </c>
       <c r="I5">
-        <v>2.180600131525851</v>
+        <v>4.191452947423941</v>
       </c>
       <c r="J5">
-        <v>1.71845856369489</v>
+        <v>3.30314490386862</v>
       </c>
       <c r="K5">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="L5">
-        <v>4.715324994478791</v>
+        <v>9.063588761842466</v>
       </c>
       <c r="M5">
-        <v>2.967130938507688</v>
+        <v>5.703287612341122</v>
       </c>
       <c r="N5">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O5">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P5">
-        <v>36.04012139920012</v>
+        <v>69.2747243661272</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>2.243418408044374</v>
+        <v>4.312199454983497</v>
       </c>
       <c r="C6">
-        <v>15.03671066420754</v>
+        <v>28.90289894138095</v>
       </c>
       <c r="D6">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E6">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F6">
-        <v>2.647283275849963</v>
+        <v>5.088490608070887</v>
       </c>
       <c r="G6">
-        <v>4.300751977719476</v>
+        <v>8.266714879329053</v>
       </c>
       <c r="H6">
-        <v>0.3502546226534275</v>
+        <v>0.6732439153997019</v>
       </c>
       <c r="I6">
-        <v>2.595952537530775</v>
+        <v>4.989824937409453</v>
       </c>
       <c r="J6">
-        <v>1.43920904709447</v>
+        <v>2.76638385698997</v>
       </c>
       <c r="K6">
-        <v>1.906132529490695</v>
+        <v>3.663883484829419</v>
       </c>
       <c r="L6">
-        <v>5.078042301746392</v>
+        <v>9.760787897368809</v>
       </c>
       <c r="M6">
-        <v>3.195371779931354</v>
+        <v>6.142002044059672</v>
       </c>
       <c r="N6">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O6">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P6">
-        <v>39.15888425552448</v>
+        <v>75.26947213187637</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.902432314421376</v>
+        <v>3.6567710953848</v>
       </c>
       <c r="C7">
-        <v>12.75122115768389</v>
+        <v>24.50983228512893</v>
       </c>
       <c r="D7">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E7">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F7">
-        <v>1.575763854672597</v>
+        <v>3.028863457185051</v>
       </c>
       <c r="G7">
-        <v>2.559971415309212</v>
+        <v>4.920663618648246</v>
       </c>
       <c r="H7">
-        <v>0.4343157320902502</v>
+        <v>0.8348224550956307</v>
       </c>
       <c r="I7">
-        <v>3.218981146538159</v>
+        <v>6.187382922387723</v>
       </c>
       <c r="J7">
-        <v>1.009594406170748</v>
+        <v>1.940597631022814</v>
       </c>
       <c r="K7">
-        <v>1.337137744568099</v>
+        <v>2.570186922193772</v>
       </c>
       <c r="L7">
-        <v>4.715324994478791</v>
+        <v>9.063588761842466</v>
       </c>
       <c r="M7">
-        <v>2.967130938507688</v>
+        <v>5.703287612341122</v>
       </c>
       <c r="N7">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O7">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P7">
-        <v>32.97613975425887</v>
+        <v>63.38527461746765</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.347063874807683</v>
+        <v>2.589266489899798</v>
       </c>
       <c r="C8">
-        <v>9.028814981217165</v>
+        <v>17.35478807766892</v>
       </c>
       <c r="D8">
-        <v>0.003945001275541318</v>
+        <v>0.007582906643405767</v>
       </c>
       <c r="E8">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="F8">
-        <v>1.071519421177367</v>
+        <v>2.059627150885835</v>
       </c>
       <c r="G8">
-        <v>1.740780562410264</v>
+        <v>3.346051260680807</v>
       </c>
       <c r="H8">
-        <v>0.2661935132166048</v>
+        <v>0.5116653757037736</v>
       </c>
       <c r="I8">
-        <v>1.972923928523388</v>
+        <v>3.792266952431184</v>
       </c>
       <c r="J8">
-        <v>0.5799797652470252</v>
+        <v>1.114811405055659</v>
       </c>
       <c r="K8">
-        <v>0.7681429596455039</v>
+        <v>1.476490359558124</v>
       </c>
       <c r="L8">
-        <v>7.798422106253384</v>
+        <v>14.98978141381639</v>
       </c>
       <c r="M8">
-        <v>4.907178090608866</v>
+        <v>9.432360281948778</v>
       </c>
       <c r="N8">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O8">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P8">
-        <v>29.99871302986035</v>
+        <v>57.66219690170762</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.8372727843416169</v>
+        <v>1.609368645351253</v>
       </c>
       <c r="C9">
-        <v>5.611895025919443</v>
+        <v>10.7869359480248</v>
       </c>
       <c r="D9">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E9">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F9">
-        <v>1.13454997536427</v>
+        <v>2.180781689173239</v>
       </c>
       <c r="G9">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="H9">
-        <v>0.4062953622779759</v>
+        <v>0.7809629418636543</v>
       </c>
       <c r="I9">
-        <v>3.011304943535698</v>
+        <v>5.788196927394965</v>
       </c>
       <c r="J9">
-        <v>0.6014604972932114</v>
+        <v>1.156100716354017</v>
       </c>
       <c r="K9">
-        <v>0.7965926988916336</v>
+        <v>1.531175187689907</v>
       </c>
       <c r="L9">
-        <v>8.34249806715478</v>
+        <v>16.03558011710591</v>
       </c>
       <c r="M9">
-        <v>5.249539352744369</v>
+        <v>10.0904319295266</v>
       </c>
       <c r="N9">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O9">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P9">
-        <v>28.09343503992218</v>
+        <v>53.99995597494026</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.680284137277564</v>
+        <v>1.307612024347893</v>
       </c>
       <c r="C10">
-        <v>4.559664708559546</v>
+        <v>8.764385457770146</v>
       </c>
       <c r="D10">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E10">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F10">
-        <v>0.5042444334952311</v>
+        <v>0.9692363062992164</v>
       </c>
       <c r="G10">
-        <v>0.8191908528989478</v>
+        <v>1.574612357967439</v>
       </c>
       <c r="H10">
-        <v>0.1120814792490968</v>
+        <v>0.2154380529279047</v>
       </c>
       <c r="I10">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="J10">
-        <v>0.3651724447851641</v>
+        <v>0.7019182920720819</v>
       </c>
       <c r="K10">
-        <v>0.4836455671842062</v>
+        <v>0.9296420782403003</v>
       </c>
       <c r="L10">
-        <v>5.078042301746392</v>
+        <v>9.760787897368809</v>
       </c>
       <c r="M10">
-        <v>3.195371779931354</v>
+        <v>6.142002044059672</v>
       </c>
       <c r="P10">
-        <v>16.97598866464581</v>
+        <v>32.63049318174434</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,43 +924,43 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.4473332416341302</v>
+        <v>0.8598441351171004</v>
       </c>
       <c r="C11">
-        <v>2.998290689251316</v>
+        <v>5.763181504489051</v>
       </c>
       <c r="D11">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E11">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F11">
-        <v>0.1890916625607117</v>
+        <v>0.3634636148622061</v>
       </c>
       <c r="G11">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H11">
-        <v>0.1821324037797823</v>
+        <v>0.3500868360078451</v>
       </c>
       <c r="I11">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="J11">
-        <v>0.2577687845542335</v>
+        <v>0.4954717355802931</v>
       </c>
       <c r="K11">
-        <v>0.3413968709535573</v>
+        <v>0.6562179375813884</v>
       </c>
       <c r="L11">
-        <v>5.440759609013989</v>
+        <v>10.45798703289515</v>
       </c>
       <c r="M11">
-        <v>3.423612621355023</v>
+        <v>6.580716475778218</v>
       </c>
       <c r="P11">
-        <v>15.03227399450361</v>
+        <v>28.89437097147101</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -968,49 +968,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.2532074952646021</v>
+        <v>0.486704227424774</v>
       </c>
       <c r="C12">
-        <v>1.697145673161122</v>
+        <v>3.262178210088144</v>
       </c>
       <c r="D12">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E12">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F12">
-        <v>0.1260611083738078</v>
+        <v>0.2423090765748041</v>
       </c>
       <c r="G12">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H12">
-        <v>0.1120814792490968</v>
+        <v>0.2154380529279047</v>
       </c>
       <c r="I12">
-        <v>0.8307048120098477</v>
+        <v>1.596743979971024</v>
       </c>
       <c r="J12">
-        <v>0.1288843922771168</v>
+        <v>0.2477358677901466</v>
       </c>
       <c r="K12">
-        <v>0.1706984354767787</v>
+        <v>0.3281089687906942</v>
       </c>
       <c r="L12">
-        <v>1.632227882704197</v>
+        <v>3.137396109868545</v>
       </c>
       <c r="M12">
-        <v>1.027083786406507</v>
+        <v>1.974214942733466</v>
       </c>
       <c r="N12">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O12">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P12">
-        <v>6.536535913572123</v>
+        <v>12.56423969015959</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,43 +1018,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.153612547127192</v>
+        <v>0.2952672313043629</v>
       </c>
       <c r="C13">
-        <v>1.029601708384413</v>
+        <v>1.979054780786807</v>
       </c>
       <c r="D13">
-        <v>0.001315000425180439</v>
+        <v>0.002527635547801923</v>
       </c>
       <c r="E13">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="F13">
-        <v>0.1260611083738078</v>
+        <v>0.2423090765748041</v>
       </c>
       <c r="G13">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H13">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I13">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J13">
-        <v>0.1288843922771168</v>
+        <v>0.2477358677901466</v>
       </c>
       <c r="K13">
-        <v>0.1706984354767787</v>
+        <v>0.3281089687906942</v>
       </c>
       <c r="L13">
-        <v>1.450869229070398</v>
+        <v>2.788796542105375</v>
       </c>
       <c r="M13">
-        <v>0.912963365694673</v>
+        <v>1.754857726874192</v>
       </c>
       <c r="P13">
-        <v>4.893124894396307</v>
+        <v>9.405347850905477</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1062,43 +1062,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.08946664832682609</v>
+        <v>0.1719688270234203</v>
       </c>
       <c r="C14">
-        <v>0.5996581378502626</v>
+        <v>1.152636300897811</v>
       </c>
       <c r="D14">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E14">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F14">
-        <v>0.1890916625607117</v>
+        <v>0.3634636148622061</v>
       </c>
       <c r="G14">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H14">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I14">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J14">
-        <v>0.1933265884156751</v>
+        <v>0.3716038016852198</v>
       </c>
       <c r="K14">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="L14">
-        <v>2.720379804506995</v>
+        <v>5.228993516447574</v>
       </c>
       <c r="M14">
-        <v>1.711806310677511</v>
+        <v>3.290358237889109</v>
       </c>
       <c r="P14">
-        <v>6.727958965115253</v>
+        <v>12.93218459761674</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1106,43 +1106,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.042201249210767</v>
+        <v>0.08111737123746234</v>
       </c>
       <c r="C15">
-        <v>0.2828576121935204</v>
+        <v>0.5436963683480243</v>
       </c>
       <c r="D15">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E15">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F15">
-        <v>0.1890916625607117</v>
+        <v>0.3634636148622061</v>
       </c>
       <c r="G15">
-        <v>0.3071965698371054</v>
+        <v>0.5904796342377894</v>
       </c>
       <c r="H15">
-        <v>0.0140101849061371</v>
+        <v>0.02692975661598809</v>
       </c>
       <c r="I15">
-        <v>0.103838101501231</v>
+        <v>0.199592997496378</v>
       </c>
       <c r="J15">
-        <v>0.1933265884156751</v>
+        <v>0.3716038016852198</v>
       </c>
       <c r="K15">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="L15">
-        <v>1.269510575436598</v>
+        <v>2.440196974342202</v>
       </c>
       <c r="M15">
-        <v>0.7988429449828386</v>
+        <v>1.535500511014918</v>
       </c>
       <c r="P15">
-        <v>3.61491684567269</v>
+        <v>6.948432978807984</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1150,37 +1150,37 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.02363269955802953</v>
+        <v>0.0454257278929789</v>
       </c>
       <c r="C16">
-        <v>0.1584002628283714</v>
+        <v>0.3044699662748935</v>
       </c>
       <c r="D16">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E16">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F16">
-        <v>0.06303055418690388</v>
+        <v>0.1211545382874021</v>
       </c>
       <c r="G16">
-        <v>0.1023988566123685</v>
+        <v>0.1968265447459298</v>
       </c>
       <c r="J16">
-        <v>0.06444219613855838</v>
+        <v>0.1238679338950733</v>
       </c>
       <c r="K16">
-        <v>0.08534921773838933</v>
+        <v>0.1640544843953471</v>
       </c>
       <c r="L16">
-        <v>2.176303843605596</v>
+        <v>4.183194813158062</v>
       </c>
       <c r="M16">
-        <v>1.369445048542009</v>
+        <v>2.632286590311287</v>
       </c>
       <c r="P16">
-        <v>4.137798901257989</v>
+        <v>7.953493696430026</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1188,37 +1188,37 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.1147873978532862</v>
+        <v>0.2206392497658975</v>
       </c>
       <c r="C17">
-        <v>0.7693727051663752</v>
+        <v>1.478854121906625</v>
       </c>
       <c r="F17">
-        <v>0.1260611083738078</v>
+        <v>0.2423090765748041</v>
       </c>
       <c r="G17">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H17">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I17">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J17">
-        <v>0.171845856369489</v>
+        <v>0.3303144903868621</v>
       </c>
       <c r="K17">
-        <v>0.2275979139690381</v>
+        <v>0.4374786250542589</v>
       </c>
       <c r="L17">
-        <v>4.53396634084499</v>
+        <v>8.714989194079291</v>
       </c>
       <c r="M17">
-        <v>2.853010517795852</v>
+        <v>5.483930396481848</v>
       </c>
       <c r="P17">
-        <v>9.472832699227048</v>
+        <v>18.20825926019091</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,43 +1226,43 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.2768401948226317</v>
+        <v>0.5321299553177529</v>
       </c>
       <c r="C18">
-        <v>1.855545935989493</v>
+        <v>3.566648176363038</v>
       </c>
       <c r="D18">
-        <v>0.001315000425180439</v>
+        <v>0.002527635547801923</v>
       </c>
       <c r="E18">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="F18">
-        <v>0.2521222167476155</v>
+        <v>0.4846181531496082</v>
       </c>
       <c r="G18">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H18">
-        <v>0.1681222188736453</v>
+        <v>0.3231570793918569</v>
       </c>
       <c r="I18">
-        <v>1.246057218014772</v>
+        <v>2.395115969956537</v>
       </c>
       <c r="J18">
-        <v>0.5584990332008393</v>
+        <v>1.073522093757302</v>
       </c>
       <c r="K18">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="L18">
-        <v>10.15608460349278</v>
+        <v>19.52157579473762</v>
       </c>
       <c r="M18">
-        <v>6.390743559862709</v>
+        <v>12.28400408811934</v>
       </c>
       <c r="P18">
-        <v>22.17969859058369</v>
+        <v>42.63283381782852</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,49 +1270,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.8744098836470925</v>
+        <v>1.680751932040219</v>
       </c>
       <c r="C19">
-        <v>5.860809724649742</v>
+        <v>11.26538875217106</v>
       </c>
       <c r="D19">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E19">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="F19">
-        <v>0.6303055418690392</v>
+        <v>1.21154538287402</v>
       </c>
       <c r="G19">
-        <v>1.023988566123685</v>
+        <v>1.968265447459299</v>
       </c>
       <c r="H19">
-        <v>0.5884277660577583</v>
+        <v>1.1310497778715</v>
       </c>
       <c r="I19">
-        <v>4.361200263051701</v>
+        <v>8.382905894847882</v>
       </c>
       <c r="J19">
-        <v>1.116998066401679</v>
+        <v>2.147044187514603</v>
       </c>
       <c r="K19">
-        <v>1.479386440798748</v>
+        <v>2.843611062852684</v>
       </c>
       <c r="L19">
-        <v>14.50869229070396</v>
+        <v>27.88796542105373</v>
       </c>
       <c r="M19">
-        <v>9.129633656946726</v>
+        <v>17.54857726874192</v>
       </c>
       <c r="N19">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O19">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P19">
-        <v>39.87641183014097</v>
+        <v>76.64867184116918</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1320,49 +1320,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.765700266978492</v>
+        <v>3.393950812575423</v>
       </c>
       <c r="C20">
-        <v>11.83476249417689</v>
+        <v>22.74825605168133</v>
       </c>
       <c r="D20">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E20">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F20">
-        <v>2.080008288167829</v>
+        <v>3.998099763484269</v>
       </c>
       <c r="G20">
-        <v>3.379162268208161</v>
+        <v>6.495275976615685</v>
       </c>
       <c r="H20">
-        <v>0.4903564717147984</v>
+        <v>0.9425414815595829</v>
       </c>
       <c r="I20">
-        <v>3.634333552543085</v>
+        <v>6.985754912373235</v>
       </c>
       <c r="J20">
-        <v>1.847342955972007</v>
+        <v>3.550880771658767</v>
       </c>
       <c r="K20">
-        <v>2.44667757516716</v>
+        <v>4.702895219333283</v>
       </c>
       <c r="L20">
-        <v>10.51880191076038</v>
+        <v>20.21877493026395</v>
       </c>
       <c r="M20">
-        <v>6.618984401286378</v>
+        <v>12.72271851983789</v>
       </c>
       <c r="N20">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O20">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P20">
-        <v>45.22124944475684</v>
+        <v>86.92228186686793</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,49 +1370,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.939569413726852</v>
+        <v>3.728154382073769</v>
       </c>
       <c r="C21">
-        <v>13.00013585641419</v>
+        <v>24.98828508927517</v>
       </c>
       <c r="D21">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E21">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F21">
-        <v>1.260611083738078</v>
+        <v>2.42309076574804</v>
       </c>
       <c r="G21">
-        <v>2.047977132247369</v>
+        <v>3.936530894918598</v>
       </c>
       <c r="H21">
-        <v>0.3642648075595647</v>
+        <v>0.7001736720156901</v>
       </c>
       <c r="I21">
-        <v>2.699790639032006</v>
+        <v>5.189417934905832</v>
       </c>
       <c r="J21">
-        <v>1.611054903463959</v>
+        <v>3.096698347376831</v>
       </c>
       <c r="K21">
-        <v>2.133730443459733</v>
+        <v>4.101362109883679</v>
       </c>
       <c r="L21">
-        <v>9.793367296225181</v>
+        <v>18.82437665921127</v>
       </c>
       <c r="M21">
-        <v>6.162502718439041</v>
+        <v>11.84528965640079</v>
       </c>
       <c r="N21">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O21">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P21">
-        <v>41.77611725750057</v>
+        <v>80.30020143507595</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1420,49 +1420,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.515868871650751</v>
+        <v>2.913735974849647</v>
       </c>
       <c r="C22">
-        <v>10.16024542999125</v>
+        <v>19.52957355106101</v>
       </c>
       <c r="D22">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E22">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F22">
-        <v>1.764855517233309</v>
+        <v>3.392327072047259</v>
       </c>
       <c r="G22">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="H22">
-        <v>0.3642648075595647</v>
+        <v>0.7001736720156901</v>
       </c>
       <c r="I22">
-        <v>2.699790639032006</v>
+        <v>5.189417934905832</v>
       </c>
       <c r="J22">
-        <v>1.890304420064379</v>
+        <v>3.633459394255483</v>
       </c>
       <c r="K22">
-        <v>2.50357705365942</v>
+        <v>4.812264875596849</v>
       </c>
       <c r="L22">
-        <v>12.33238844709838</v>
+        <v>23.70477060789568</v>
       </c>
       <c r="M22">
-        <v>7.760188608404719</v>
+        <v>14.91629067843063</v>
       </c>
       <c r="N22">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O22">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P22">
-        <v>44.42611531102332</v>
+        <v>85.39391026849391</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>1.068535630016621</v>
+        <v>2.053891839732547</v>
       </c>
       <c r="C23">
-        <v>7.161954740739933</v>
+        <v>13.76639204657197</v>
       </c>
       <c r="D23">
-        <v>0.005588751807016867</v>
+        <v>0.01074245107815817</v>
       </c>
       <c r="E23">
-        <v>0.5315898397969715</v>
+        <v>1.021798434579807</v>
       </c>
       <c r="F23">
-        <v>1.44970274629879</v>
+        <v>2.786554380610248</v>
       </c>
       <c r="G23">
-        <v>2.355173702084475</v>
+        <v>4.527010529156385</v>
       </c>
       <c r="H23">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I23">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J23">
-        <v>2.319919060988101</v>
+        <v>4.459245620222638</v>
       </c>
       <c r="K23">
-        <v>3.072571838582016</v>
+        <v>5.905961438232497</v>
       </c>
       <c r="L23">
-        <v>12.15102979346457</v>
+        <v>23.35617104013251</v>
       </c>
       <c r="M23">
-        <v>7.646068187692886</v>
+        <v>14.69693346257135</v>
       </c>
       <c r="N23">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O23">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P23">
-        <v>39.35614397123119</v>
+        <v>75.64863601655817</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>1.088792229637788</v>
+        <v>2.092828177926528</v>
       </c>
       <c r="C24">
-        <v>7.297726394592822</v>
+        <v>14.02736630337902</v>
       </c>
       <c r="D24">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E24">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F24">
-        <v>1.701824963046406</v>
+        <v>3.271172533759855</v>
       </c>
       <c r="G24">
-        <v>2.764769128533949</v>
+        <v>5.314316708140104</v>
       </c>
       <c r="H24">
-        <v>0.2101527735920566</v>
+        <v>0.403946349239821</v>
       </c>
       <c r="I24">
-        <v>1.557571522518465</v>
+        <v>2.993894962445672</v>
       </c>
       <c r="J24">
-        <v>2.148073204618612</v>
+        <v>4.128931129835775</v>
       </c>
       <c r="K24">
-        <v>2.844973924612977</v>
+        <v>5.468482813178238</v>
       </c>
       <c r="L24">
-        <v>10.88151921802798</v>
+        <v>20.9159740657903</v>
       </c>
       <c r="M24">
-        <v>6.847225242710046</v>
+        <v>13.16143295155644</v>
       </c>
       <c r="N24">
-        <v>0.04029500227596246</v>
+        <v>0.07745326784780809</v>
       </c>
       <c r="O24">
-        <v>0.1674684055671058</v>
+        <v>0.3219003484253949</v>
       </c>
       <c r="P24">
-        <v>37.73998445382969</v>
+        <v>72.54212580646306</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>1.024646330837423</v>
+        <v>1.969529773645585</v>
       </c>
       <c r="C25">
-        <v>6.86778282405867</v>
+        <v>13.20094782349002</v>
       </c>
       <c r="D25">
-        <v>0.004273751381836427</v>
+        <v>0.008214815530356249</v>
       </c>
       <c r="E25">
-        <v>0.4065098774918017</v>
+        <v>0.7813752735022055</v>
       </c>
       <c r="F25">
-        <v>1.13454997536427</v>
+        <v>2.180781689173239</v>
       </c>
       <c r="G25">
-        <v>1.843179419022632</v>
+        <v>3.542877805426738</v>
       </c>
       <c r="H25">
-        <v>0.1821324037797823</v>
+        <v>0.3500868360078451</v>
       </c>
       <c r="I25">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="J25">
-        <v>1.353286118909726</v>
+        <v>2.601226611796539</v>
       </c>
       <c r="K25">
-        <v>1.792333572506176</v>
+        <v>3.44514417230229</v>
       </c>
       <c r="L25">
-        <v>7.979780759887184</v>
+        <v>15.33838098157956</v>
       </c>
       <c r="M25">
-        <v>5.021298511320698</v>
+        <v>9.651717497808056</v>
       </c>
       <c r="N25">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O25">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P25">
-        <v>29.09817780263825</v>
+        <v>55.93122799189749</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>1.185011077838338</v>
+        <v>2.277775784347942</v>
       </c>
       <c r="C26">
-        <v>7.94264175039405</v>
+        <v>15.26699402321251</v>
       </c>
       <c r="D26">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E26">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F26">
-        <v>1.764855517233309</v>
+        <v>3.392327072047259</v>
       </c>
       <c r="G26">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="H26">
-        <v>0.1541120339675081</v>
+        <v>0.2962273227758689</v>
       </c>
       <c r="I26">
-        <v>1.142219116513541</v>
+        <v>2.19552297246016</v>
       </c>
       <c r="J26">
-        <v>2.10511174052624</v>
+        <v>4.046352507239059</v>
       </c>
       <c r="K26">
-        <v>2.788074446120718</v>
+        <v>5.359113156914672</v>
       </c>
       <c r="L26">
-        <v>8.886574028056177</v>
+        <v>17.08137882039541</v>
       </c>
       <c r="M26">
-        <v>5.59190061487987</v>
+        <v>10.74850357710442</v>
       </c>
       <c r="N26">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O26">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P26">
-        <v>34.99513184185929</v>
+        <v>67.26609174393313</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>1.147873978532862</v>
+        <v>2.206392497658974</v>
       </c>
       <c r="C27">
-        <v>7.693727051663751</v>
+        <v>14.78854121906626</v>
       </c>
       <c r="D27">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E27">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F27">
-        <v>1.386672192111885</v>
+        <v>2.665399842322846</v>
       </c>
       <c r="G27">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="H27">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I27">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J27">
-        <v>1.288843922771167</v>
+        <v>2.477358677901465</v>
       </c>
       <c r="K27">
-        <v>1.706984354767786</v>
+        <v>3.281089687906943</v>
       </c>
       <c r="L27">
-        <v>9.612008642591375</v>
+        <v>18.47577709144812</v>
       </c>
       <c r="M27">
-        <v>6.048382297727207</v>
+        <v>11.62593244054152</v>
       </c>
       <c r="N27">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O27">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P27">
-        <v>32.70704901373457</v>
+        <v>62.86804031981318</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>1.26603747632301</v>
+        <v>2.433521137123869</v>
       </c>
       <c r="C28">
-        <v>8.485728365805608</v>
+        <v>16.31089105044072</v>
       </c>
       <c r="D28">
-        <v>0.003616251169246207</v>
+        <v>0.006950997756455287</v>
       </c>
       <c r="E28">
-        <v>0.3439698963392167</v>
+        <v>0.6611636929634048</v>
       </c>
       <c r="F28">
-        <v>2.332130504915444</v>
+        <v>4.482717916633877</v>
       </c>
       <c r="G28">
-        <v>3.788757694657634</v>
+        <v>7.282582155599405</v>
       </c>
       <c r="H28">
-        <v>0.2381731434043307</v>
+        <v>0.4578058624717974</v>
       </c>
       <c r="I28">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="J28">
-        <v>1.911785152110565</v>
+        <v>3.674748705553841</v>
       </c>
       <c r="K28">
-        <v>2.53202679290555</v>
+        <v>4.866949703728631</v>
       </c>
       <c r="L28">
-        <v>8.523856720788585</v>
+        <v>16.38417968486907</v>
       </c>
       <c r="M28">
-        <v>5.363659773456201</v>
+        <v>10.30978914538587</v>
       </c>
       <c r="N28">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O28">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P28">
-        <v>36.83200737452041</v>
+        <v>70.79685249832964</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.816341766031413</v>
+        <v>3.491291658060378</v>
       </c>
       <c r="C29">
-        <v>12.17419162880912</v>
+        <v>23.40069169369894</v>
       </c>
       <c r="D29">
-        <v>0.003945001275541318</v>
+        <v>0.007582906643405767</v>
       </c>
       <c r="E29">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="F29">
-        <v>2.584252721663059</v>
+        <v>4.967336069783488</v>
       </c>
       <c r="G29">
-        <v>4.198353121107107</v>
+        <v>8.069888334583121</v>
       </c>
       <c r="H29">
-        <v>0.280203698122742</v>
+        <v>0.5385951323197616</v>
       </c>
       <c r="I29">
-        <v>2.07676203002462</v>
+        <v>3.991859949927563</v>
       </c>
       <c r="J29">
-        <v>2.040669544387682</v>
+        <v>3.922484573343988</v>
       </c>
       <c r="K29">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="L29">
-        <v>5.803476916281591</v>
+        <v>11.1551861684215</v>
       </c>
       <c r="M29">
-        <v>3.651853462778692</v>
+        <v>7.019430907496766</v>
       </c>
       <c r="N29">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O29">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P29">
-        <v>38.05428735218451</v>
+        <v>73.14626491048638</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>2.059420961485431</v>
+        <v>3.95852771638816</v>
       </c>
       <c r="C30">
-        <v>13.80345147504379</v>
+        <v>26.53238277538358</v>
       </c>
       <c r="D30">
-        <v>0.004602501488131538</v>
+        <v>0.008846724417306729</v>
       </c>
       <c r="E30">
-        <v>0.437779868068094</v>
+        <v>0.8414810637716059</v>
       </c>
       <c r="F30">
-        <v>2.521222167476157</v>
+        <v>4.846181531496081</v>
       </c>
       <c r="G30">
-        <v>4.095954264494739</v>
+        <v>7.873061789837196</v>
       </c>
       <c r="H30">
-        <v>0.3222342528411533</v>
+        <v>0.6193844021677259</v>
       </c>
       <c r="I30">
-        <v>2.388276334528312</v>
+        <v>4.590638942416698</v>
       </c>
       <c r="J30">
-        <v>1.33180538686354</v>
+        <v>2.559937300498182</v>
       </c>
       <c r="K30">
-        <v>1.763883833260046</v>
+        <v>3.390459344170508</v>
       </c>
       <c r="L30">
-        <v>4.17124903357739</v>
+        <v>8.017790058552954</v>
       </c>
       <c r="M30">
-        <v>2.624769676372185</v>
+        <v>5.045215964763301</v>
       </c>
       <c r="N30">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O30">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P30">
-        <v>35.87092210190408</v>
+        <v>68.94949697431862</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.931129163884698</v>
+        <v>3.711930907826276</v>
       </c>
       <c r="C31">
-        <v>12.94356433397548</v>
+        <v>24.87954581560556</v>
       </c>
       <c r="D31">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E31">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F31">
-        <v>2.710313830036866</v>
+        <v>5.209645146358289</v>
       </c>
       <c r="G31">
-        <v>4.403150834331844</v>
+        <v>8.463541424074984</v>
       </c>
       <c r="H31">
-        <v>0.4483259169963872</v>
+        <v>0.8617522117116188</v>
       </c>
       <c r="I31">
-        <v>3.322819248039391</v>
+        <v>6.386975919884097</v>
       </c>
       <c r="J31">
-        <v>1.031075138216934</v>
+        <v>1.981886942321172</v>
       </c>
       <c r="K31">
-        <v>1.365587483814229</v>
+        <v>2.624871750325553</v>
       </c>
       <c r="L31">
-        <v>6.710270184450586</v>
+        <v>12.89818400723736</v>
       </c>
       <c r="M31">
-        <v>4.222455566337862</v>
+        <v>8.116216986793138</v>
       </c>
       <c r="N31">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O31">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P31">
-        <v>39.5431880454722</v>
+        <v>76.00816384788369</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,43 +1920,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>1.228900377017536</v>
+        <v>2.362137850434904</v>
       </c>
       <c r="C32">
-        <v>8.236813667075307</v>
+        <v>15.83243824629446</v>
       </c>
       <c r="D32">
-        <v>0.002630000850360878</v>
+        <v>0.005055271095603845</v>
       </c>
       <c r="E32">
-        <v>0.2501599246103395</v>
+        <v>0.4808463221552035</v>
       </c>
       <c r="F32">
-        <v>2.584252721663059</v>
+        <v>4.967336069783488</v>
       </c>
       <c r="G32">
-        <v>4.198353121107107</v>
+        <v>8.069888334583121</v>
       </c>
       <c r="H32">
-        <v>0.3782749924657018</v>
+        <v>0.7271034286316781</v>
       </c>
       <c r="I32">
-        <v>2.803628740533236</v>
+        <v>5.38901093240221</v>
       </c>
       <c r="J32">
-        <v>0.9021907459398172</v>
+        <v>1.734151074531026</v>
       </c>
       <c r="K32">
-        <v>1.19488904833745</v>
+        <v>2.296762781534859</v>
       </c>
       <c r="L32">
-        <v>7.617063452619584</v>
+        <v>14.64118184605321</v>
       </c>
       <c r="M32">
-        <v>4.793057669897035</v>
+        <v>9.213003066089508</v>
       </c>
       <c r="P32">
-        <v>34.19021446211654</v>
+        <v>65.71891522358926</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1964,43 +1964,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.7765029854781131</v>
+        <v>1.492559630769308</v>
       </c>
       <c r="C33">
-        <v>5.204580064360772</v>
+        <v>10.00401317760364</v>
       </c>
       <c r="D33">
-        <v>0.003945001275541318</v>
+        <v>0.007582906643405767</v>
       </c>
       <c r="E33">
-        <v>0.3752398869155092</v>
+        <v>0.7212694832328053</v>
       </c>
       <c r="F33">
-        <v>1.323641637924981</v>
+        <v>2.544245304035444</v>
       </c>
       <c r="G33">
-        <v>2.150375988859738</v>
+        <v>4.133357439664526</v>
       </c>
       <c r="H33">
-        <v>0.4483259169963872</v>
+        <v>0.8617522117116188</v>
       </c>
       <c r="I33">
-        <v>3.322819248039391</v>
+        <v>6.386975919884097</v>
       </c>
       <c r="J33">
-        <v>0.4940568370622809</v>
+        <v>0.9496541598622286</v>
       </c>
       <c r="K33">
-        <v>0.6543440026609847</v>
+        <v>1.257751047030994</v>
       </c>
       <c r="L33">
-        <v>6.528911530816788</v>
+        <v>12.54958443947418</v>
       </c>
       <c r="M33">
-        <v>4.108335145626028</v>
+        <v>7.896859770933863</v>
       </c>
       <c r="P33">
-        <v>25.39107824601651</v>
+        <v>48.80560549084611</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.6566514377195342</v>
+        <v>1.262186296454914</v>
       </c>
       <c r="C34">
-        <v>4.401264445731178</v>
+        <v>8.459915491495254</v>
       </c>
       <c r="D34">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E34">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F34">
-        <v>0.6303055418690392</v>
+        <v>1.21154538287402</v>
       </c>
       <c r="G34">
-        <v>1.023988566123685</v>
+        <v>1.968265447459299</v>
       </c>
       <c r="H34">
-        <v>0.140101849061371</v>
+        <v>0.2692975661598808</v>
       </c>
       <c r="I34">
-        <v>1.03838101501231</v>
+        <v>1.995929974963781</v>
       </c>
       <c r="J34">
-        <v>0.4296146409237225</v>
+        <v>0.8257862259671551</v>
       </c>
       <c r="K34">
-        <v>0.5689947849225954</v>
+        <v>1.093696562635647</v>
       </c>
       <c r="L34">
-        <v>5.62211826264779</v>
+        <v>10.80658660065833</v>
       </c>
       <c r="M34">
-        <v>3.537733042066858</v>
+        <v>6.800073691637492</v>
       </c>
       <c r="N34">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O34">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P34">
-        <v>18.33959924013721</v>
+        <v>35.2515650064913</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,49 +2058,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.5199193902766495</v>
+        <v>0.9993660136455361</v>
       </c>
       <c r="C35">
-        <v>3.484805782224169</v>
+        <v>6.698339258047656</v>
       </c>
       <c r="D35">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E35">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F35">
-        <v>0.6933360960559426</v>
+        <v>1.332699921161423</v>
       </c>
       <c r="G35">
-        <v>1.126387422736053</v>
+        <v>2.165091992205228</v>
       </c>
       <c r="H35">
-        <v>0.1961425886859195</v>
+        <v>0.3770165926238331</v>
       </c>
       <c r="I35">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="J35">
-        <v>0.5584990332008393</v>
+        <v>1.073522093757302</v>
       </c>
       <c r="K35">
-        <v>0.7396932203993741</v>
+        <v>1.421805531426342</v>
       </c>
       <c r="L35">
-        <v>5.984835569915387</v>
+        <v>11.50378573618467</v>
       </c>
       <c r="M35">
-        <v>3.765973883490525</v>
+        <v>7.238788123356039</v>
       </c>
       <c r="N35">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O35">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P35">
-        <v>18.87696954342641</v>
+        <v>36.28447439185555</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,43 +2108,43 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2683999449804783</v>
+        <v>0.5159064810702604</v>
       </c>
       <c r="C36">
-        <v>1.798974413550789</v>
+        <v>3.457908902693433</v>
       </c>
       <c r="D36">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E36">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F36">
-        <v>0.3781833251214234</v>
+        <v>0.7269272297244123</v>
       </c>
       <c r="G36">
-        <v>0.6143931396742108</v>
+        <v>1.180959268475579</v>
       </c>
       <c r="H36">
-        <v>0.09807129434295973</v>
+        <v>0.1885082963119165</v>
       </c>
       <c r="I36">
-        <v>0.7268667105086168</v>
+        <v>1.397150982474647</v>
       </c>
       <c r="J36">
-        <v>0.2577687845542335</v>
+        <v>0.4954717355802931</v>
       </c>
       <c r="K36">
-        <v>0.3413968709535573</v>
+        <v>0.6562179375813884</v>
       </c>
       <c r="L36">
-        <v>2.901738458140795</v>
+        <v>5.57759308421075</v>
       </c>
       <c r="M36">
-        <v>1.825926731389346</v>
+        <v>3.509715453748383</v>
       </c>
       <c r="P36">
-        <v>9.432910857994523</v>
+        <v>18.13152326596552</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2152,49 +2152,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.163740846937776</v>
+        <v>0.3147354004013539</v>
       </c>
       <c r="C37">
-        <v>1.097487535310859</v>
+        <v>2.109541909190332</v>
       </c>
       <c r="D37">
-        <v>0.002958750956655988</v>
+        <v>0.005687179982554325</v>
       </c>
       <c r="E37">
-        <v>0.2814299151866319</v>
+        <v>0.5409521124246038</v>
       </c>
       <c r="F37">
-        <v>0.1260611083738078</v>
+        <v>0.2423090765748041</v>
       </c>
       <c r="G37">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H37">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I37">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J37">
-        <v>0.2792495166004196</v>
+        <v>0.5367610468786508</v>
       </c>
       <c r="K37">
-        <v>0.3698466101996871</v>
+        <v>0.7109027657131709</v>
       </c>
       <c r="L37">
-        <v>1.813586536337995</v>
+        <v>3.485995677631716</v>
       </c>
       <c r="M37">
-        <v>1.141204207118341</v>
+        <v>2.19357215859274</v>
       </c>
       <c r="N37">
-        <v>0.01343166742532082</v>
+        <v>0.02581775594926936</v>
       </c>
       <c r="O37">
-        <v>0.05582280185570195</v>
+        <v>0.1073001161417984</v>
       </c>
       <c r="P37">
-        <v>6.138858641564775</v>
+        <v>11.79984205953468</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2202,43 +2202,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.07933834851624195</v>
+        <v>0.1525006579264292</v>
       </c>
       <c r="C38">
-        <v>0.5317723109238183</v>
+        <v>1.022149172494285</v>
       </c>
       <c r="D38">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E38">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F38">
-        <v>0.1260611083738078</v>
+        <v>0.2423090765748041</v>
       </c>
       <c r="G38">
-        <v>0.2047977132247369</v>
+        <v>0.3936530894918597</v>
       </c>
       <c r="H38">
-        <v>0.0700509245306855</v>
+        <v>0.1346487830799404</v>
       </c>
       <c r="I38">
-        <v>0.5191905075061549</v>
+        <v>0.9979649874818907</v>
       </c>
       <c r="J38">
-        <v>0.1933265884156751</v>
+        <v>0.3716038016852198</v>
       </c>
       <c r="K38">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="L38">
-        <v>1.994945189971796</v>
+        <v>3.834595245394889</v>
       </c>
       <c r="M38">
-        <v>1.255324627830175</v>
+        <v>2.412929374452014</v>
       </c>
       <c r="P38">
-        <v>5.546842379334135</v>
+        <v>10.66189463333088</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2246,31 +2246,31 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.0607697988635045</v>
+        <v>0.1168090145819457</v>
       </c>
       <c r="C39">
-        <v>0.4073149615586692</v>
+        <v>0.7829227704211545</v>
       </c>
       <c r="D39">
-        <v>0.0009862503188853295</v>
+        <v>0.001895726660851442</v>
       </c>
       <c r="E39">
-        <v>0.0938099717288773</v>
+        <v>0.1803173708082013</v>
       </c>
       <c r="J39">
-        <v>0.1074036602309306</v>
+        <v>0.2064465564917888</v>
       </c>
       <c r="K39">
-        <v>0.1422486962306488</v>
+        <v>0.2734241406589119</v>
       </c>
       <c r="L39">
-        <v>1.994945189971796</v>
+        <v>3.834595245394889</v>
       </c>
       <c r="M39">
-        <v>1.255324627830175</v>
+        <v>2.412929374452014</v>
       </c>
       <c r="P39">
-        <v>4.062803156733485</v>
+        <v>7.809340199469757</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,37 +2278,37 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.05908174889507377</v>
+        <v>0.1135643197324473</v>
       </c>
       <c r="C40">
-        <v>0.3960006570709285</v>
+        <v>0.7611749156872334</v>
       </c>
       <c r="D40">
-        <v>0.001315000425180439</v>
+        <v>0.002527635547801923</v>
       </c>
       <c r="E40">
-        <v>0.1250799623051697</v>
+        <v>0.2404231610776017</v>
       </c>
       <c r="H40">
-        <v>0.0280203698122742</v>
+        <v>0.05385951323197617</v>
       </c>
       <c r="I40">
-        <v>0.2076762030024619</v>
+        <v>0.3991859949927561</v>
       </c>
       <c r="J40">
-        <v>0.1933265884156751</v>
+        <v>0.3716038016852198</v>
       </c>
       <c r="K40">
-        <v>0.2560476532151679</v>
+        <v>0.4921634531860414</v>
       </c>
       <c r="L40">
-        <v>3.808531726309792</v>
+        <v>7.320590923026606</v>
       </c>
       <c r="M40">
-        <v>2.396528834948517</v>
+        <v>4.606501533044754</v>
       </c>
       <c r="P40">
-        <v>7.471608744400242</v>
+        <v>14.36159525121244</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2316,43 +2316,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.1299798475691624</v>
+        <v>0.249841503411384</v>
       </c>
       <c r="C41">
-        <v>0.8712014455560423</v>
+        <v>1.674584814511914</v>
       </c>
       <c r="D41">
-        <v>0.0006575002125902196</v>
+        <v>0.001263817773900961</v>
       </c>
       <c r="E41">
-        <v>0.06253998115258487</v>
+        <v>0.1202115805388009</v>
       </c>
       <c r="F41">
-        <v>0.2521222167476155</v>
+        <v>0.4846181531496082</v>
       </c>
       <c r="G41">
-        <v>0.4095954264494739</v>
+        <v>0.7873061789837194</v>
       </c>
       <c r="H41">
-        <v>0.05604073962454841</v>
+        <v>0.1077190264639523</v>
       </c>
       <c r="I41">
-        <v>0.4153524060049238</v>
+        <v>0.7983719899855122</v>
       </c>
       <c r="J41">
-        <v>0.3866531768313503</v>
+        <v>0.7432076033704396</v>
       </c>
       <c r="K41">
-        <v>0.5120953064303359</v>
+        <v>0.9843269063720828</v>
       </c>
       <c r="L41">
-        <v>7.254346145351982</v>
+        <v>13.94398271052686</v>
       </c>
       <c r="M41">
-        <v>4.564816828473363</v>
+        <v>8.77428863437096</v>
       </c>
       <c r="P41">
-        <v>14.91540102040397</v>
+        <v>28.66972291945914</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2360,49 +2360,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.2886565446016464</v>
+        <v>0.5548428192642424</v>
       </c>
       <c r="C42">
-        <v>1.934746067403679</v>
+        <v>3.718883159500483</v>
       </c>
       <c r="D42">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E42">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F42">
-        <v>0.5672749876821352</v>
+        <v>1.090390844586619</v>
       </c>
       <c r="G42">
-        <v>0.9215897095113162</v>
+        <v>1.771438902713369</v>
       </c>
       <c r="H42">
-        <v>0.1961425886859195</v>
+        <v>0.3770165926238331</v>
       </c>
       <c r="I42">
-        <v>1.453733421017234</v>
+        <v>2.794301964949294</v>
       </c>
       <c r="J42">
-        <v>0.5370183011546531</v>
+        <v>1.032232782458944</v>
       </c>
       <c r="K42">
-        <v>0.7112434811532443</v>
+        <v>1.36712070329456</v>
       </c>
       <c r="L42">
-        <v>9.249291335323782</v>
+        <v>17.77857795592177</v>
       </c>
       <c r="M42">
-        <v>5.82014145630354</v>
+        <v>11.18721800882297</v>
       </c>
       <c r="N42">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O42">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P42">
-        <v>22.00793927549472</v>
+        <v>42.30268567325632</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.960500432037057</v>
+        <v>1.846231369364643</v>
       </c>
       <c r="C43">
-        <v>6.437839253524516</v>
+        <v>12.37452934360103</v>
       </c>
       <c r="D43">
-        <v>0.001643750531475549</v>
+        <v>0.003159544434752402</v>
       </c>
       <c r="E43">
-        <v>0.1563499528814621</v>
+        <v>0.3005289513470022</v>
       </c>
       <c r="F43">
-        <v>0.7563666502428469</v>
+        <v>1.453854459448825</v>
       </c>
       <c r="G43">
-        <v>1.228786279348422</v>
+        <v>2.361918536951157</v>
       </c>
       <c r="H43">
-        <v>0.6304583207761696</v>
+        <v>1.211839047719464</v>
       </c>
       <c r="I43">
-        <v>4.672714567555394</v>
+        <v>8.981684887337012</v>
       </c>
       <c r="J43">
-        <v>1.396247583002098</v>
+        <v>2.683805234393254</v>
       </c>
       <c r="K43">
-        <v>1.849233050998435</v>
+        <v>3.554513828565854</v>
       </c>
       <c r="L43">
-        <v>14.14597498343637</v>
+        <v>27.1907662855274</v>
       </c>
       <c r="M43">
-        <v>8.901392815523058</v>
+        <v>17.10986283702337</v>
       </c>
       <c r="P43">
-        <v>41.13750763985731</v>
+        <v>79.07269432571375</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.737003417515169</v>
+        <v>3.33879100013395</v>
       </c>
       <c r="C44">
-        <v>11.64241931788529</v>
+        <v>22.37854252120467</v>
       </c>
       <c r="D44">
-        <v>0.001972500637770659</v>
+        <v>0.003791453321702883</v>
       </c>
       <c r="E44">
-        <v>0.1876199434577546</v>
+        <v>0.3606347416164026</v>
       </c>
       <c r="F44">
-        <v>1.890916625607117</v>
+        <v>3.634636148622063</v>
       </c>
       <c r="G44">
-        <v>3.071965698371054</v>
+        <v>5.904796342377894</v>
       </c>
       <c r="H44">
-        <v>0.5043666566209357</v>
+        <v>0.9694712381755711</v>
       </c>
       <c r="I44">
-        <v>3.738171654044316</v>
+        <v>7.185347909869614</v>
       </c>
       <c r="J44">
-        <v>1.71845856369489</v>
+        <v>3.30314490386862</v>
       </c>
       <c r="K44">
-        <v>2.275979139690381</v>
+        <v>4.37478625054259</v>
       </c>
       <c r="L44">
-        <v>12.87646440799977</v>
+        <v>24.75056931118519</v>
       </c>
       <c r="M44">
-        <v>8.102549870540223</v>
+        <v>15.57436232600845</v>
       </c>
       <c r="N44">
-        <v>0.08059000455192493</v>
+        <v>0.1549065356956162</v>
       </c>
       <c r="O44">
-        <v>0.3349368111342116</v>
+        <v>0.6438006968507899</v>
       </c>
       <c r="P44">
-        <v>48.16341461175082</v>
+        <v>92.57758137947313</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.900744264452947</v>
+        <v>3.653526400535302</v>
       </c>
       <c r="C45">
-        <v>12.73990685319615</v>
+        <v>24.488084430395</v>
       </c>
       <c r="D45">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E45">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F45">
-        <v>1.764855517233309</v>
+        <v>3.392327072047259</v>
       </c>
       <c r="G45">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="H45">
-        <v>0.3362444377472905</v>
+        <v>0.6463141587837138</v>
       </c>
       <c r="I45">
-        <v>2.492114436029544</v>
+        <v>4.790231939913074</v>
       </c>
       <c r="J45">
-        <v>1.374766850955912</v>
+        <v>2.642515923094896</v>
       </c>
       <c r="K45">
-        <v>1.820783311752305</v>
+        <v>3.499829000434072</v>
       </c>
       <c r="L45">
-        <v>9.430649988957581</v>
+        <v>18.12717752368493</v>
       </c>
       <c r="M45">
-        <v>5.934261877015375</v>
+        <v>11.40657522468224</v>
       </c>
       <c r="N45">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O45">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P45">
-        <v>41.2545008064367</v>
+        <v>79.2975734063843</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.431466373229217</v>
+        <v>2.751501232374724</v>
       </c>
       <c r="C46">
-        <v>9.594530205604201</v>
+        <v>18.44218081436498</v>
       </c>
       <c r="D46">
-        <v>0.004931251594426647</v>
+        <v>0.009478633304257208</v>
       </c>
       <c r="E46">
-        <v>0.4690498586443865</v>
+        <v>0.9015868540410066</v>
       </c>
       <c r="F46">
-        <v>1.827886071420213</v>
+        <v>3.51348161033466</v>
       </c>
       <c r="G46">
-        <v>2.969566841758686</v>
+        <v>5.707969797631965</v>
       </c>
       <c r="H46">
-        <v>0.3082240679350162</v>
+        <v>0.5924546455517378</v>
       </c>
       <c r="I46">
-        <v>2.284438233027082</v>
+        <v>4.391045944920321</v>
       </c>
       <c r="J46">
-        <v>1.654016367556332</v>
+        <v>3.179276969973547</v>
       </c>
       <c r="K46">
-        <v>2.190629921951992</v>
+        <v>4.210731766147243</v>
       </c>
       <c r="L46">
-        <v>13.05782306163358</v>
+        <v>25.09916887894836</v>
       </c>
       <c r="M46">
-        <v>8.216670291252056</v>
+        <v>15.79371954186773</v>
       </c>
       <c r="N46">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O46">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P46">
-        <v>44.28625042273128</v>
+        <v>85.1250681778248</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>1.083728079732496</v>
+        <v>2.083094093378032</v>
       </c>
       <c r="C47">
-        <v>7.263783481129601</v>
+        <v>13.96212273917726</v>
       </c>
       <c r="D47">
-        <v>0.003287501062951099</v>
+        <v>0.006319088869504805</v>
       </c>
       <c r="E47">
-        <v>0.3126999057629243</v>
+        <v>0.6010579026940044</v>
       </c>
       <c r="F47">
-        <v>1.764855517233309</v>
+        <v>3.392327072047259</v>
       </c>
       <c r="G47">
-        <v>2.867167985146317</v>
+        <v>5.511143252886036</v>
       </c>
       <c r="H47">
-        <v>0.2241629584981936</v>
+        <v>0.4308761058558094</v>
       </c>
       <c r="I47">
-        <v>1.661409624019695</v>
+        <v>3.193487959942049</v>
       </c>
       <c r="J47">
-        <v>2.040669544387682</v>
+        <v>3.922484573343988</v>
       </c>
       <c r="K47">
-        <v>2.702725228382328</v>
+        <v>5.195058672519327</v>
       </c>
       <c r="L47">
-        <v>12.87646440799977</v>
+        <v>24.75056931118519</v>
       </c>
       <c r="M47">
-        <v>8.102549870540223</v>
+        <v>15.57436232600845</v>
       </c>
       <c r="N47">
-        <v>0.06715833712660414</v>
+        <v>0.1290887797463468</v>
       </c>
       <c r="O47">
-        <v>0.2791140092785097</v>
+        <v>0.5365005807089916</v>
       </c>
       <c r="P47">
-        <v>41.2497764503006</v>
+        <v>79.28849245836224</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>1.053343180300745</v>
+        <v>2.02468958608706</v>
       </c>
       <c r="C48">
-        <v>7.060126000350265</v>
+        <v>13.57066135396667</v>
       </c>
       <c r="D48">
-        <v>0.002301250744065769</v>
+        <v>0.004423362208653365</v>
       </c>
       <c r="E48">
-        <v>0.218889934034047</v>
+        <v>0.420740531885803</v>
       </c>
       <c r="F48">
-        <v>1.386672192111885</v>
+        <v>2.665399842322846</v>
       </c>
       <c r="G48">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="H48">
-        <v>0.2381731434043307</v>
+        <v>0.4578058624717974</v>
       </c>
       <c r="I48">
-        <v>1.765247725520927</v>
+        <v>3.393080957438429</v>
       </c>
       <c r="J48">
-        <v>1.954746616202937</v>
+        <v>3.757327328150556</v>
       </c>
       <c r="K48">
-        <v>2.58892627139781</v>
+        <v>4.976319359992197</v>
       </c>
       <c r="L48">
-        <v>9.249291335323782</v>
+        <v>17.77857795592177</v>
       </c>
       <c r="M48">
-        <v>5.82014145630354</v>
+        <v>11.18721800882297</v>
       </c>
       <c r="N48">
-        <v>0.05372666970128327</v>
+        <v>0.1032710237970774</v>
       </c>
       <c r="O48">
-        <v>0.2232912074228078</v>
+        <v>0.4292004645671935</v>
       </c>
       <c r="P48">
-        <v>33.86765182829053</v>
+        <v>65.09889962204346</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>1.087104179669359</v>
+        <v>2.089583483077031</v>
       </c>
       <c r="C49">
-        <v>7.28641209010508</v>
+        <v>14.0056184486451</v>
       </c>
       <c r="D49">
-        <v>0.005260001700721757</v>
+        <v>0.01011054219120769</v>
       </c>
       <c r="E49">
-        <v>0.500319849220679</v>
+        <v>0.9616926443104069</v>
       </c>
       <c r="F49">
-        <v>1.386672192111885</v>
+        <v>2.665399842322846</v>
       </c>
       <c r="G49">
-        <v>2.252774845472106</v>
+        <v>4.330183984410456</v>
       </c>
       <c r="H49">
-        <v>0.1821324037797823</v>
+        <v>0.3500868360078451</v>
       </c>
       <c r="I49">
-        <v>1.349895319516003</v>
+        <v>2.594708967452916</v>
       </c>
       <c r="J49">
-        <v>1.611054903463959</v>
+        <v>3.096698347376831</v>
       </c>
       <c r="K49">
-        <v>2.133730443459733</v>
+        <v>4.101362109883679</v>
       </c>
       <c r="L49">
-        <v>7.435704798985785</v>
+        <v>14.29258227829004</v>
       </c>
       <c r="M49">
-        <v>4.678937249185199</v>
+        <v>8.99364585023023</v>
       </c>
       <c r="N49">
-        <v>0.02686333485064164</v>
+        <v>0.05163551189853872</v>
       </c>
       <c r="O49">
-        <v>0.1116456037114039</v>
+        <v>0.2146002322835967</v>
       </c>
       <c r="P49">
-        <v>30.04850721523234</v>
+        <v>57.75790907838072</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.968829492959134</v>
+        <v>0.5647750222521464</v>
       </c>
       <c r="C2">
-        <v>6.493665522374215</v>
+        <v>3.785454630097216</v>
       </c>
       <c r="D2">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E2">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F2">
-        <v>0.8763889031256938</v>
+        <v>0.510887174535288</v>
       </c>
       <c r="G2">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="H2">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I2">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J2">
-        <v>1.742254584225096</v>
+        <v>1.0156398816568</v>
       </c>
       <c r="K2">
-        <v>2.307495317897172</v>
+        <v>1.345144557409825</v>
       </c>
       <c r="L2">
-        <v>7.985210659696577</v>
+        <v>4.654944508598318</v>
       </c>
       <c r="M2">
-        <v>5.02471529038393</v>
+        <v>2.929136355324585</v>
       </c>
       <c r="N2">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O2">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P2">
-        <v>28.29020982165356</v>
+        <v>16.49165719835928</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.9623097790092076</v>
+        <v>0.5609743828022666</v>
       </c>
       <c r="C3">
-        <v>6.44996656192755</v>
+        <v>3.759980507418231</v>
       </c>
       <c r="D3">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E3">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F3">
-        <v>1.850154351043131</v>
+        <v>1.078539590685608</v>
       </c>
       <c r="G3">
-        <v>3.00574368331635</v>
+        <v>1.752185465003019</v>
       </c>
       <c r="H3">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I3">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J3">
-        <v>1.410396568182221</v>
+        <v>0.8221846661031238</v>
       </c>
       <c r="K3">
-        <v>1.867972400202473</v>
+        <v>1.08892654647462</v>
       </c>
       <c r="L3">
-        <v>6.86447933903741</v>
+        <v>4.001618963531886</v>
       </c>
       <c r="M3">
-        <v>4.319492091733554</v>
+        <v>2.518029498436925</v>
       </c>
       <c r="N3">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O3">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P3">
-        <v>28.22747886098423</v>
+        <v>16.45508845229469</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>1.019683261768564</v>
+        <v>0.5944200099612093</v>
       </c>
       <c r="C4">
-        <v>6.834517413858191</v>
+        <v>3.984152786993302</v>
       </c>
       <c r="D4">
-        <v>0.005078893857732835</v>
+        <v>0.002960719520166738</v>
       </c>
       <c r="E4">
-        <v>0.4830932675858352</v>
+        <v>0.2816171606391846</v>
       </c>
       <c r="F4">
-        <v>1.460648171876156</v>
+        <v>0.85147862422548</v>
       </c>
       <c r="G4">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H4">
-        <v>0.1623335796010496</v>
+        <v>0.09463166810851883</v>
       </c>
       <c r="I4">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="J4">
-        <v>1.27765336176507</v>
+        <v>0.7448025798816535</v>
       </c>
       <c r="K4">
-        <v>1.692163233124593</v>
+        <v>0.9864393421005379</v>
       </c>
       <c r="L4">
-        <v>6.304113678707827</v>
+        <v>3.67495619099867</v>
       </c>
       <c r="M4">
-        <v>3.966880492408366</v>
+        <v>2.312476069993094</v>
       </c>
       <c r="N4">
-        <v>0.07262751907224374</v>
+        <v>0.04233790259095137</v>
       </c>
       <c r="O4">
-        <v>0.3018442519502926</v>
+        <v>0.1759588197415659</v>
       </c>
       <c r="P4">
-        <v>27.15674671536483</v>
+        <v>15.83090971314291</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.339149245314981</v>
+        <v>0.7806513430053219</v>
       </c>
       <c r="C5">
-        <v>8.975766475744706</v>
+        <v>5.232384798263581</v>
       </c>
       <c r="D5">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E5">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F5">
-        <v>2.385725347397721</v>
+        <v>1.390748419568284</v>
       </c>
       <c r="G5">
-        <v>3.87582738111845</v>
+        <v>2.259397046977577</v>
       </c>
       <c r="H5">
-        <v>0.2272670114414695</v>
+        <v>0.1324843353519264</v>
       </c>
       <c r="I5">
-        <v>1.684415670460089</v>
+        <v>0.9819229334775083</v>
       </c>
       <c r="J5">
-        <v>1.327432064171501</v>
+        <v>0.7738208622147047</v>
       </c>
       <c r="K5">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="L5">
-        <v>3.642376792142301</v>
+        <v>2.123308021465898</v>
       </c>
       <c r="M5">
-        <v>2.291975395613722</v>
+        <v>1.336097284884899</v>
       </c>
       <c r="N5">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O5">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P5">
-        <v>27.83937521255579</v>
+        <v>16.2288450851488</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.732939967890564</v>
+        <v>1.010209965778066</v>
       </c>
       <c r="C6">
-        <v>11.6151836867232</v>
+        <v>6.771021808074294</v>
       </c>
       <c r="D6">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E6">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F6">
-        <v>2.044907440626618</v>
+        <v>1.192070073915672</v>
       </c>
       <c r="G6">
-        <v>3.322137755244387</v>
+        <v>1.936626040266495</v>
       </c>
       <c r="H6">
-        <v>0.2705559660017494</v>
+        <v>0.1577194468475314</v>
       </c>
       <c r="I6">
-        <v>2.005256750547724</v>
+        <v>1.16895587318751</v>
       </c>
       <c r="J6">
-        <v>1.111724353743632</v>
+        <v>0.6480749721048153</v>
       </c>
       <c r="K6">
-        <v>1.472401774277243</v>
+        <v>0.8583303366329355</v>
       </c>
       <c r="L6">
-        <v>3.922559622307093</v>
+        <v>2.286639407732507</v>
       </c>
       <c r="M6">
-        <v>2.468281195276317</v>
+        <v>1.438873999106814</v>
       </c>
       <c r="N6">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O6">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P6">
-        <v>30.24847945486621</v>
+        <v>17.63322213182899</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.469543524313518</v>
+        <v>0.8566641320029195</v>
       </c>
       <c r="C7">
-        <v>9.849745684677977</v>
+        <v>5.741867251843286</v>
       </c>
       <c r="D7">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E7">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F7">
-        <v>1.217206809896797</v>
+        <v>0.7095655201879002</v>
       </c>
       <c r="G7">
-        <v>1.97746294955023</v>
+        <v>1.152753595396723</v>
       </c>
       <c r="H7">
-        <v>0.3354893978421692</v>
+        <v>0.195572114090939</v>
       </c>
       <c r="I7">
-        <v>2.486518370679177</v>
+        <v>1.449505282752513</v>
       </c>
       <c r="J7">
-        <v>0.7798663377007572</v>
+        <v>0.4546197565511391</v>
       </c>
       <c r="K7">
-        <v>1.032878856582544</v>
+        <v>0.6021123256977309</v>
       </c>
       <c r="L7">
-        <v>3.642376792142301</v>
+        <v>2.123308021465898</v>
       </c>
       <c r="M7">
-        <v>2.291975395613722</v>
+        <v>1.336097284884899</v>
       </c>
       <c r="N7">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O7">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P7">
-        <v>25.47258699580475</v>
+        <v>14.8491359851513</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>1.04054634640833</v>
+        <v>0.6065820562008246</v>
       </c>
       <c r="C8">
-        <v>6.974354087287513</v>
+        <v>4.065669979566057</v>
       </c>
       <c r="D8">
-        <v>0.003047336314639701</v>
+        <v>0.001776431712100043</v>
       </c>
       <c r="E8">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="F8">
-        <v>0.8277006307298217</v>
+        <v>0.4825045537277721</v>
       </c>
       <c r="G8">
-        <v>1.344674805694156</v>
+        <v>0.7838724448697716</v>
       </c>
       <c r="H8">
-        <v>0.2056225341613295</v>
+        <v>0.1198667796041239</v>
       </c>
       <c r="I8">
-        <v>1.52399513041627</v>
+        <v>0.8884064636225077</v>
       </c>
       <c r="J8">
-        <v>0.4480083216578818</v>
+        <v>0.2611645409974629</v>
       </c>
       <c r="K8">
-        <v>0.5933559388878443</v>
+        <v>0.3458943147625262</v>
       </c>
       <c r="L8">
-        <v>6.023930848543034</v>
+        <v>3.511624804732062</v>
       </c>
       <c r="M8">
-        <v>3.79057469274577</v>
+        <v>2.209699355771179</v>
       </c>
       <c r="N8">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O8">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P8">
-        <v>23.17265856797596</v>
+        <v>13.5084025140449</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.6467556238327461</v>
+        <v>0.3770234334280816</v>
       </c>
       <c r="C9">
-        <v>4.334936876309031</v>
+        <v>2.527032969755342</v>
       </c>
       <c r="D9">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E9">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F9">
-        <v>0.8763889031256938</v>
+        <v>0.510887174535288</v>
       </c>
       <c r="G9">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="H9">
-        <v>0.3138449205620293</v>
+        <v>0.1829545583431365</v>
       </c>
       <c r="I9">
-        <v>2.326097830635361</v>
+        <v>1.355988812897512</v>
       </c>
       <c r="J9">
-        <v>0.4646012224600256</v>
+        <v>0.2708373017751466</v>
       </c>
       <c r="K9">
-        <v>0.6153320847725794</v>
+        <v>0.3587052153092865</v>
       </c>
       <c r="L9">
-        <v>6.444205093790222</v>
+        <v>3.756621884131974</v>
       </c>
       <c r="M9">
-        <v>4.055033392239663</v>
+        <v>2.36386442710405</v>
       </c>
       <c r="N9">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O9">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P9">
-        <v>21.70091688712552</v>
+        <v>12.65045697606077</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.5254889443641065</v>
+        <v>0.3063315396603163</v>
       </c>
       <c r="C10">
-        <v>3.522136212001088</v>
+        <v>2.053214287926216</v>
       </c>
       <c r="D10">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E10">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F10">
-        <v>0.3895061791669751</v>
+        <v>0.227060966460128</v>
       </c>
       <c r="G10">
-        <v>0.6327881438560735</v>
+        <v>0.3688811505269514</v>
       </c>
       <c r="H10">
-        <v>0.08657790912055978</v>
+        <v>0.05047022299121007</v>
       </c>
       <c r="I10">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="J10">
-        <v>0.2820793136364441</v>
+        <v>0.1644369332206248</v>
       </c>
       <c r="K10">
-        <v>0.3735944800404946</v>
+        <v>0.217785309294924</v>
       </c>
       <c r="L10">
-        <v>3.922559622307093</v>
+        <v>2.286639407732507</v>
       </c>
       <c r="M10">
-        <v>2.468281195276317</v>
+        <v>1.438873999106814</v>
       </c>
       <c r="P10">
-        <v>13.11318884873839</v>
+        <v>7.644277530427336</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,43 +924,43 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.3455448393461245</v>
+        <v>0.2014338908436322</v>
       </c>
       <c r="C11">
-        <v>2.316044903673172</v>
+        <v>1.350128501986221</v>
       </c>
       <c r="D11">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E11">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F11">
-        <v>0.1460648171876157</v>
+        <v>0.08514786242254804</v>
       </c>
       <c r="G11">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H11">
-        <v>0.1406891023209097</v>
+        <v>0.08201411236071635</v>
       </c>
       <c r="I11">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="J11">
-        <v>0.1991148096257252</v>
+        <v>0.1160731293322058</v>
       </c>
       <c r="K11">
-        <v>0.2637137506168197</v>
+        <v>0.1537308065611228</v>
       </c>
       <c r="L11">
-        <v>4.202742452471885</v>
+        <v>2.449970793999112</v>
       </c>
       <c r="M11">
-        <v>2.64458699493891</v>
+        <v>1.541650713328729</v>
       </c>
       <c r="P11">
-        <v>11.61175655862854</v>
+        <v>6.769023978363302</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -968,49 +968,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.1955914184978063</v>
+        <v>0.1140191834963957</v>
       </c>
       <c r="C12">
-        <v>1.310968813399908</v>
+        <v>0.7642236803695591</v>
       </c>
       <c r="D12">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E12">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F12">
-        <v>0.09737654479174376</v>
+        <v>0.05676524161503201</v>
       </c>
       <c r="G12">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H12">
-        <v>0.08657790912055978</v>
+        <v>0.05047022299121007</v>
       </c>
       <c r="I12">
-        <v>0.6416821601752717</v>
+        <v>0.3740658794200033</v>
       </c>
       <c r="J12">
-        <v>0.09955740481286261</v>
+        <v>0.05803656466610288</v>
       </c>
       <c r="K12">
-        <v>0.1318568753084098</v>
+        <v>0.07686540328056141</v>
       </c>
       <c r="L12">
-        <v>1.260822735741564</v>
+        <v>0.7349912381997342</v>
       </c>
       <c r="M12">
-        <v>0.793376098481673</v>
+        <v>0.4624952139986188</v>
       </c>
       <c r="N12">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O12">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P12">
-        <v>5.049180436232358</v>
+        <v>2.943398207788166</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,43 +1018,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.1186587938886692</v>
+        <v>0.06917163798781333</v>
       </c>
       <c r="C13">
-        <v>0.795321080129278</v>
+        <v>0.4636290327575324</v>
       </c>
       <c r="D13">
-        <v>0.001015778771546567</v>
+        <v>0.0005921439040333475</v>
       </c>
       <c r="E13">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="F13">
-        <v>0.09737654479174376</v>
+        <v>0.05676524161503201</v>
       </c>
       <c r="G13">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H13">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I13">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J13">
-        <v>0.09955740481286261</v>
+        <v>0.05803656466610288</v>
       </c>
       <c r="K13">
-        <v>0.1318568753084098</v>
+        <v>0.07686540328056141</v>
       </c>
       <c r="L13">
-        <v>1.120731320659169</v>
+        <v>0.6533255450664303</v>
       </c>
       <c r="M13">
-        <v>0.7052231986503761</v>
+        <v>0.4111068568876611</v>
       </c>
       <c r="P13">
-        <v>3.779719229803135</v>
+        <v>2.20337120993175</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1062,43 +1062,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.06910896786922489</v>
+        <v>0.04028677816872646</v>
       </c>
       <c r="C14">
-        <v>0.4632089807346346</v>
+        <v>0.2700257003972442</v>
       </c>
       <c r="D14">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E14">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F14">
-        <v>0.1460648171876157</v>
+        <v>0.08514786242254804</v>
       </c>
       <c r="G14">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H14">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I14">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J14">
-        <v>0.149336107219294</v>
+        <v>0.08705484699915429</v>
       </c>
       <c r="K14">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="L14">
-        <v>2.101371226235943</v>
+        <v>1.224985396999556</v>
       </c>
       <c r="M14">
-        <v>1.322293497469455</v>
+        <v>0.7708253566643645</v>
       </c>
       <c r="P14">
-        <v>5.197046146705795</v>
+        <v>3.029595893273454</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1106,43 +1106,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.0325985697496344</v>
+        <v>0.01900319724939927</v>
       </c>
       <c r="C15">
-        <v>0.218494802233318</v>
+        <v>0.1273706133949265</v>
       </c>
       <c r="D15">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E15">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F15">
-        <v>0.1460648171876157</v>
+        <v>0.08514786242254804</v>
       </c>
       <c r="G15">
-        <v>0.2372955539460276</v>
+        <v>0.1383304314476068</v>
       </c>
       <c r="H15">
-        <v>0.01082223864006997</v>
+        <v>0.006308777873901258</v>
       </c>
       <c r="I15">
-        <v>0.08021027002190896</v>
+        <v>0.04675823492750041</v>
       </c>
       <c r="J15">
-        <v>0.149336107219294</v>
+        <v>0.08705484699915429</v>
       </c>
       <c r="K15">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="L15">
-        <v>0.9806399055767733</v>
+        <v>0.5716598519331267</v>
       </c>
       <c r="M15">
-        <v>0.6170702988190792</v>
+        <v>0.3597184997767034</v>
       </c>
       <c r="P15">
-        <v>2.792360916717228</v>
+        <v>1.627794890985547</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1150,37 +1150,37 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.01825519905979527</v>
+        <v>0.01064179045966359</v>
       </c>
       <c r="C16">
-        <v>0.1223570892506581</v>
+        <v>0.07132754350115883</v>
       </c>
       <c r="D16">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E16">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F16">
-        <v>0.04868827239587188</v>
+        <v>0.028382620807516</v>
       </c>
       <c r="G16">
-        <v>0.07909851798200919</v>
+        <v>0.04611014381586892</v>
       </c>
       <c r="J16">
-        <v>0.04977870240643131</v>
+        <v>0.02901828233305144</v>
       </c>
       <c r="K16">
-        <v>0.06592843765420492</v>
+        <v>0.0384327016402807</v>
       </c>
       <c r="L16">
-        <v>1.681096980988754</v>
+        <v>0.9799883175996451</v>
       </c>
       <c r="M16">
-        <v>1.057834797975564</v>
+        <v>0.6166602853314914</v>
       </c>
       <c r="P16">
-        <v>3.196263821929824</v>
+        <v>1.863248367512579</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1188,37 +1188,37 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.08866810971900554</v>
+        <v>0.05168869651836603</v>
       </c>
       <c r="C17">
-        <v>0.5943058620746251</v>
+        <v>0.3464480684342003</v>
       </c>
       <c r="F17">
-        <v>0.09737654479174376</v>
+        <v>0.05676524161503201</v>
       </c>
       <c r="G17">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H17">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I17">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J17">
-        <v>0.1327432064171502</v>
+        <v>0.07738208622147047</v>
       </c>
       <c r="K17">
-        <v>0.1758091670778798</v>
+        <v>0.1024872043740819</v>
       </c>
       <c r="L17">
-        <v>3.502285377059903</v>
+        <v>2.041642328332594</v>
       </c>
       <c r="M17">
-        <v>2.203822495782425</v>
+        <v>1.284708927773941</v>
       </c>
       <c r="P17">
-        <v>7.317337833534667</v>
+        <v>4.26561089210703</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,43 +1226,43 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.2138466175576016</v>
+        <v>0.1246609739560593</v>
       </c>
       <c r="C18">
-        <v>1.433325902650566</v>
+        <v>0.8355512238707173</v>
       </c>
       <c r="D18">
-        <v>0.001015778771546567</v>
+        <v>0.0005921439040333475</v>
       </c>
       <c r="E18">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="F18">
-        <v>0.1947530895834875</v>
+        <v>0.113530483230064</v>
       </c>
       <c r="G18">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H18">
-        <v>0.1298668636808397</v>
+        <v>0.07570533448681512</v>
       </c>
       <c r="I18">
-        <v>0.9625232402629076</v>
+        <v>0.561098819130005</v>
       </c>
       <c r="J18">
-        <v>0.4314154208557381</v>
+        <v>0.2514917802197791</v>
       </c>
       <c r="K18">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="L18">
-        <v>7.845119244614186</v>
+        <v>4.573278815465014</v>
       </c>
       <c r="M18">
-        <v>4.936562390552633</v>
+        <v>2.877747998213628</v>
       </c>
       <c r="P18">
-        <v>17.13282106697782</v>
+        <v>9.987504994083192</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,49 +1270,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.6754423652124242</v>
+        <v>0.393746247007553</v>
       </c>
       <c r="C19">
-        <v>4.527212302274351</v>
+        <v>2.639119109542877</v>
       </c>
       <c r="D19">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E19">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="F19">
-        <v>0.4868827239587188</v>
+        <v>0.2838262080751601</v>
       </c>
       <c r="G19">
-        <v>0.7909851798200916</v>
+        <v>0.4611014381586891</v>
       </c>
       <c r="H19">
-        <v>0.4545340228829389</v>
+        <v>0.2649686707038528</v>
       </c>
       <c r="I19">
-        <v>3.368831340920177</v>
+        <v>1.963845866955017</v>
       </c>
       <c r="J19">
-        <v>0.8628308417114762</v>
+        <v>0.5029835604395583</v>
       </c>
       <c r="K19">
-        <v>1.142759586006219</v>
+        <v>0.6661668284315322</v>
       </c>
       <c r="L19">
-        <v>11.20731320659169</v>
+        <v>6.533255450664305</v>
       </c>
       <c r="M19">
-        <v>7.052231986503761</v>
+        <v>4.11106856887661</v>
       </c>
       <c r="N19">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O19">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P19">
-        <v>30.80273728196518</v>
+        <v>17.95632436902157</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1320,49 +1320,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.363924158324702</v>
+        <v>0.7950937729148656</v>
       </c>
       <c r="C20">
-        <v>9.141822525442025</v>
+        <v>5.329186464443726</v>
       </c>
       <c r="D20">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E20">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F20">
-        <v>1.606712989063772</v>
+        <v>0.9366264866480281</v>
       </c>
       <c r="G20">
-        <v>2.610251093406303</v>
+        <v>1.521634745923674</v>
       </c>
       <c r="H20">
-        <v>0.3787783524024492</v>
+        <v>0.220807225586544</v>
       </c>
       <c r="I20">
-        <v>2.807359450766813</v>
+        <v>1.636538222462514</v>
       </c>
       <c r="J20">
-        <v>1.426989468984365</v>
+        <v>0.8318574268808077</v>
       </c>
       <c r="K20">
-        <v>1.889948546087208</v>
+        <v>1.10173744702138</v>
       </c>
       <c r="L20">
-        <v>8.125302074778975</v>
+        <v>4.736610201731619</v>
       </c>
       <c r="M20">
-        <v>5.112868190215226</v>
+        <v>2.980524712435543</v>
       </c>
       <c r="N20">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O20">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P20">
-        <v>34.93138430163851</v>
+        <v>20.36310154638152</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,49 +1370,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.498230265693197</v>
+        <v>0.8733869455823908</v>
       </c>
       <c r="C21">
-        <v>10.0420211106433</v>
+        <v>5.853953391630822</v>
       </c>
       <c r="D21">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E21">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F21">
-        <v>0.9737654479174376</v>
+        <v>0.5676524161503201</v>
       </c>
       <c r="G21">
-        <v>1.581970359640183</v>
+        <v>0.9222028763173782</v>
       </c>
       <c r="H21">
-        <v>0.2813782046418195</v>
+        <v>0.1640282247214327</v>
       </c>
       <c r="I21">
-        <v>2.085467020569633</v>
+        <v>1.215714108115011</v>
       </c>
       <c r="J21">
-        <v>1.244467560160783</v>
+        <v>0.7254570583262859</v>
       </c>
       <c r="K21">
-        <v>1.648210941355123</v>
+        <v>0.9608175410070174</v>
       </c>
       <c r="L21">
-        <v>7.564936414449392</v>
+        <v>4.409947429198404</v>
       </c>
       <c r="M21">
-        <v>4.760256590890038</v>
+        <v>2.774971283991712</v>
       </c>
       <c r="N21">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O21">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P21">
-        <v>32.27017440848847</v>
+        <v>18.81176058541343</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1420,49 +1420,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>1.170940625406867</v>
+        <v>0.6825948451984222</v>
       </c>
       <c r="C22">
-        <v>7.848333296220788</v>
+        <v>4.575152433145759</v>
       </c>
       <c r="D22">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E22">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F22">
-        <v>1.363271627084412</v>
+        <v>0.7947133826104483</v>
       </c>
       <c r="G22">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="H22">
-        <v>0.2813782046418195</v>
+        <v>0.1640282247214327</v>
       </c>
       <c r="I22">
-        <v>2.085467020569633</v>
+        <v>1.215714108115011</v>
       </c>
       <c r="J22">
-        <v>1.460175270588652</v>
+        <v>0.8512029484361753</v>
       </c>
       <c r="K22">
-        <v>1.933900837856678</v>
+        <v>1.127359248114901</v>
       </c>
       <c r="L22">
-        <v>9.526216225602932</v>
+        <v>5.553267133064661</v>
       </c>
       <c r="M22">
-        <v>5.994397188528197</v>
+        <v>3.494408283545121</v>
       </c>
       <c r="N22">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O22">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P22">
-        <v>34.31717889294615</v>
+        <v>20.00505312208955</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.8253957860607424</v>
+        <v>0.4811609543547899</v>
       </c>
       <c r="C23">
-        <v>5.532288392547611</v>
+        <v>3.225023931159537</v>
       </c>
       <c r="D23">
-        <v>0.004317059779072909</v>
+        <v>0.002516611592141727</v>
       </c>
       <c r="E23">
-        <v>0.41062927744796</v>
+        <v>0.2393745865433069</v>
       </c>
       <c r="F23">
-        <v>1.119830265105053</v>
+        <v>0.6528002785728679</v>
       </c>
       <c r="G23">
-        <v>1.819265913586211</v>
+        <v>1.060533307764985</v>
       </c>
       <c r="H23">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I23">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J23">
-        <v>1.792033286631527</v>
+        <v>1.044658163989852</v>
       </c>
       <c r="K23">
-        <v>2.373423755551377</v>
+        <v>1.383577259050105</v>
       </c>
       <c r="L23">
-        <v>9.38612481052054</v>
+        <v>5.471601439931354</v>
       </c>
       <c r="M23">
-        <v>5.9062442886969</v>
+        <v>3.443019926434161</v>
       </c>
       <c r="N23">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O23">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P23">
-        <v>30.40085372628038</v>
+        <v>17.72204806369213</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.8410430995405677</v>
+        <v>0.4902824890345012</v>
       </c>
       <c r="C24">
-        <v>5.637165897619608</v>
+        <v>3.286161825589103</v>
       </c>
       <c r="D24">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E24">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F24">
-        <v>1.31458335468854</v>
+        <v>0.7663307618029322</v>
       </c>
       <c r="G24">
-        <v>2.135659985514248</v>
+        <v>1.244973883028461</v>
       </c>
       <c r="H24">
-        <v>0.1623335796010496</v>
+        <v>0.09463166810851883</v>
       </c>
       <c r="I24">
-        <v>1.203154050328635</v>
+        <v>0.7013735239125063</v>
       </c>
       <c r="J24">
-        <v>1.659290080214377</v>
+        <v>0.967276077768381</v>
       </c>
       <c r="K24">
-        <v>2.197614588473497</v>
+        <v>1.281090054676023</v>
       </c>
       <c r="L24">
-        <v>8.405484904943771</v>
+        <v>4.899941587998224</v>
       </c>
       <c r="M24">
-        <v>5.28917398987782</v>
+        <v>3.083301426657458</v>
       </c>
       <c r="N24">
-        <v>0.03112607960239017</v>
+        <v>0.01814481539612202</v>
       </c>
       <c r="O24">
-        <v>0.1293618222644111</v>
+        <v>0.07541092274638536</v>
       </c>
       <c r="P24">
-        <v>29.15244308110199</v>
+        <v>16.99429240076642</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.7914932735211229</v>
+        <v>0.4613976292154144</v>
       </c>
       <c r="C25">
-        <v>5.305053798224964</v>
+        <v>3.092558493228816</v>
       </c>
       <c r="D25">
-        <v>0.003301281007526343</v>
+        <v>0.00192446768810838</v>
       </c>
       <c r="E25">
-        <v>0.3140106239307929</v>
+        <v>0.1830511544154699</v>
       </c>
       <c r="F25">
-        <v>0.8763889031256938</v>
+        <v>0.510887174535288</v>
       </c>
       <c r="G25">
-        <v>1.423773323676165</v>
+        <v>0.8299825886856407</v>
       </c>
       <c r="H25">
-        <v>0.1406891023209097</v>
+        <v>0.08201411236071635</v>
       </c>
       <c r="I25">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="J25">
-        <v>1.045352750535057</v>
+        <v>0.6093839289940803</v>
       </c>
       <c r="K25">
-        <v>1.384497190738303</v>
+        <v>0.8070867344458946</v>
       </c>
       <c r="L25">
-        <v>6.164022263625429</v>
+        <v>3.593290497865367</v>
       </c>
       <c r="M25">
-        <v>3.878727592577069</v>
+        <v>2.261087712882136</v>
       </c>
       <c r="N25">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O25">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P25">
-        <v>22.47703554814571</v>
+        <v>13.10289204046944</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.9153678385697335</v>
+        <v>0.5336097787631315</v>
       </c>
       <c r="C26">
-        <v>6.135334046711568</v>
+        <v>3.576566824129535</v>
       </c>
       <c r="D26">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E26">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F26">
-        <v>1.363271627084412</v>
+        <v>0.7947133826104483</v>
       </c>
       <c r="G26">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="H26">
-        <v>0.1190446250407697</v>
+        <v>0.06939655661291382</v>
       </c>
       <c r="I26">
-        <v>0.8823129702409986</v>
+        <v>0.5143405842025045</v>
       </c>
       <c r="J26">
-        <v>1.626104278610089</v>
+        <v>0.9479305562130136</v>
       </c>
       <c r="K26">
-        <v>2.153662296704028</v>
+        <v>1.255468253582503</v>
       </c>
       <c r="L26">
-        <v>6.86447933903741</v>
+        <v>4.001618963531886</v>
       </c>
       <c r="M26">
-        <v>4.319492091733554</v>
+        <v>2.518029498436925</v>
       </c>
       <c r="N26">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O26">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P26">
-        <v>27.03216771017874</v>
+        <v>15.75828691322048</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.8866810971900553</v>
+        <v>0.5168869651836604</v>
       </c>
       <c r="C27">
-        <v>5.943058620746253</v>
+        <v>3.464480684342003</v>
       </c>
       <c r="D27">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E27">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F27">
-        <v>1.071141992709181</v>
+        <v>0.6244176577653517</v>
       </c>
       <c r="G27">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="H27">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I27">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J27">
-        <v>0.9955740481286264</v>
+        <v>0.5803656466610287</v>
       </c>
       <c r="K27">
-        <v>1.318568753084099</v>
+        <v>0.7686540328056138</v>
       </c>
       <c r="L27">
-        <v>7.424844999366995</v>
+        <v>4.328281736065101</v>
       </c>
       <c r="M27">
-        <v>4.672103691058742</v>
+        <v>2.723582926880754</v>
       </c>
       <c r="N27">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O27">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P27">
-        <v>25.26472648366324</v>
+        <v>14.72796458582539</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.9779570924890321</v>
+        <v>0.5700959174819782</v>
       </c>
       <c r="C28">
-        <v>6.554844066999542</v>
+        <v>3.821118401847794</v>
       </c>
       <c r="D28">
-        <v>0.002793391621753059</v>
+        <v>0.001628395736091706</v>
       </c>
       <c r="E28">
-        <v>0.2657012971722094</v>
+        <v>0.1548894383515515</v>
       </c>
       <c r="F28">
-        <v>1.801466078647259</v>
+        <v>1.050156969878092</v>
       </c>
       <c r="G28">
-        <v>2.926645165334339</v>
+        <v>1.70607532118715</v>
       </c>
       <c r="H28">
-        <v>0.1839780568811896</v>
+        <v>0.1072492238563214</v>
       </c>
       <c r="I28">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="J28">
-        <v>1.476768171390796</v>
+        <v>0.860875709213859</v>
       </c>
       <c r="K28">
-        <v>1.955876983741413</v>
+        <v>1.140170148661661</v>
       </c>
       <c r="L28">
-        <v>6.584296508872618</v>
+        <v>3.838287577265278</v>
       </c>
       <c r="M28">
-        <v>4.143186292070959</v>
+        <v>2.415252784215009</v>
       </c>
       <c r="N28">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O28">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P28">
-        <v>28.4510715647493</v>
+        <v>16.5854308656523</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.403042442024263</v>
+        <v>0.8178976096141446</v>
       </c>
       <c r="C29">
-        <v>9.404016288122008</v>
+        <v>5.482031200517636</v>
       </c>
       <c r="D29">
-        <v>0.003047336314639701</v>
+        <v>0.001776431712100043</v>
       </c>
       <c r="E29">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="F29">
-        <v>1.996219168230748</v>
+        <v>1.163687453108156</v>
       </c>
       <c r="G29">
-        <v>3.243039237262377</v>
+        <v>1.890515896450625</v>
       </c>
       <c r="H29">
-        <v>0.2164447728013995</v>
+        <v>0.1261755574780252</v>
       </c>
       <c r="I29">
-        <v>1.604205400438179</v>
+        <v>0.9351646985500084</v>
       </c>
       <c r="J29">
-        <v>1.576325576203658</v>
+        <v>0.9189122738799622</v>
       </c>
       <c r="K29">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="L29">
-        <v>4.482925282636676</v>
+        <v>2.613302180265721</v>
       </c>
       <c r="M29">
-        <v>2.820892794601504</v>
+        <v>1.644427427550645</v>
       </c>
       <c r="N29">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O29">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P29">
-        <v>29.39522795468145</v>
+        <v>17.13582280769027</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.590810203782157</v>
+        <v>0.9273560257706844</v>
       </c>
       <c r="C30">
-        <v>10.66254634898592</v>
+        <v>6.215685933672413</v>
       </c>
       <c r="D30">
-        <v>0.003555225700412984</v>
+        <v>0.002072503664116716</v>
       </c>
       <c r="E30">
-        <v>0.3381652873100847</v>
+        <v>0.1971320124474293</v>
       </c>
       <c r="F30">
-        <v>1.947530895834875</v>
+        <v>1.13530483230064</v>
       </c>
       <c r="G30">
-        <v>3.163940719280367</v>
+        <v>1.844405752634756</v>
       </c>
       <c r="H30">
-        <v>0.2489114887216095</v>
+        <v>0.1451018910997289</v>
       </c>
       <c r="I30">
-        <v>1.844836210503906</v>
+        <v>1.07543940333251</v>
       </c>
       <c r="J30">
-        <v>1.028759849732914</v>
+        <v>0.5997111682163966</v>
       </c>
       <c r="K30">
-        <v>1.362521044853569</v>
+        <v>0.7942758338991347</v>
       </c>
       <c r="L30">
-        <v>3.222102546895111</v>
+        <v>1.878310942065987</v>
       </c>
       <c r="M30">
-        <v>2.027516696119831</v>
+        <v>1.181932213552025</v>
       </c>
       <c r="N30">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O30">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P30">
-        <v>27.70867635416543</v>
+        <v>16.15265474289334</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.491710551743269</v>
+        <v>0.8695863061325109</v>
       </c>
       <c r="C31">
-        <v>9.998322150196639</v>
+        <v>5.828479268951837</v>
       </c>
       <c r="D31">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E31">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F31">
-        <v>2.093595713022491</v>
+        <v>1.220452694723189</v>
       </c>
       <c r="G31">
-        <v>3.401236273226395</v>
+        <v>1.982736184082363</v>
       </c>
       <c r="H31">
-        <v>0.3463116364822391</v>
+        <v>0.2018808919648403</v>
       </c>
       <c r="I31">
-        <v>2.566728640701087</v>
+        <v>1.496263517680013</v>
       </c>
       <c r="J31">
-        <v>0.7964592385029009</v>
+        <v>0.464292517328823</v>
       </c>
       <c r="K31">
-        <v>1.054855002467279</v>
+        <v>0.6149232262444913</v>
       </c>
       <c r="L31">
-        <v>5.183382358048654</v>
+        <v>3.021630645932241</v>
       </c>
       <c r="M31">
-        <v>3.261657293757989</v>
+        <v>1.901369213105432</v>
       </c>
       <c r="N31">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O31">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P31">
-        <v>30.54533687344859</v>
+        <v>17.80627389832042</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,43 +1920,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.9492703511093535</v>
+        <v>0.5533731039025066</v>
       </c>
       <c r="C32">
-        <v>6.362568641034224</v>
+        <v>3.709032262060259</v>
       </c>
       <c r="D32">
-        <v>0.002031557543093134</v>
+        <v>0.001184287808066695</v>
       </c>
       <c r="E32">
-        <v>0.1932373070343341</v>
+        <v>0.1126468642556738</v>
       </c>
       <c r="F32">
-        <v>1.996219168230748</v>
+        <v>1.163687453108156</v>
       </c>
       <c r="G32">
-        <v>3.243039237262377</v>
+        <v>1.890515896450625</v>
       </c>
       <c r="H32">
-        <v>0.2922004432818894</v>
+        <v>0.1703370025953339</v>
       </c>
       <c r="I32">
-        <v>2.165677290591542</v>
+        <v>1.262472343042511</v>
       </c>
       <c r="J32">
-        <v>0.6969018336900383</v>
+        <v>0.4062559526627201</v>
       </c>
       <c r="K32">
-        <v>0.9229981271588689</v>
+        <v>0.5380578229639297</v>
       </c>
       <c r="L32">
-        <v>5.883839433460638</v>
+        <v>3.429959111598756</v>
       </c>
       <c r="M32">
-        <v>3.702421792914473</v>
+        <v>2.158310998660221</v>
       </c>
       <c r="P32">
-        <v>26.41040518331158</v>
+        <v>15.39583309910876</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1964,43 +1964,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.5998136833932727</v>
+        <v>0.3496588293889466</v>
       </c>
       <c r="C33">
-        <v>4.020304361093053</v>
+        <v>2.343619286466648</v>
       </c>
       <c r="D33">
-        <v>0.003047336314639701</v>
+        <v>0.001776431712100043</v>
       </c>
       <c r="E33">
-        <v>0.2898559605515012</v>
+        <v>0.1689702963835108</v>
       </c>
       <c r="F33">
-        <v>1.022453720313309</v>
+        <v>0.596035036957836</v>
       </c>
       <c r="G33">
-        <v>1.661068877622193</v>
+        <v>0.9683130201332473</v>
       </c>
       <c r="H33">
-        <v>0.3463116364822391</v>
+        <v>0.2018808919648403</v>
       </c>
       <c r="I33">
-        <v>2.566728640701087</v>
+        <v>1.496263517680013</v>
       </c>
       <c r="J33">
-        <v>0.3816367184493067</v>
+        <v>0.2224734978867277</v>
       </c>
       <c r="K33">
-        <v>0.5054513553489044</v>
+        <v>0.2946507125754854</v>
       </c>
       <c r="L33">
-        <v>5.043290942966258</v>
+        <v>2.939964952798937</v>
       </c>
       <c r="M33">
-        <v>3.173504393926692</v>
+        <v>1.849980855994475</v>
       </c>
       <c r="P33">
-        <v>19.61346762716245</v>
+        <v>11.43358732994277</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.5072337453043111</v>
+        <v>0.2956897492006526</v>
       </c>
       <c r="C34">
-        <v>3.399779122750429</v>
+        <v>1.981886744425057</v>
       </c>
       <c r="D34">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E34">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F34">
-        <v>0.4868827239587188</v>
+        <v>0.2838262080751601</v>
       </c>
       <c r="G34">
-        <v>0.7909851798200916</v>
+        <v>0.4611014381586891</v>
       </c>
       <c r="H34">
-        <v>0.1082223864006998</v>
+        <v>0.06308777873901258</v>
       </c>
       <c r="I34">
-        <v>0.8021027002190895</v>
+        <v>0.4675823492750042</v>
       </c>
       <c r="J34">
-        <v>0.3318580160428753</v>
+        <v>0.1934552155536762</v>
       </c>
       <c r="K34">
-        <v>0.4395229176946996</v>
+        <v>0.2562180109352046</v>
       </c>
       <c r="L34">
-        <v>4.34283386755428</v>
+        <v>2.531636487132418</v>
       </c>
       <c r="M34">
-        <v>2.732739894770208</v>
+        <v>1.593039070439687</v>
       </c>
       <c r="N34">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O34">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P34">
-        <v>14.16651677830958</v>
+        <v>8.258310556037836</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,49 +2058,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.4016143793154958</v>
+        <v>0.2341193901125992</v>
       </c>
       <c r="C35">
-        <v>2.691855963514479</v>
+        <v>1.569205957025494</v>
       </c>
       <c r="D35">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E35">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F35">
-        <v>0.5355709963545907</v>
+        <v>0.3122088288826759</v>
       </c>
       <c r="G35">
-        <v>0.870083697802101</v>
+        <v>0.5072115819745582</v>
       </c>
       <c r="H35">
-        <v>0.1515113409609796</v>
+        <v>0.08832289023461762</v>
       </c>
       <c r="I35">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="J35">
-        <v>0.4314154208557381</v>
+        <v>0.2514917802197791</v>
       </c>
       <c r="K35">
-        <v>0.5713797930031094</v>
+        <v>0.3330834142157661</v>
       </c>
       <c r="L35">
-        <v>4.623016697719071</v>
+        <v>2.694967873399024</v>
       </c>
       <c r="M35">
-        <v>2.909045694432801</v>
+        <v>1.695815784661602</v>
       </c>
       <c r="N35">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O35">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P35">
-        <v>14.58161120420363</v>
+        <v>8.500288081830332</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,43 +2108,43 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.2073269036076748</v>
+        <v>0.1208603345061794</v>
       </c>
       <c r="C36">
-        <v>1.389626942203903</v>
+        <v>0.8100771011917325</v>
       </c>
       <c r="D36">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E36">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F36">
-        <v>0.2921296343752313</v>
+        <v>0.1702957248450961</v>
       </c>
       <c r="G36">
-        <v>0.4745911078920552</v>
+        <v>0.2766608628952135</v>
       </c>
       <c r="H36">
-        <v>0.07575567048048981</v>
+        <v>0.04416144511730881</v>
       </c>
       <c r="I36">
-        <v>0.5614718901533629</v>
+        <v>0.3273076444925029</v>
       </c>
       <c r="J36">
-        <v>0.1991148096257252</v>
+        <v>0.1160731293322058</v>
       </c>
       <c r="K36">
-        <v>0.2637137506168197</v>
+        <v>0.1537308065611228</v>
       </c>
       <c r="L36">
-        <v>2.241462641318338</v>
+        <v>1.306651090132861</v>
       </c>
       <c r="M36">
-        <v>1.410446397300752</v>
+        <v>0.8222137137753223</v>
       </c>
       <c r="P36">
-        <v>7.286500004079601</v>
+        <v>4.247634110905318</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2152,49 +2152,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1264824506285813</v>
+        <v>0.0737324053276692</v>
       </c>
       <c r="C37">
-        <v>0.8477598326652742</v>
+        <v>0.4941979799723148</v>
       </c>
       <c r="D37">
-        <v>0.002285502235979775</v>
+        <v>0.001332323784075032</v>
       </c>
       <c r="E37">
-        <v>0.2173919704136258</v>
+        <v>0.126727722287633</v>
       </c>
       <c r="F37">
-        <v>0.09737654479174376</v>
+        <v>0.05676524161503201</v>
       </c>
       <c r="G37">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H37">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I37">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J37">
-        <v>0.215707710427869</v>
+        <v>0.1257458901098896</v>
       </c>
       <c r="K37">
-        <v>0.2856898965015547</v>
+        <v>0.166541707107883</v>
       </c>
       <c r="L37">
-        <v>1.400914150823961</v>
+        <v>0.8166569313330382</v>
       </c>
       <c r="M37">
-        <v>0.8815289983129702</v>
+        <v>0.5138835711095763</v>
       </c>
       <c r="N37">
-        <v>0.01037535986746339</v>
+        <v>0.006048271798707341</v>
       </c>
       <c r="O37">
-        <v>0.04312060742147036</v>
+        <v>0.02513697424879513</v>
       </c>
       <c r="P37">
-        <v>4.741992603364407</v>
+        <v>2.76432437033336</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2202,43 +2202,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.06128531112931265</v>
+        <v>0.03572601082887063</v>
       </c>
       <c r="C38">
-        <v>0.4107702281986378</v>
+        <v>0.2394567531824619</v>
       </c>
       <c r="D38">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E38">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F38">
-        <v>0.09737654479174376</v>
+        <v>0.05676524161503201</v>
       </c>
       <c r="G38">
-        <v>0.1581970359640184</v>
+        <v>0.09222028763173784</v>
       </c>
       <c r="H38">
-        <v>0.05411119320034988</v>
+        <v>0.03154388936950629</v>
       </c>
       <c r="I38">
-        <v>0.4010513501095447</v>
+        <v>0.2337911746375021</v>
       </c>
       <c r="J38">
-        <v>0.149336107219294</v>
+        <v>0.08705484699915429</v>
       </c>
       <c r="K38">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="L38">
-        <v>1.541005565906357</v>
+        <v>0.8983226244663417</v>
       </c>
       <c r="M38">
-        <v>0.9696818981442672</v>
+        <v>0.5652719282205341</v>
       </c>
       <c r="P38">
-        <v>4.284686628347925</v>
+        <v>2.497739801951659</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2246,31 +2246,31 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.04694194043947351</v>
+        <v>0.02736460403913495</v>
       </c>
       <c r="C39">
-        <v>0.3146325152159781</v>
+        <v>0.1834136832886943</v>
       </c>
       <c r="D39">
-        <v>0.0007618340786599253</v>
+        <v>0.0004441079280250106</v>
       </c>
       <c r="E39">
-        <v>0.0724639901378753</v>
+        <v>0.04224257409587769</v>
       </c>
       <c r="J39">
-        <v>0.08296450401071884</v>
+        <v>0.04836380388841904</v>
       </c>
       <c r="K39">
-        <v>0.1098807294236749</v>
+        <v>0.06405450273380116</v>
       </c>
       <c r="L39">
-        <v>1.541005565906357</v>
+        <v>0.8983226244663417</v>
       </c>
       <c r="M39">
-        <v>0.9696818981442672</v>
+        <v>0.5652719282205341</v>
       </c>
       <c r="P39">
-        <v>3.138332977357005</v>
+        <v>1.829477828660828</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,37 +2278,37 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.04563799764948814</v>
+        <v>0.02660447614915897</v>
       </c>
       <c r="C40">
-        <v>0.3058927231266453</v>
+        <v>0.1783188587528971</v>
       </c>
       <c r="D40">
-        <v>0.001015778771546567</v>
+        <v>0.0005921439040333475</v>
       </c>
       <c r="E40">
-        <v>0.09661865351716704</v>
+        <v>0.05632343212783691</v>
       </c>
       <c r="H40">
-        <v>0.02164447728013994</v>
+        <v>0.01261755574780252</v>
       </c>
       <c r="I40">
-        <v>0.1604205400438179</v>
+        <v>0.09351646985500082</v>
       </c>
       <c r="J40">
-        <v>0.149336107219294</v>
+        <v>0.08705484699915429</v>
       </c>
       <c r="K40">
-        <v>0.1977853129626147</v>
+        <v>0.1152981049208421</v>
       </c>
       <c r="L40">
-        <v>2.941919716730319</v>
+        <v>1.714979555799378</v>
       </c>
       <c r="M40">
-        <v>1.851210896457237</v>
+        <v>1.07915549933011</v>
       </c>
       <c r="P40">
-        <v>5.771482203758269</v>
+        <v>3.364460943586215</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2316,43 +2316,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.100403594828874</v>
+        <v>0.0585298475281498</v>
       </c>
       <c r="C41">
-        <v>0.6729639908786197</v>
+        <v>0.3923014892563735</v>
       </c>
       <c r="D41">
-        <v>0.0005078893857732835</v>
+        <v>0.0002960719520166737</v>
       </c>
       <c r="E41">
-        <v>0.04830932675858352</v>
+        <v>0.02816171606391845</v>
       </c>
       <c r="F41">
-        <v>0.1947530895834875</v>
+        <v>0.113530483230064</v>
       </c>
       <c r="G41">
-        <v>0.3163940719280368</v>
+        <v>0.1844405752634757</v>
       </c>
       <c r="H41">
-        <v>0.04328895456027989</v>
+        <v>0.02523511149560503</v>
       </c>
       <c r="I41">
-        <v>0.3208410800876358</v>
+        <v>0.1870329397100016</v>
       </c>
       <c r="J41">
-        <v>0.298672214438588</v>
+        <v>0.1741096939983086</v>
       </c>
       <c r="K41">
-        <v>0.3955706259252295</v>
+        <v>0.2305962098416842</v>
       </c>
       <c r="L41">
-        <v>5.603656603295844</v>
+        <v>3.266627725332153</v>
       </c>
       <c r="M41">
-        <v>3.526115993251881</v>
+        <v>2.055534284438305</v>
       </c>
       <c r="P41">
-        <v>11.52147743492283</v>
+        <v>6.716396148110055</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2360,49 +2360,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.2229742170874992</v>
+        <v>0.1299818691858911</v>
       </c>
       <c r="C42">
-        <v>1.494504447275895</v>
+        <v>0.8712149956212977</v>
       </c>
       <c r="D42">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E42">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F42">
-        <v>0.4381944515628469</v>
+        <v>0.255443587267644</v>
       </c>
       <c r="G42">
-        <v>0.7118866618380826</v>
+        <v>0.4149912943428203</v>
       </c>
       <c r="H42">
-        <v>0.1515113409609796</v>
+        <v>0.08832289023461762</v>
       </c>
       <c r="I42">
-        <v>1.122943780306726</v>
+        <v>0.6546152889850058</v>
       </c>
       <c r="J42">
-        <v>0.4148225200535943</v>
+        <v>0.2418190194420952</v>
       </c>
       <c r="K42">
-        <v>0.5494036471183743</v>
+        <v>0.3202725136690058</v>
       </c>
       <c r="L42">
-        <v>7.144662169202202</v>
+        <v>4.164950349798493</v>
       </c>
       <c r="M42">
-        <v>4.495797891396149</v>
+        <v>2.62080621265884</v>
       </c>
       <c r="N42">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O42">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P42">
-        <v>17.00014470981329</v>
+        <v>9.910161877348521</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.741943447501679</v>
+        <v>0.4325127693963273</v>
       </c>
       <c r="C43">
-        <v>4.972941698830319</v>
+        <v>2.898955160868526</v>
       </c>
       <c r="D43">
-        <v>0.001269723464433209</v>
+        <v>0.0007401798800416845</v>
       </c>
       <c r="E43">
-        <v>0.1207733168964588</v>
+        <v>0.07040429015979614</v>
       </c>
       <c r="F43">
-        <v>0.5842592687504626</v>
+        <v>0.3405914496901922</v>
       </c>
       <c r="G43">
-        <v>0.9491822157841104</v>
+        <v>0.553321725790427</v>
       </c>
       <c r="H43">
-        <v>0.4870007388031491</v>
+        <v>0.2838950043255564</v>
       </c>
       <c r="I43">
-        <v>3.609462150985903</v>
+        <v>2.104120571737519</v>
       </c>
       <c r="J43">
-        <v>1.078538552139345</v>
+        <v>0.6287294505494476</v>
       </c>
       <c r="K43">
-        <v>1.428449482507773</v>
+        <v>0.832708535539415</v>
       </c>
       <c r="L43">
-        <v>10.92713037642689</v>
+        <v>6.369924064397694</v>
       </c>
       <c r="M43">
-        <v>6.875926186841166</v>
+        <v>4.008291854654696</v>
       </c>
       <c r="P43">
-        <v>31.77687715893169</v>
+        <v>18.52419505698964</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.341757130894952</v>
+        <v>0.7821715987852742</v>
       </c>
       <c r="C44">
-        <v>8.993246059923372</v>
+        <v>5.242574447335175</v>
       </c>
       <c r="D44">
-        <v>0.001523668157319851</v>
+        <v>0.0008882158560500213</v>
       </c>
       <c r="E44">
-        <v>0.1449279802757506</v>
+        <v>0.08448514819175539</v>
       </c>
       <c r="F44">
-        <v>1.460648171876156</v>
+        <v>0.85147862422548</v>
       </c>
       <c r="G44">
-        <v>2.372955539460276</v>
+        <v>1.383304314476068</v>
       </c>
       <c r="H44">
-        <v>0.389600591042519</v>
+        <v>0.2271160034604453</v>
       </c>
       <c r="I44">
-        <v>2.887569720788723</v>
+        <v>1.683296457390015</v>
       </c>
       <c r="J44">
-        <v>1.327432064171501</v>
+        <v>0.7738208622147047</v>
       </c>
       <c r="K44">
-        <v>1.758091670778798</v>
+        <v>1.024872043740819</v>
       </c>
       <c r="L44">
-        <v>9.946490470850128</v>
+        <v>5.798264212464569</v>
       </c>
       <c r="M44">
-        <v>6.258855888022087</v>
+        <v>3.648573354877993</v>
       </c>
       <c r="N44">
-        <v>0.06225215920478033</v>
+        <v>0.03628963079224404</v>
       </c>
       <c r="O44">
-        <v>0.2587236445288221</v>
+        <v>0.1508218454927707</v>
       </c>
       <c r="P44">
-        <v>37.20407475997519</v>
+        <v>21.68795675930336</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.468239581523533</v>
+        <v>0.8559040041129432</v>
       </c>
       <c r="C45">
-        <v>9.841005892588644</v>
+        <v>5.736772427307488</v>
       </c>
       <c r="D45">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E45">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F45">
-        <v>1.363271627084412</v>
+        <v>0.7947133826104483</v>
       </c>
       <c r="G45">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="H45">
-        <v>0.2597337273616793</v>
+        <v>0.1514106689736302</v>
       </c>
       <c r="I45">
-        <v>1.925046480525815</v>
+        <v>1.12219763826001</v>
       </c>
       <c r="J45">
-        <v>1.061945651337202</v>
+        <v>0.6190566897717638</v>
       </c>
       <c r="K45">
-        <v>1.406473336623038</v>
+        <v>0.8198976349926549</v>
       </c>
       <c r="L45">
-        <v>7.284753584284601</v>
+        <v>4.246616042931795</v>
       </c>
       <c r="M45">
-        <v>4.583950791227444</v>
+        <v>2.672194569769798</v>
       </c>
       <c r="N45">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O45">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P45">
-        <v>31.86724912593014</v>
+        <v>18.57687700984455</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>1.105743485907598</v>
+        <v>0.6445884506996233</v>
       </c>
       <c r="C46">
-        <v>7.411343691754153</v>
+        <v>4.320411206355907</v>
       </c>
       <c r="D46">
-        <v>0.003809170393299627</v>
+        <v>0.002220539640125053</v>
       </c>
       <c r="E46">
-        <v>0.3623199506893765</v>
+        <v>0.2112128704793884</v>
       </c>
       <c r="F46">
-        <v>1.411959899480284</v>
+        <v>0.8230960034179637</v>
       </c>
       <c r="G46">
-        <v>2.293857021478267</v>
+        <v>1.337194170660199</v>
       </c>
       <c r="H46">
-        <v>0.2380892500815394</v>
+        <v>0.1387931132258276</v>
       </c>
       <c r="I46">
-        <v>1.764625940481997</v>
+        <v>1.028681168405009</v>
       </c>
       <c r="J46">
-        <v>1.27765336176507</v>
+        <v>0.7448025798816535</v>
       </c>
       <c r="K46">
-        <v>1.692163233124593</v>
+        <v>0.9864393421005379</v>
       </c>
       <c r="L46">
-        <v>10.08658188593252</v>
+        <v>5.879929905597874</v>
       </c>
       <c r="M46">
-        <v>6.347008787853384</v>
+        <v>3.699961711988951</v>
       </c>
       <c r="N46">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O46">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P46">
-        <v>34.20913954809781</v>
+        <v>19.94207204664307</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.8371312711706119</v>
+        <v>0.4880021053645733</v>
       </c>
       <c r="C47">
-        <v>5.61094652135161</v>
+        <v>3.270877351981713</v>
       </c>
       <c r="D47">
-        <v>0.002539446928866418</v>
+        <v>0.001480359760083369</v>
       </c>
       <c r="E47">
-        <v>0.2415466337929176</v>
+        <v>0.1408085803195923</v>
       </c>
       <c r="F47">
-        <v>1.363271627084412</v>
+        <v>0.7947133826104483</v>
       </c>
       <c r="G47">
-        <v>2.214758503496257</v>
+        <v>1.29108402684433</v>
       </c>
       <c r="H47">
-        <v>0.1731558182411196</v>
+        <v>0.1009404459824201</v>
       </c>
       <c r="I47">
-        <v>1.283364320350543</v>
+        <v>0.7481317588400066</v>
       </c>
       <c r="J47">
-        <v>1.576325576203658</v>
+        <v>0.9189122738799622</v>
       </c>
       <c r="K47">
-        <v>2.087733859049822</v>
+        <v>1.217035551942222</v>
       </c>
       <c r="L47">
-        <v>9.946490470850128</v>
+        <v>5.798264212464569</v>
       </c>
       <c r="M47">
-        <v>6.258855888022087</v>
+        <v>3.648573354877993</v>
       </c>
       <c r="N47">
-        <v>0.05187679933731694</v>
+        <v>0.0302413589935367</v>
       </c>
       <c r="O47">
-        <v>0.2156030371073518</v>
+        <v>0.1256848712439756</v>
       </c>
       <c r="P47">
-        <v>31.8635997729867</v>
+        <v>18.57474963510543</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.8136603009508744</v>
+        <v>0.474319803345006</v>
       </c>
       <c r="C48">
-        <v>5.453630263743621</v>
+        <v>3.179170510337365</v>
       </c>
       <c r="D48">
-        <v>0.001777612850206492</v>
+        <v>0.001036251832058358</v>
       </c>
       <c r="E48">
-        <v>0.1690826436550424</v>
+        <v>0.09856600622371463</v>
       </c>
       <c r="F48">
-        <v>1.071141992709181</v>
+        <v>0.6244176577653517</v>
       </c>
       <c r="G48">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="H48">
-        <v>0.1839780568811896</v>
+        <v>0.1072492238563214</v>
       </c>
       <c r="I48">
-        <v>1.363574590372453</v>
+        <v>0.7948899937675069</v>
       </c>
       <c r="J48">
-        <v>1.509953972995083</v>
+        <v>0.8802212307692269</v>
       </c>
       <c r="K48">
-        <v>1.999829275510883</v>
+        <v>1.165791949755181</v>
       </c>
       <c r="L48">
-        <v>7.144662169202202</v>
+        <v>4.164950349798493</v>
       </c>
       <c r="M48">
-        <v>4.495797891396149</v>
+        <v>2.62080621265884</v>
       </c>
       <c r="N48">
-        <v>0.04150143946985357</v>
+        <v>0.02419308719482936</v>
       </c>
       <c r="O48">
-        <v>0.1724824296858815</v>
+        <v>0.1005478969951805</v>
       </c>
       <c r="P48">
-        <v>26.16124003502683</v>
+        <v>15.25058333824819</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.8397391567505819</v>
+        <v>0.4895223611445254</v>
       </c>
       <c r="C49">
-        <v>5.628426105530274</v>
+        <v>3.281067001053306</v>
       </c>
       <c r="D49">
-        <v>0.004063115086186268</v>
+        <v>0.00236857561613339</v>
       </c>
       <c r="E49">
-        <v>0.3864746140686682</v>
+        <v>0.2252937285113476</v>
       </c>
       <c r="F49">
-        <v>1.071141992709181</v>
+        <v>0.6244176577653517</v>
       </c>
       <c r="G49">
-        <v>1.740167395604202</v>
+        <v>1.014423163949116</v>
       </c>
       <c r="H49">
-        <v>0.1406891023209097</v>
+        <v>0.08201411236071635</v>
       </c>
       <c r="I49">
-        <v>1.042733510284816</v>
+        <v>0.6078570540575055</v>
       </c>
       <c r="J49">
-        <v>1.244467560160783</v>
+        <v>0.7254570583262859</v>
       </c>
       <c r="K49">
-        <v>1.648210941355123</v>
+        <v>0.9608175410070174</v>
       </c>
       <c r="L49">
-        <v>5.743748018378244</v>
+        <v>3.348293418465455</v>
       </c>
       <c r="M49">
-        <v>3.614268893083176</v>
+        <v>2.106922641549263</v>
       </c>
       <c r="N49">
-        <v>0.02075071973492678</v>
+        <v>0.01209654359741468</v>
       </c>
       <c r="O49">
-        <v>0.08624121484294073</v>
+        <v>0.05027394849759026</v>
       </c>
       <c r="P49">
-        <v>23.21112233991001</v>
+        <v>13.53082480590103</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_PM25.xlsx
@@ -480,49 +480,49 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.5647750222521464</v>
+        <v>0.968829492959134</v>
       </c>
       <c r="C2">
-        <v>3.785454630097216</v>
+        <v>6.493665522374215</v>
       </c>
       <c r="D2">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E2">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F2">
-        <v>0.510887174535288</v>
+        <v>0.8763889031256938</v>
       </c>
       <c r="G2">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="H2">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I2">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J2">
-        <v>1.0156398816568</v>
+        <v>1.742254584225096</v>
       </c>
       <c r="K2">
-        <v>1.345144557409825</v>
+        <v>2.307495317897172</v>
       </c>
       <c r="L2">
-        <v>4.654944508598318</v>
+        <v>7.985210659696577</v>
       </c>
       <c r="M2">
-        <v>2.929136355324585</v>
+        <v>5.02471529038393</v>
       </c>
       <c r="N2">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O2">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P2">
-        <v>16.49165719835928</v>
+        <v>28.29020982165356</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -530,49 +530,49 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.5609743828022666</v>
+        <v>0.9623097790092076</v>
       </c>
       <c r="C3">
-        <v>3.759980507418231</v>
+        <v>6.44996656192755</v>
       </c>
       <c r="D3">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E3">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F3">
-        <v>1.078539590685608</v>
+        <v>1.850154351043131</v>
       </c>
       <c r="G3">
-        <v>1.752185465003019</v>
+        <v>3.00574368331635</v>
       </c>
       <c r="H3">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I3">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J3">
-        <v>0.8221846661031238</v>
+        <v>1.410396568182221</v>
       </c>
       <c r="K3">
-        <v>1.08892654647462</v>
+        <v>1.867972400202473</v>
       </c>
       <c r="L3">
-        <v>4.001618963531886</v>
+        <v>6.86447933903741</v>
       </c>
       <c r="M3">
-        <v>2.518029498436925</v>
+        <v>4.319492091733554</v>
       </c>
       <c r="N3">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O3">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P3">
-        <v>16.45508845229469</v>
+        <v>28.22747886098423</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -580,49 +580,49 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.5944200099612093</v>
+        <v>1.019683261768564</v>
       </c>
       <c r="C4">
-        <v>3.984152786993302</v>
+        <v>6.834517413858191</v>
       </c>
       <c r="D4">
-        <v>0.002960719520166738</v>
+        <v>0.005078893857732835</v>
       </c>
       <c r="E4">
-        <v>0.2816171606391846</v>
+        <v>0.4830932675858352</v>
       </c>
       <c r="F4">
-        <v>0.85147862422548</v>
+        <v>1.460648171876156</v>
       </c>
       <c r="G4">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H4">
-        <v>0.09463166810851883</v>
+        <v>0.1623335796010496</v>
       </c>
       <c r="I4">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="J4">
-        <v>0.7448025798816535</v>
+        <v>1.27765336176507</v>
       </c>
       <c r="K4">
-        <v>0.9864393421005379</v>
+        <v>1.692163233124593</v>
       </c>
       <c r="L4">
-        <v>3.67495619099867</v>
+        <v>6.304113678707827</v>
       </c>
       <c r="M4">
-        <v>2.312476069993094</v>
+        <v>3.966880492408366</v>
       </c>
       <c r="N4">
-        <v>0.04233790259095137</v>
+        <v>0.07262751907224374</v>
       </c>
       <c r="O4">
-        <v>0.1759588197415659</v>
+        <v>0.3018442519502926</v>
       </c>
       <c r="P4">
-        <v>15.83090971314291</v>
+        <v>27.15674671536483</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -630,49 +630,49 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.7806513430053219</v>
+        <v>1.339149245314981</v>
       </c>
       <c r="C5">
-        <v>5.232384798263581</v>
+        <v>8.975766475744706</v>
       </c>
       <c r="D5">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E5">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F5">
-        <v>1.390748419568284</v>
+        <v>2.385725347397721</v>
       </c>
       <c r="G5">
-        <v>2.259397046977577</v>
+        <v>3.87582738111845</v>
       </c>
       <c r="H5">
-        <v>0.1324843353519264</v>
+        <v>0.2272670114414695</v>
       </c>
       <c r="I5">
-        <v>0.9819229334775083</v>
+        <v>1.684415670460089</v>
       </c>
       <c r="J5">
-        <v>0.7738208622147047</v>
+        <v>1.327432064171501</v>
       </c>
       <c r="K5">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="L5">
-        <v>2.123308021465898</v>
+        <v>3.642376792142301</v>
       </c>
       <c r="M5">
-        <v>1.336097284884899</v>
+        <v>2.291975395613722</v>
       </c>
       <c r="N5">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O5">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P5">
-        <v>16.2288450851488</v>
+        <v>27.83937521255579</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -680,49 +680,49 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.010209965778066</v>
+        <v>1.732939967890564</v>
       </c>
       <c r="C6">
-        <v>6.771021808074294</v>
+        <v>11.6151836867232</v>
       </c>
       <c r="D6">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E6">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F6">
-        <v>1.192070073915672</v>
+        <v>2.044907440626618</v>
       </c>
       <c r="G6">
-        <v>1.936626040266495</v>
+        <v>3.322137755244387</v>
       </c>
       <c r="H6">
-        <v>0.1577194468475314</v>
+        <v>0.2705559660017494</v>
       </c>
       <c r="I6">
-        <v>1.16895587318751</v>
+        <v>2.005256750547724</v>
       </c>
       <c r="J6">
-        <v>0.6480749721048153</v>
+        <v>1.111724353743632</v>
       </c>
       <c r="K6">
-        <v>0.8583303366329355</v>
+        <v>1.472401774277243</v>
       </c>
       <c r="L6">
-        <v>2.286639407732507</v>
+        <v>3.922559622307093</v>
       </c>
       <c r="M6">
-        <v>1.438873999106814</v>
+        <v>2.468281195276317</v>
       </c>
       <c r="N6">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O6">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P6">
-        <v>17.63322213182899</v>
+        <v>30.24847945486621</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -730,49 +730,49 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.8566641320029195</v>
+        <v>1.469543524313518</v>
       </c>
       <c r="C7">
-        <v>5.741867251843286</v>
+        <v>9.849745684677977</v>
       </c>
       <c r="D7">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E7">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F7">
-        <v>0.7095655201879002</v>
+        <v>1.217206809896797</v>
       </c>
       <c r="G7">
-        <v>1.152753595396723</v>
+        <v>1.97746294955023</v>
       </c>
       <c r="H7">
-        <v>0.195572114090939</v>
+        <v>0.3354893978421692</v>
       </c>
       <c r="I7">
-        <v>1.449505282752513</v>
+        <v>2.486518370679177</v>
       </c>
       <c r="J7">
-        <v>0.4546197565511391</v>
+        <v>0.7798663377007572</v>
       </c>
       <c r="K7">
-        <v>0.6021123256977309</v>
+        <v>1.032878856582544</v>
       </c>
       <c r="L7">
-        <v>2.123308021465898</v>
+        <v>3.642376792142301</v>
       </c>
       <c r="M7">
-        <v>1.336097284884899</v>
+        <v>2.291975395613722</v>
       </c>
       <c r="N7">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O7">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P7">
-        <v>14.8491359851513</v>
+        <v>25.47258699580475</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -780,49 +780,49 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.6065820562008246</v>
+        <v>1.04054634640833</v>
       </c>
       <c r="C8">
-        <v>4.065669979566057</v>
+        <v>6.974354087287513</v>
       </c>
       <c r="D8">
-        <v>0.001776431712100043</v>
+        <v>0.003047336314639701</v>
       </c>
       <c r="E8">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="F8">
-        <v>0.4825045537277721</v>
+        <v>0.8277006307298217</v>
       </c>
       <c r="G8">
-        <v>0.7838724448697716</v>
+        <v>1.344674805694156</v>
       </c>
       <c r="H8">
-        <v>0.1198667796041239</v>
+        <v>0.2056225341613295</v>
       </c>
       <c r="I8">
-        <v>0.8884064636225077</v>
+        <v>1.52399513041627</v>
       </c>
       <c r="J8">
-        <v>0.2611645409974629</v>
+        <v>0.4480083216578818</v>
       </c>
       <c r="K8">
-        <v>0.3458943147625262</v>
+        <v>0.5933559388878443</v>
       </c>
       <c r="L8">
-        <v>3.511624804732062</v>
+        <v>6.023930848543034</v>
       </c>
       <c r="M8">
-        <v>2.209699355771179</v>
+        <v>3.79057469274577</v>
       </c>
       <c r="N8">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O8">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P8">
-        <v>13.5084025140449</v>
+        <v>23.17265856797596</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -830,49 +830,49 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.3770234334280816</v>
+        <v>0.6467556238327461</v>
       </c>
       <c r="C9">
-        <v>2.527032969755342</v>
+        <v>4.334936876309031</v>
       </c>
       <c r="D9">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E9">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F9">
-        <v>0.510887174535288</v>
+        <v>0.8763889031256938</v>
       </c>
       <c r="G9">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="H9">
-        <v>0.1829545583431365</v>
+        <v>0.3138449205620293</v>
       </c>
       <c r="I9">
-        <v>1.355988812897512</v>
+        <v>2.326097830635361</v>
       </c>
       <c r="J9">
-        <v>0.2708373017751466</v>
+        <v>0.4646012224600256</v>
       </c>
       <c r="K9">
-        <v>0.3587052153092865</v>
+        <v>0.6153320847725794</v>
       </c>
       <c r="L9">
-        <v>3.756621884131974</v>
+        <v>6.444205093790222</v>
       </c>
       <c r="M9">
-        <v>2.36386442710405</v>
+        <v>4.055033392239663</v>
       </c>
       <c r="N9">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O9">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P9">
-        <v>12.65045697606077</v>
+        <v>21.70091688712552</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -880,43 +880,43 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.3063315396603163</v>
+        <v>0.5254889443641065</v>
       </c>
       <c r="C10">
-        <v>2.053214287926216</v>
+        <v>3.522136212001088</v>
       </c>
       <c r="D10">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E10">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F10">
-        <v>0.227060966460128</v>
+        <v>0.3895061791669751</v>
       </c>
       <c r="G10">
-        <v>0.3688811505269514</v>
+        <v>0.6327881438560735</v>
       </c>
       <c r="H10">
-        <v>0.05047022299121007</v>
+        <v>0.08657790912055978</v>
       </c>
       <c r="I10">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="J10">
-        <v>0.1644369332206248</v>
+        <v>0.2820793136364441</v>
       </c>
       <c r="K10">
-        <v>0.217785309294924</v>
+        <v>0.3735944800404946</v>
       </c>
       <c r="L10">
-        <v>2.286639407732507</v>
+        <v>3.922559622307093</v>
       </c>
       <c r="M10">
-        <v>1.438873999106814</v>
+        <v>2.468281195276317</v>
       </c>
       <c r="P10">
-        <v>7.644277530427336</v>
+        <v>13.11318884873839</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -924,43 +924,43 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.2014338908436322</v>
+        <v>0.3455448393461245</v>
       </c>
       <c r="C11">
-        <v>1.350128501986221</v>
+        <v>2.316044903673172</v>
       </c>
       <c r="D11">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E11">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F11">
-        <v>0.08514786242254804</v>
+        <v>0.1460648171876157</v>
       </c>
       <c r="G11">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H11">
-        <v>0.08201411236071635</v>
+        <v>0.1406891023209097</v>
       </c>
       <c r="I11">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="J11">
-        <v>0.1160731293322058</v>
+        <v>0.1991148096257252</v>
       </c>
       <c r="K11">
-        <v>0.1537308065611228</v>
+        <v>0.2637137506168197</v>
       </c>
       <c r="L11">
-        <v>2.449970793999112</v>
+        <v>4.202742452471885</v>
       </c>
       <c r="M11">
-        <v>1.541650713328729</v>
+        <v>2.64458699493891</v>
       </c>
       <c r="P11">
-        <v>6.769023978363302</v>
+        <v>11.61175655862854</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -968,49 +968,49 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.1140191834963957</v>
+        <v>0.1955914184978063</v>
       </c>
       <c r="C12">
-        <v>0.7642236803695591</v>
+        <v>1.310968813399908</v>
       </c>
       <c r="D12">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E12">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F12">
-        <v>0.05676524161503201</v>
+        <v>0.09737654479174376</v>
       </c>
       <c r="G12">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H12">
-        <v>0.05047022299121007</v>
+        <v>0.08657790912055978</v>
       </c>
       <c r="I12">
-        <v>0.3740658794200033</v>
+        <v>0.6416821601752717</v>
       </c>
       <c r="J12">
-        <v>0.05803656466610288</v>
+        <v>0.09955740481286261</v>
       </c>
       <c r="K12">
-        <v>0.07686540328056141</v>
+        <v>0.1318568753084098</v>
       </c>
       <c r="L12">
-        <v>0.7349912381997342</v>
+        <v>1.260822735741564</v>
       </c>
       <c r="M12">
-        <v>0.4624952139986188</v>
+        <v>0.793376098481673</v>
       </c>
       <c r="N12">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O12">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P12">
-        <v>2.943398207788166</v>
+        <v>5.049180436232358</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1018,43 +1018,43 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.06917163798781333</v>
+        <v>0.1186587938886692</v>
       </c>
       <c r="C13">
-        <v>0.4636290327575324</v>
+        <v>0.795321080129278</v>
       </c>
       <c r="D13">
-        <v>0.0005921439040333475</v>
+        <v>0.001015778771546567</v>
       </c>
       <c r="E13">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="F13">
-        <v>0.05676524161503201</v>
+        <v>0.09737654479174376</v>
       </c>
       <c r="G13">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H13">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I13">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J13">
-        <v>0.05803656466610288</v>
+        <v>0.09955740481286261</v>
       </c>
       <c r="K13">
-        <v>0.07686540328056141</v>
+        <v>0.1318568753084098</v>
       </c>
       <c r="L13">
-        <v>0.6533255450664303</v>
+        <v>1.120731320659169</v>
       </c>
       <c r="M13">
-        <v>0.4111068568876611</v>
+        <v>0.7052231986503761</v>
       </c>
       <c r="P13">
-        <v>2.20337120993175</v>
+        <v>3.779719229803135</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1062,43 +1062,43 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.04028677816872646</v>
+        <v>0.06910896786922489</v>
       </c>
       <c r="C14">
-        <v>0.2700257003972442</v>
+        <v>0.4632089807346346</v>
       </c>
       <c r="D14">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E14">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F14">
-        <v>0.08514786242254804</v>
+        <v>0.1460648171876157</v>
       </c>
       <c r="G14">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H14">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I14">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J14">
-        <v>0.08705484699915429</v>
+        <v>0.149336107219294</v>
       </c>
       <c r="K14">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="L14">
-        <v>1.224985396999556</v>
+        <v>2.101371226235943</v>
       </c>
       <c r="M14">
-        <v>0.7708253566643645</v>
+        <v>1.322293497469455</v>
       </c>
       <c r="P14">
-        <v>3.029595893273454</v>
+        <v>5.197046146705795</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1106,43 +1106,43 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.01900319724939927</v>
+        <v>0.0325985697496344</v>
       </c>
       <c r="C15">
-        <v>0.1273706133949265</v>
+        <v>0.218494802233318</v>
       </c>
       <c r="D15">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E15">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F15">
-        <v>0.08514786242254804</v>
+        <v>0.1460648171876157</v>
       </c>
       <c r="G15">
-        <v>0.1383304314476068</v>
+        <v>0.2372955539460276</v>
       </c>
       <c r="H15">
-        <v>0.006308777873901258</v>
+        <v>0.01082223864006997</v>
       </c>
       <c r="I15">
-        <v>0.04675823492750041</v>
+        <v>0.08021027002190896</v>
       </c>
       <c r="J15">
-        <v>0.08705484699915429</v>
+        <v>0.149336107219294</v>
       </c>
       <c r="K15">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="L15">
-        <v>0.5716598519331267</v>
+        <v>0.9806399055767733</v>
       </c>
       <c r="M15">
-        <v>0.3597184997767034</v>
+        <v>0.6170702988190792</v>
       </c>
       <c r="P15">
-        <v>1.627794890985547</v>
+        <v>2.792360916717228</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1150,37 +1150,37 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.01064179045966359</v>
+        <v>0.01825519905979527</v>
       </c>
       <c r="C16">
-        <v>0.07132754350115883</v>
+        <v>0.1223570892506581</v>
       </c>
       <c r="D16">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E16">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F16">
-        <v>0.028382620807516</v>
+        <v>0.04868827239587188</v>
       </c>
       <c r="G16">
-        <v>0.04611014381586892</v>
+        <v>0.07909851798200919</v>
       </c>
       <c r="J16">
-        <v>0.02901828233305144</v>
+        <v>0.04977870240643131</v>
       </c>
       <c r="K16">
-        <v>0.0384327016402807</v>
+        <v>0.06592843765420492</v>
       </c>
       <c r="L16">
-        <v>0.9799883175996451</v>
+        <v>1.681096980988754</v>
       </c>
       <c r="M16">
-        <v>0.6166602853314914</v>
+        <v>1.057834797975564</v>
       </c>
       <c r="P16">
-        <v>1.863248367512579</v>
+        <v>3.196263821929824</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1188,37 +1188,37 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.05168869651836603</v>
+        <v>0.08866810971900554</v>
       </c>
       <c r="C17">
-        <v>0.3464480684342003</v>
+        <v>0.5943058620746251</v>
       </c>
       <c r="F17">
-        <v>0.05676524161503201</v>
+        <v>0.09737654479174376</v>
       </c>
       <c r="G17">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H17">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I17">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J17">
-        <v>0.07738208622147047</v>
+        <v>0.1327432064171502</v>
       </c>
       <c r="K17">
-        <v>0.1024872043740819</v>
+        <v>0.1758091670778798</v>
       </c>
       <c r="L17">
-        <v>2.041642328332594</v>
+        <v>3.502285377059903</v>
       </c>
       <c r="M17">
-        <v>1.284708927773941</v>
+        <v>2.203822495782425</v>
       </c>
       <c r="P17">
-        <v>4.26561089210703</v>
+        <v>7.317337833534667</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1226,43 +1226,43 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.1246609739560593</v>
+        <v>0.2138466175576016</v>
       </c>
       <c r="C18">
-        <v>0.8355512238707173</v>
+        <v>1.433325902650566</v>
       </c>
       <c r="D18">
-        <v>0.0005921439040333475</v>
+        <v>0.001015778771546567</v>
       </c>
       <c r="E18">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="F18">
-        <v>0.113530483230064</v>
+        <v>0.1947530895834875</v>
       </c>
       <c r="G18">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H18">
-        <v>0.07570533448681512</v>
+        <v>0.1298668636808397</v>
       </c>
       <c r="I18">
-        <v>0.561098819130005</v>
+        <v>0.9625232402629076</v>
       </c>
       <c r="J18">
-        <v>0.2514917802197791</v>
+        <v>0.4314154208557381</v>
       </c>
       <c r="K18">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="L18">
-        <v>4.573278815465014</v>
+        <v>7.845119244614186</v>
       </c>
       <c r="M18">
-        <v>2.877747998213628</v>
+        <v>4.936562390552633</v>
       </c>
       <c r="P18">
-        <v>9.987504994083192</v>
+        <v>17.13282106697782</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1270,49 +1270,49 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.393746247007553</v>
+        <v>0.6754423652124242</v>
       </c>
       <c r="C19">
-        <v>2.639119109542877</v>
+        <v>4.527212302274351</v>
       </c>
       <c r="D19">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E19">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="F19">
-        <v>0.2838262080751601</v>
+        <v>0.4868827239587188</v>
       </c>
       <c r="G19">
-        <v>0.4611014381586891</v>
+        <v>0.7909851798200916</v>
       </c>
       <c r="H19">
-        <v>0.2649686707038528</v>
+        <v>0.4545340228829389</v>
       </c>
       <c r="I19">
-        <v>1.963845866955017</v>
+        <v>3.368831340920177</v>
       </c>
       <c r="J19">
-        <v>0.5029835604395583</v>
+        <v>0.8628308417114762</v>
       </c>
       <c r="K19">
-        <v>0.6661668284315322</v>
+        <v>1.142759586006219</v>
       </c>
       <c r="L19">
-        <v>6.533255450664305</v>
+        <v>11.20731320659169</v>
       </c>
       <c r="M19">
-        <v>4.11106856887661</v>
+        <v>7.052231986503761</v>
       </c>
       <c r="N19">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O19">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P19">
-        <v>17.95632436902157</v>
+        <v>30.80273728196518</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1320,49 +1320,49 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.7950937729148656</v>
+        <v>1.363924158324702</v>
       </c>
       <c r="C20">
-        <v>5.329186464443726</v>
+        <v>9.141822525442025</v>
       </c>
       <c r="D20">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E20">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F20">
-        <v>0.9366264866480281</v>
+        <v>1.606712989063772</v>
       </c>
       <c r="G20">
-        <v>1.521634745923674</v>
+        <v>2.610251093406303</v>
       </c>
       <c r="H20">
-        <v>0.220807225586544</v>
+        <v>0.3787783524024492</v>
       </c>
       <c r="I20">
-        <v>1.636538222462514</v>
+        <v>2.807359450766813</v>
       </c>
       <c r="J20">
-        <v>0.8318574268808077</v>
+        <v>1.426989468984365</v>
       </c>
       <c r="K20">
-        <v>1.10173744702138</v>
+        <v>1.889948546087208</v>
       </c>
       <c r="L20">
-        <v>4.736610201731619</v>
+        <v>8.125302074778975</v>
       </c>
       <c r="M20">
-        <v>2.980524712435543</v>
+        <v>5.112868190215226</v>
       </c>
       <c r="N20">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O20">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P20">
-        <v>20.36310154638152</v>
+        <v>34.93138430163851</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1370,49 +1370,49 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.8733869455823908</v>
+        <v>1.498230265693197</v>
       </c>
       <c r="C21">
-        <v>5.853953391630822</v>
+        <v>10.0420211106433</v>
       </c>
       <c r="D21">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E21">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F21">
-        <v>0.5676524161503201</v>
+        <v>0.9737654479174376</v>
       </c>
       <c r="G21">
-        <v>0.9222028763173782</v>
+        <v>1.581970359640183</v>
       </c>
       <c r="H21">
-        <v>0.1640282247214327</v>
+        <v>0.2813782046418195</v>
       </c>
       <c r="I21">
-        <v>1.215714108115011</v>
+        <v>2.085467020569633</v>
       </c>
       <c r="J21">
-        <v>0.7254570583262859</v>
+        <v>1.244467560160783</v>
       </c>
       <c r="K21">
-        <v>0.9608175410070174</v>
+        <v>1.648210941355123</v>
       </c>
       <c r="L21">
-        <v>4.409947429198404</v>
+        <v>7.564936414449392</v>
       </c>
       <c r="M21">
-        <v>2.774971283991712</v>
+        <v>4.760256590890038</v>
       </c>
       <c r="N21">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O21">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P21">
-        <v>18.81176058541343</v>
+        <v>32.27017440848847</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1420,49 +1420,49 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.6825948451984222</v>
+        <v>1.170940625406867</v>
       </c>
       <c r="C22">
-        <v>4.575152433145759</v>
+        <v>7.848333296220788</v>
       </c>
       <c r="D22">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E22">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F22">
-        <v>0.7947133826104483</v>
+        <v>1.363271627084412</v>
       </c>
       <c r="G22">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="H22">
-        <v>0.1640282247214327</v>
+        <v>0.2813782046418195</v>
       </c>
       <c r="I22">
-        <v>1.215714108115011</v>
+        <v>2.085467020569633</v>
       </c>
       <c r="J22">
-        <v>0.8512029484361753</v>
+        <v>1.460175270588652</v>
       </c>
       <c r="K22">
-        <v>1.127359248114901</v>
+        <v>1.933900837856678</v>
       </c>
       <c r="L22">
-        <v>5.553267133064661</v>
+        <v>9.526216225602932</v>
       </c>
       <c r="M22">
-        <v>3.494408283545121</v>
+        <v>5.994397188528197</v>
       </c>
       <c r="N22">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O22">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P22">
-        <v>20.00505312208955</v>
+        <v>34.31717889294615</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1470,49 +1470,49 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.4811609543547899</v>
+        <v>0.8253957860607424</v>
       </c>
       <c r="C23">
-        <v>3.225023931159537</v>
+        <v>5.532288392547611</v>
       </c>
       <c r="D23">
-        <v>0.002516611592141727</v>
+        <v>0.004317059779072909</v>
       </c>
       <c r="E23">
-        <v>0.2393745865433069</v>
+        <v>0.41062927744796</v>
       </c>
       <c r="F23">
-        <v>0.6528002785728679</v>
+        <v>1.119830265105053</v>
       </c>
       <c r="G23">
-        <v>1.060533307764985</v>
+        <v>1.819265913586211</v>
       </c>
       <c r="H23">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I23">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J23">
-        <v>1.044658163989852</v>
+        <v>1.792033286631527</v>
       </c>
       <c r="K23">
-        <v>1.383577259050105</v>
+        <v>2.373423755551377</v>
       </c>
       <c r="L23">
-        <v>5.471601439931354</v>
+        <v>9.38612481052054</v>
       </c>
       <c r="M23">
-        <v>3.443019926434161</v>
+        <v>5.9062442886969</v>
       </c>
       <c r="N23">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O23">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P23">
-        <v>17.72204806369213</v>
+        <v>30.40085372628038</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1520,49 +1520,49 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.4902824890345012</v>
+        <v>0.8410430995405677</v>
       </c>
       <c r="C24">
-        <v>3.286161825589103</v>
+        <v>5.637165897619608</v>
       </c>
       <c r="D24">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E24">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F24">
-        <v>0.7663307618029322</v>
+        <v>1.31458335468854</v>
       </c>
       <c r="G24">
-        <v>1.244973883028461</v>
+        <v>2.135659985514248</v>
       </c>
       <c r="H24">
-        <v>0.09463166810851883</v>
+        <v>0.1623335796010496</v>
       </c>
       <c r="I24">
-        <v>0.7013735239125063</v>
+        <v>1.203154050328635</v>
       </c>
       <c r="J24">
-        <v>0.967276077768381</v>
+        <v>1.659290080214377</v>
       </c>
       <c r="K24">
-        <v>1.281090054676023</v>
+        <v>2.197614588473497</v>
       </c>
       <c r="L24">
-        <v>4.899941587998224</v>
+        <v>8.405484904943771</v>
       </c>
       <c r="M24">
-        <v>3.083301426657458</v>
+        <v>5.28917398987782</v>
       </c>
       <c r="N24">
-        <v>0.01814481539612202</v>
+        <v>0.03112607960239017</v>
       </c>
       <c r="O24">
-        <v>0.07541092274638536</v>
+        <v>0.1293618222644111</v>
       </c>
       <c r="P24">
-        <v>16.99429240076642</v>
+        <v>29.15244308110199</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1570,49 +1570,49 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.4613976292154144</v>
+        <v>0.7914932735211229</v>
       </c>
       <c r="C25">
-        <v>3.092558493228816</v>
+        <v>5.305053798224964</v>
       </c>
       <c r="D25">
-        <v>0.00192446768810838</v>
+        <v>0.003301281007526343</v>
       </c>
       <c r="E25">
-        <v>0.1830511544154699</v>
+        <v>0.3140106239307929</v>
       </c>
       <c r="F25">
-        <v>0.510887174535288</v>
+        <v>0.8763889031256938</v>
       </c>
       <c r="G25">
-        <v>0.8299825886856407</v>
+        <v>1.423773323676165</v>
       </c>
       <c r="H25">
-        <v>0.08201411236071635</v>
+        <v>0.1406891023209097</v>
       </c>
       <c r="I25">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="J25">
-        <v>0.6093839289940803</v>
+        <v>1.045352750535057</v>
       </c>
       <c r="K25">
-        <v>0.8070867344458946</v>
+        <v>1.384497190738303</v>
       </c>
       <c r="L25">
-        <v>3.593290497865367</v>
+        <v>6.164022263625429</v>
       </c>
       <c r="M25">
-        <v>2.261087712882136</v>
+        <v>3.878727592577069</v>
       </c>
       <c r="N25">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O25">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P25">
-        <v>13.10289204046944</v>
+        <v>22.47703554814571</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1620,49 +1620,49 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.5336097787631315</v>
+        <v>0.9153678385697335</v>
       </c>
       <c r="C26">
-        <v>3.576566824129535</v>
+        <v>6.135334046711568</v>
       </c>
       <c r="D26">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E26">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F26">
-        <v>0.7947133826104483</v>
+        <v>1.363271627084412</v>
       </c>
       <c r="G26">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="H26">
-        <v>0.06939655661291382</v>
+        <v>0.1190446250407697</v>
       </c>
       <c r="I26">
-        <v>0.5143405842025045</v>
+        <v>0.8823129702409986</v>
       </c>
       <c r="J26">
-        <v>0.9479305562130136</v>
+        <v>1.626104278610089</v>
       </c>
       <c r="K26">
-        <v>1.255468253582503</v>
+        <v>2.153662296704028</v>
       </c>
       <c r="L26">
-        <v>4.001618963531886</v>
+        <v>6.86447933903741</v>
       </c>
       <c r="M26">
-        <v>2.518029498436925</v>
+        <v>4.319492091733554</v>
       </c>
       <c r="N26">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O26">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P26">
-        <v>15.75828691322048</v>
+        <v>27.03216771017874</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1670,49 +1670,49 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.5168869651836604</v>
+        <v>0.8866810971900553</v>
       </c>
       <c r="C27">
-        <v>3.464480684342003</v>
+        <v>5.943058620746253</v>
       </c>
       <c r="D27">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E27">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F27">
-        <v>0.6244176577653517</v>
+        <v>1.071141992709181</v>
       </c>
       <c r="G27">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="H27">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I27">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J27">
-        <v>0.5803656466610287</v>
+        <v>0.9955740481286264</v>
       </c>
       <c r="K27">
-        <v>0.7686540328056138</v>
+        <v>1.318568753084099</v>
       </c>
       <c r="L27">
-        <v>4.328281736065101</v>
+        <v>7.424844999366995</v>
       </c>
       <c r="M27">
-        <v>2.723582926880754</v>
+        <v>4.672103691058742</v>
       </c>
       <c r="N27">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O27">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P27">
-        <v>14.72796458582539</v>
+        <v>25.26472648366324</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1720,49 +1720,49 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.5700959174819782</v>
+        <v>0.9779570924890321</v>
       </c>
       <c r="C28">
-        <v>3.821118401847794</v>
+        <v>6.554844066999542</v>
       </c>
       <c r="D28">
-        <v>0.001628395736091706</v>
+        <v>0.002793391621753059</v>
       </c>
       <c r="E28">
-        <v>0.1548894383515515</v>
+        <v>0.2657012971722094</v>
       </c>
       <c r="F28">
-        <v>1.050156969878092</v>
+        <v>1.801466078647259</v>
       </c>
       <c r="G28">
-        <v>1.70607532118715</v>
+        <v>2.926645165334339</v>
       </c>
       <c r="H28">
-        <v>0.1072492238563214</v>
+        <v>0.1839780568811896</v>
       </c>
       <c r="I28">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="J28">
-        <v>0.860875709213859</v>
+        <v>1.476768171390796</v>
       </c>
       <c r="K28">
-        <v>1.140170148661661</v>
+        <v>1.955876983741413</v>
       </c>
       <c r="L28">
-        <v>3.838287577265278</v>
+        <v>6.584296508872618</v>
       </c>
       <c r="M28">
-        <v>2.415252784215009</v>
+        <v>4.143186292070959</v>
       </c>
       <c r="N28">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O28">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P28">
-        <v>16.5854308656523</v>
+        <v>28.4510715647493</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1770,49 +1770,49 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.8178976096141446</v>
+        <v>1.403042442024263</v>
       </c>
       <c r="C29">
-        <v>5.482031200517636</v>
+        <v>9.404016288122008</v>
       </c>
       <c r="D29">
-        <v>0.001776431712100043</v>
+        <v>0.003047336314639701</v>
       </c>
       <c r="E29">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="F29">
-        <v>1.163687453108156</v>
+        <v>1.996219168230748</v>
       </c>
       <c r="G29">
-        <v>1.890515896450625</v>
+        <v>3.243039237262377</v>
       </c>
       <c r="H29">
-        <v>0.1261755574780252</v>
+        <v>0.2164447728013995</v>
       </c>
       <c r="I29">
-        <v>0.9351646985500084</v>
+        <v>1.604205400438179</v>
       </c>
       <c r="J29">
-        <v>0.9189122738799622</v>
+        <v>1.576325576203658</v>
       </c>
       <c r="K29">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="L29">
-        <v>2.613302180265721</v>
+        <v>4.482925282636676</v>
       </c>
       <c r="M29">
-        <v>1.644427427550645</v>
+        <v>2.820892794601504</v>
       </c>
       <c r="N29">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O29">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P29">
-        <v>17.13582280769027</v>
+        <v>29.39522795468145</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1820,49 +1820,49 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.9273560257706844</v>
+        <v>1.590810203782157</v>
       </c>
       <c r="C30">
-        <v>6.215685933672413</v>
+        <v>10.66254634898592</v>
       </c>
       <c r="D30">
-        <v>0.002072503664116716</v>
+        <v>0.003555225700412984</v>
       </c>
       <c r="E30">
-        <v>0.1971320124474293</v>
+        <v>0.3381652873100847</v>
       </c>
       <c r="F30">
-        <v>1.13530483230064</v>
+        <v>1.947530895834875</v>
       </c>
       <c r="G30">
-        <v>1.844405752634756</v>
+        <v>3.163940719280367</v>
       </c>
       <c r="H30">
-        <v>0.1451018910997289</v>
+        <v>0.2489114887216095</v>
       </c>
       <c r="I30">
-        <v>1.07543940333251</v>
+        <v>1.844836210503906</v>
       </c>
       <c r="J30">
-        <v>0.5997111682163966</v>
+        <v>1.028759849732914</v>
       </c>
       <c r="K30">
-        <v>0.7942758338991347</v>
+        <v>1.362521044853569</v>
       </c>
       <c r="L30">
-        <v>1.878310942065987</v>
+        <v>3.222102546895111</v>
       </c>
       <c r="M30">
-        <v>1.181932213552025</v>
+        <v>2.027516696119831</v>
       </c>
       <c r="N30">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O30">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P30">
-        <v>16.15265474289334</v>
+        <v>27.70867635416543</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1870,49 +1870,49 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.8695863061325109</v>
+        <v>1.491710551743269</v>
       </c>
       <c r="C31">
-        <v>5.828479268951837</v>
+        <v>9.998322150196639</v>
       </c>
       <c r="D31">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E31">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F31">
-        <v>1.220452694723189</v>
+        <v>2.093595713022491</v>
       </c>
       <c r="G31">
-        <v>1.982736184082363</v>
+        <v>3.401236273226395</v>
       </c>
       <c r="H31">
-        <v>0.2018808919648403</v>
+        <v>0.3463116364822391</v>
       </c>
       <c r="I31">
-        <v>1.496263517680013</v>
+        <v>2.566728640701087</v>
       </c>
       <c r="J31">
-        <v>0.464292517328823</v>
+        <v>0.7964592385029009</v>
       </c>
       <c r="K31">
-        <v>0.6149232262444913</v>
+        <v>1.054855002467279</v>
       </c>
       <c r="L31">
-        <v>3.021630645932241</v>
+        <v>5.183382358048654</v>
       </c>
       <c r="M31">
-        <v>1.901369213105432</v>
+        <v>3.261657293757989</v>
       </c>
       <c r="N31">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O31">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P31">
-        <v>17.80627389832042</v>
+        <v>30.54533687344859</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1920,43 +1920,43 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.5533731039025066</v>
+        <v>0.9492703511093535</v>
       </c>
       <c r="C32">
-        <v>3.709032262060259</v>
+        <v>6.362568641034224</v>
       </c>
       <c r="D32">
-        <v>0.001184287808066695</v>
+        <v>0.002031557543093134</v>
       </c>
       <c r="E32">
-        <v>0.1126468642556738</v>
+        <v>0.1932373070343341</v>
       </c>
       <c r="F32">
-        <v>1.163687453108156</v>
+        <v>1.996219168230748</v>
       </c>
       <c r="G32">
-        <v>1.890515896450625</v>
+        <v>3.243039237262377</v>
       </c>
       <c r="H32">
-        <v>0.1703370025953339</v>
+        <v>0.2922004432818894</v>
       </c>
       <c r="I32">
-        <v>1.262472343042511</v>
+        <v>2.165677290591542</v>
       </c>
       <c r="J32">
-        <v>0.4062559526627201</v>
+        <v>0.6969018336900383</v>
       </c>
       <c r="K32">
-        <v>0.5380578229639297</v>
+        <v>0.9229981271588689</v>
       </c>
       <c r="L32">
-        <v>3.429959111598756</v>
+        <v>5.883839433460638</v>
       </c>
       <c r="M32">
-        <v>2.158310998660221</v>
+        <v>3.702421792914473</v>
       </c>
       <c r="P32">
-        <v>15.39583309910876</v>
+        <v>26.41040518331158</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1964,43 +1964,43 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.3496588293889466</v>
+        <v>0.5998136833932727</v>
       </c>
       <c r="C33">
-        <v>2.343619286466648</v>
+        <v>4.020304361093053</v>
       </c>
       <c r="D33">
-        <v>0.001776431712100043</v>
+        <v>0.003047336314639701</v>
       </c>
       <c r="E33">
-        <v>0.1689702963835108</v>
+        <v>0.2898559605515012</v>
       </c>
       <c r="F33">
-        <v>0.596035036957836</v>
+        <v>1.022453720313309</v>
       </c>
       <c r="G33">
-        <v>0.9683130201332473</v>
+        <v>1.661068877622193</v>
       </c>
       <c r="H33">
-        <v>0.2018808919648403</v>
+        <v>0.3463116364822391</v>
       </c>
       <c r="I33">
-        <v>1.496263517680013</v>
+        <v>2.566728640701087</v>
       </c>
       <c r="J33">
-        <v>0.2224734978867277</v>
+        <v>0.3816367184493067</v>
       </c>
       <c r="K33">
-        <v>0.2946507125754854</v>
+        <v>0.5054513553489044</v>
       </c>
       <c r="L33">
-        <v>2.939964952798937</v>
+        <v>5.043290942966258</v>
       </c>
       <c r="M33">
-        <v>1.849980855994475</v>
+        <v>3.173504393926692</v>
       </c>
       <c r="P33">
-        <v>11.43358732994277</v>
+        <v>19.61346762716245</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2008,49 +2008,49 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.2956897492006526</v>
+        <v>0.5072337453043111</v>
       </c>
       <c r="C34">
-        <v>1.981886744425057</v>
+        <v>3.399779122750429</v>
       </c>
       <c r="D34">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E34">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F34">
-        <v>0.2838262080751601</v>
+        <v>0.4868827239587188</v>
       </c>
       <c r="G34">
-        <v>0.4611014381586891</v>
+        <v>0.7909851798200916</v>
       </c>
       <c r="H34">
-        <v>0.06308777873901258</v>
+        <v>0.1082223864006998</v>
       </c>
       <c r="I34">
-        <v>0.4675823492750042</v>
+        <v>0.8021027002190895</v>
       </c>
       <c r="J34">
-        <v>0.1934552155536762</v>
+        <v>0.3318580160428753</v>
       </c>
       <c r="K34">
-        <v>0.2562180109352046</v>
+        <v>0.4395229176946996</v>
       </c>
       <c r="L34">
-        <v>2.531636487132418</v>
+        <v>4.34283386755428</v>
       </c>
       <c r="M34">
-        <v>1.593039070439687</v>
+        <v>2.732739894770208</v>
       </c>
       <c r="N34">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O34">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P34">
-        <v>8.258310556037836</v>
+        <v>14.16651677830958</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2058,49 +2058,49 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.2341193901125992</v>
+        <v>0.4016143793154958</v>
       </c>
       <c r="C35">
-        <v>1.569205957025494</v>
+        <v>2.691855963514479</v>
       </c>
       <c r="D35">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E35">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F35">
-        <v>0.3122088288826759</v>
+        <v>0.5355709963545907</v>
       </c>
       <c r="G35">
-        <v>0.5072115819745582</v>
+        <v>0.870083697802101</v>
       </c>
       <c r="H35">
-        <v>0.08832289023461762</v>
+        <v>0.1515113409609796</v>
       </c>
       <c r="I35">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="J35">
-        <v>0.2514917802197791</v>
+        <v>0.4314154208557381</v>
       </c>
       <c r="K35">
-        <v>0.3330834142157661</v>
+        <v>0.5713797930031094</v>
       </c>
       <c r="L35">
-        <v>2.694967873399024</v>
+        <v>4.623016697719071</v>
       </c>
       <c r="M35">
-        <v>1.695815784661602</v>
+        <v>2.909045694432801</v>
       </c>
       <c r="N35">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O35">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P35">
-        <v>8.500288081830332</v>
+        <v>14.58161120420363</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2108,43 +2108,43 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.1208603345061794</v>
+        <v>0.2073269036076748</v>
       </c>
       <c r="C36">
-        <v>0.8100771011917325</v>
+        <v>1.389626942203903</v>
       </c>
       <c r="D36">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E36">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F36">
-        <v>0.1702957248450961</v>
+        <v>0.2921296343752313</v>
       </c>
       <c r="G36">
-        <v>0.2766608628952135</v>
+        <v>0.4745911078920552</v>
       </c>
       <c r="H36">
-        <v>0.04416144511730881</v>
+        <v>0.07575567048048981</v>
       </c>
       <c r="I36">
-        <v>0.3273076444925029</v>
+        <v>0.5614718901533629</v>
       </c>
       <c r="J36">
-        <v>0.1160731293322058</v>
+        <v>0.1991148096257252</v>
       </c>
       <c r="K36">
-        <v>0.1537308065611228</v>
+        <v>0.2637137506168197</v>
       </c>
       <c r="L36">
-        <v>1.306651090132861</v>
+        <v>2.241462641318338</v>
       </c>
       <c r="M36">
-        <v>0.8222137137753223</v>
+        <v>1.410446397300752</v>
       </c>
       <c r="P36">
-        <v>4.247634110905318</v>
+        <v>7.286500004079601</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2152,49 +2152,49 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.0737324053276692</v>
+        <v>0.1264824506285813</v>
       </c>
       <c r="C37">
-        <v>0.4941979799723148</v>
+        <v>0.8477598326652742</v>
       </c>
       <c r="D37">
-        <v>0.001332323784075032</v>
+        <v>0.002285502235979775</v>
       </c>
       <c r="E37">
-        <v>0.126727722287633</v>
+        <v>0.2173919704136258</v>
       </c>
       <c r="F37">
-        <v>0.05676524161503201</v>
+        <v>0.09737654479174376</v>
       </c>
       <c r="G37">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H37">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I37">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J37">
-        <v>0.1257458901098896</v>
+        <v>0.215707710427869</v>
       </c>
       <c r="K37">
-        <v>0.166541707107883</v>
+        <v>0.2856898965015547</v>
       </c>
       <c r="L37">
-        <v>0.8166569313330382</v>
+        <v>1.400914150823961</v>
       </c>
       <c r="M37">
-        <v>0.5138835711095763</v>
+        <v>0.8815289983129702</v>
       </c>
       <c r="N37">
-        <v>0.006048271798707341</v>
+        <v>0.01037535986746339</v>
       </c>
       <c r="O37">
-        <v>0.02513697424879513</v>
+        <v>0.04312060742147036</v>
       </c>
       <c r="P37">
-        <v>2.76432437033336</v>
+        <v>4.741992603364407</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2202,43 +2202,43 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.03572601082887063</v>
+        <v>0.06128531112931265</v>
       </c>
       <c r="C38">
-        <v>0.2394567531824619</v>
+        <v>0.4107702281986378</v>
       </c>
       <c r="D38">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E38">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F38">
-        <v>0.05676524161503201</v>
+        <v>0.09737654479174376</v>
       </c>
       <c r="G38">
-        <v>0.09222028763173784</v>
+        <v>0.1581970359640184</v>
       </c>
       <c r="H38">
-        <v>0.03154388936950629</v>
+        <v>0.05411119320034988</v>
       </c>
       <c r="I38">
-        <v>0.2337911746375021</v>
+        <v>0.4010513501095447</v>
       </c>
       <c r="J38">
-        <v>0.08705484699915429</v>
+        <v>0.149336107219294</v>
       </c>
       <c r="K38">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="L38">
-        <v>0.8983226244663417</v>
+        <v>1.541005565906357</v>
       </c>
       <c r="M38">
-        <v>0.5652719282205341</v>
+        <v>0.9696818981442672</v>
       </c>
       <c r="P38">
-        <v>2.497739801951659</v>
+        <v>4.284686628347925</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2246,31 +2246,31 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.02736460403913495</v>
+        <v>0.04694194043947351</v>
       </c>
       <c r="C39">
-        <v>0.1834136832886943</v>
+        <v>0.3146325152159781</v>
       </c>
       <c r="D39">
-        <v>0.0004441079280250106</v>
+        <v>0.0007618340786599253</v>
       </c>
       <c r="E39">
-        <v>0.04224257409587769</v>
+        <v>0.0724639901378753</v>
       </c>
       <c r="J39">
-        <v>0.04836380388841904</v>
+        <v>0.08296450401071884</v>
       </c>
       <c r="K39">
-        <v>0.06405450273380116</v>
+        <v>0.1098807294236749</v>
       </c>
       <c r="L39">
-        <v>0.8983226244663417</v>
+        <v>1.541005565906357</v>
       </c>
       <c r="M39">
-        <v>0.5652719282205341</v>
+        <v>0.9696818981442672</v>
       </c>
       <c r="P39">
-        <v>1.829477828660828</v>
+        <v>3.138332977357005</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2278,37 +2278,37 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.02660447614915897</v>
+        <v>0.04563799764948814</v>
       </c>
       <c r="C40">
-        <v>0.1783188587528971</v>
+        <v>0.3058927231266453</v>
       </c>
       <c r="D40">
-        <v>0.0005921439040333475</v>
+        <v>0.001015778771546567</v>
       </c>
       <c r="E40">
-        <v>0.05632343212783691</v>
+        <v>0.09661865351716704</v>
       </c>
       <c r="H40">
-        <v>0.01261755574780252</v>
+        <v>0.02164447728013994</v>
       </c>
       <c r="I40">
-        <v>0.09351646985500082</v>
+        <v>0.1604205400438179</v>
       </c>
       <c r="J40">
-        <v>0.08705484699915429</v>
+        <v>0.149336107219294</v>
       </c>
       <c r="K40">
-        <v>0.1152981049208421</v>
+        <v>0.1977853129626147</v>
       </c>
       <c r="L40">
-        <v>1.714979555799378</v>
+        <v>2.941919716730319</v>
       </c>
       <c r="M40">
-        <v>1.07915549933011</v>
+        <v>1.851210896457237</v>
       </c>
       <c r="P40">
-        <v>3.364460943586215</v>
+        <v>5.771482203758269</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2316,43 +2316,43 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.0585298475281498</v>
+        <v>0.100403594828874</v>
       </c>
       <c r="C41">
-        <v>0.3923014892563735</v>
+        <v>0.6729639908786197</v>
       </c>
       <c r="D41">
-        <v>0.0002960719520166737</v>
+        <v>0.0005078893857732835</v>
       </c>
       <c r="E41">
-        <v>0.02816171606391845</v>
+        <v>0.04830932675858352</v>
       </c>
       <c r="F41">
-        <v>0.113530483230064</v>
+        <v>0.1947530895834875</v>
       </c>
       <c r="G41">
-        <v>0.1844405752634757</v>
+        <v>0.3163940719280368</v>
       </c>
       <c r="H41">
-        <v>0.02523511149560503</v>
+        <v>0.04328895456027989</v>
       </c>
       <c r="I41">
-        <v>0.1870329397100016</v>
+        <v>0.3208410800876358</v>
       </c>
       <c r="J41">
-        <v>0.1741096939983086</v>
+        <v>0.298672214438588</v>
       </c>
       <c r="K41">
-        <v>0.2305962098416842</v>
+        <v>0.3955706259252295</v>
       </c>
       <c r="L41">
-        <v>3.266627725332153</v>
+        <v>5.603656603295844</v>
       </c>
       <c r="M41">
-        <v>2.055534284438305</v>
+        <v>3.526115993251881</v>
       </c>
       <c r="P41">
-        <v>6.716396148110055</v>
+        <v>11.52147743492283</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2360,49 +2360,49 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.1299818691858911</v>
+        <v>0.2229742170874992</v>
       </c>
       <c r="C42">
-        <v>0.8712149956212977</v>
+        <v>1.494504447275895</v>
       </c>
       <c r="D42">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E42">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F42">
-        <v>0.255443587267644</v>
+        <v>0.4381944515628469</v>
       </c>
       <c r="G42">
-        <v>0.4149912943428203</v>
+        <v>0.7118866618380826</v>
       </c>
       <c r="H42">
-        <v>0.08832289023461762</v>
+        <v>0.1515113409609796</v>
       </c>
       <c r="I42">
-        <v>0.6546152889850058</v>
+        <v>1.122943780306726</v>
       </c>
       <c r="J42">
-        <v>0.2418190194420952</v>
+        <v>0.4148225200535943</v>
       </c>
       <c r="K42">
-        <v>0.3202725136690058</v>
+        <v>0.5494036471183743</v>
       </c>
       <c r="L42">
-        <v>4.164950349798493</v>
+        <v>7.144662169202202</v>
       </c>
       <c r="M42">
-        <v>2.62080621265884</v>
+        <v>4.495797891396149</v>
       </c>
       <c r="N42">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O42">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P42">
-        <v>9.910161877348521</v>
+        <v>17.00014470981329</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2410,43 +2410,43 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.4325127693963273</v>
+        <v>0.741943447501679</v>
       </c>
       <c r="C43">
-        <v>2.898955160868526</v>
+        <v>4.972941698830319</v>
       </c>
       <c r="D43">
-        <v>0.0007401798800416845</v>
+        <v>0.001269723464433209</v>
       </c>
       <c r="E43">
-        <v>0.07040429015979614</v>
+        <v>0.1207733168964588</v>
       </c>
       <c r="F43">
-        <v>0.3405914496901922</v>
+        <v>0.5842592687504626</v>
       </c>
       <c r="G43">
-        <v>0.553321725790427</v>
+        <v>0.9491822157841104</v>
       </c>
       <c r="H43">
-        <v>0.2838950043255564</v>
+        <v>0.4870007388031491</v>
       </c>
       <c r="I43">
-        <v>2.104120571737519</v>
+        <v>3.609462150985903</v>
       </c>
       <c r="J43">
-        <v>0.6287294505494476</v>
+        <v>1.078538552139345</v>
       </c>
       <c r="K43">
-        <v>0.832708535539415</v>
+        <v>1.428449482507773</v>
       </c>
       <c r="L43">
-        <v>6.369924064397694</v>
+        <v>10.92713037642689</v>
       </c>
       <c r="M43">
-        <v>4.008291854654696</v>
+        <v>6.875926186841166</v>
       </c>
       <c r="P43">
-        <v>18.52419505698964</v>
+        <v>31.77687715893169</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2454,49 +2454,49 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.7821715987852742</v>
+        <v>1.341757130894952</v>
       </c>
       <c r="C44">
-        <v>5.242574447335175</v>
+        <v>8.993246059923372</v>
       </c>
       <c r="D44">
-        <v>0.0008882158560500213</v>
+        <v>0.001523668157319851</v>
       </c>
       <c r="E44">
-        <v>0.08448514819175539</v>
+        <v>0.1449279802757506</v>
       </c>
       <c r="F44">
-        <v>0.85147862422548</v>
+        <v>1.460648171876156</v>
       </c>
       <c r="G44">
-        <v>1.383304314476068</v>
+        <v>2.372955539460276</v>
       </c>
       <c r="H44">
-        <v>0.2271160034604453</v>
+        <v>0.389600591042519</v>
       </c>
       <c r="I44">
-        <v>1.683296457390015</v>
+        <v>2.887569720788723</v>
       </c>
       <c r="J44">
-        <v>0.7738208622147047</v>
+        <v>1.327432064171501</v>
       </c>
       <c r="K44">
-        <v>1.024872043740819</v>
+        <v>1.758091670778798</v>
       </c>
       <c r="L44">
-        <v>5.798264212464569</v>
+        <v>9.946490470850128</v>
       </c>
       <c r="M44">
-        <v>3.648573354877993</v>
+        <v>6.258855888022087</v>
       </c>
       <c r="N44">
-        <v>0.03628963079224404</v>
+        <v>0.06225215920478033</v>
       </c>
       <c r="O44">
-        <v>0.1508218454927707</v>
+        <v>0.2587236445288221</v>
       </c>
       <c r="P44">
-        <v>21.68795675930336</v>
+        <v>37.20407475997519</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2504,49 +2504,49 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.8559040041129432</v>
+        <v>1.468239581523533</v>
       </c>
       <c r="C45">
-        <v>5.736772427307488</v>
+        <v>9.841005892588644</v>
       </c>
       <c r="D45">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E45">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F45">
-        <v>0.7947133826104483</v>
+        <v>1.363271627084412</v>
       </c>
       <c r="G45">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="H45">
-        <v>0.1514106689736302</v>
+        <v>0.2597337273616793</v>
       </c>
       <c r="I45">
-        <v>1.12219763826001</v>
+        <v>1.925046480525815</v>
       </c>
       <c r="J45">
-        <v>0.6190566897717638</v>
+        <v>1.061945651337202</v>
       </c>
       <c r="K45">
-        <v>0.8198976349926549</v>
+        <v>1.406473336623038</v>
       </c>
       <c r="L45">
-        <v>4.246616042931795</v>
+        <v>7.284753584284601</v>
       </c>
       <c r="M45">
-        <v>2.672194569769798</v>
+        <v>4.583950791227444</v>
       </c>
       <c r="N45">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O45">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P45">
-        <v>18.57687700984455</v>
+        <v>31.86724912593014</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2554,49 +2554,49 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.6445884506996233</v>
+        <v>1.105743485907598</v>
       </c>
       <c r="C46">
-        <v>4.320411206355907</v>
+        <v>7.411343691754153</v>
       </c>
       <c r="D46">
-        <v>0.002220539640125053</v>
+        <v>0.003809170393299627</v>
       </c>
       <c r="E46">
-        <v>0.2112128704793884</v>
+        <v>0.3623199506893765</v>
       </c>
       <c r="F46">
-        <v>0.8230960034179637</v>
+        <v>1.411959899480284</v>
       </c>
       <c r="G46">
-        <v>1.337194170660199</v>
+        <v>2.293857021478267</v>
       </c>
       <c r="H46">
-        <v>0.1387931132258276</v>
+        <v>0.2380892500815394</v>
       </c>
       <c r="I46">
-        <v>1.028681168405009</v>
+        <v>1.764625940481997</v>
       </c>
       <c r="J46">
-        <v>0.7448025798816535</v>
+        <v>1.27765336176507</v>
       </c>
       <c r="K46">
-        <v>0.9864393421005379</v>
+        <v>1.692163233124593</v>
       </c>
       <c r="L46">
-        <v>5.879929905597874</v>
+        <v>10.08658188593252</v>
       </c>
       <c r="M46">
-        <v>3.699961711988951</v>
+        <v>6.347008787853384</v>
       </c>
       <c r="N46">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O46">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P46">
-        <v>19.94207204664307</v>
+        <v>34.20913954809781</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2604,49 +2604,49 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.4880021053645733</v>
+        <v>0.8371312711706119</v>
       </c>
       <c r="C47">
-        <v>3.270877351981713</v>
+        <v>5.61094652135161</v>
       </c>
       <c r="D47">
-        <v>0.001480359760083369</v>
+        <v>0.002539446928866418</v>
       </c>
       <c r="E47">
-        <v>0.1408085803195923</v>
+        <v>0.2415466337929176</v>
       </c>
       <c r="F47">
-        <v>0.7947133826104483</v>
+        <v>1.363271627084412</v>
       </c>
       <c r="G47">
-        <v>1.29108402684433</v>
+        <v>2.214758503496257</v>
       </c>
       <c r="H47">
-        <v>0.1009404459824201</v>
+        <v>0.1731558182411196</v>
       </c>
       <c r="I47">
-        <v>0.7481317588400066</v>
+        <v>1.283364320350543</v>
       </c>
       <c r="J47">
-        <v>0.9189122738799622</v>
+        <v>1.576325576203658</v>
       </c>
       <c r="K47">
-        <v>1.217035551942222</v>
+        <v>2.087733859049822</v>
       </c>
       <c r="L47">
-        <v>5.798264212464569</v>
+        <v>9.946490470850128</v>
       </c>
       <c r="M47">
-        <v>3.648573354877993</v>
+        <v>6.258855888022087</v>
       </c>
       <c r="N47">
-        <v>0.0302413589935367</v>
+        <v>0.05187679933731694</v>
       </c>
       <c r="O47">
-        <v>0.1256848712439756</v>
+        <v>0.2156030371073518</v>
       </c>
       <c r="P47">
-        <v>18.57474963510543</v>
+        <v>31.8635997729867</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2654,49 +2654,49 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.474319803345006</v>
+        <v>0.8136603009508744</v>
       </c>
       <c r="C48">
-        <v>3.179170510337365</v>
+        <v>5.453630263743621</v>
       </c>
       <c r="D48">
-        <v>0.001036251832058358</v>
+        <v>0.001777612850206492</v>
       </c>
       <c r="E48">
-        <v>0.09856600622371463</v>
+        <v>0.1690826436550424</v>
       </c>
       <c r="F48">
-        <v>0.6244176577653517</v>
+        <v>1.071141992709181</v>
       </c>
       <c r="G48">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="H48">
-        <v>0.1072492238563214</v>
+        <v>0.1839780568811896</v>
       </c>
       <c r="I48">
-        <v>0.7948899937675069</v>
+        <v>1.363574590372453</v>
       </c>
       <c r="J48">
-        <v>0.8802212307692269</v>
+        <v>1.509953972995083</v>
       </c>
       <c r="K48">
-        <v>1.165791949755181</v>
+        <v>1.999829275510883</v>
       </c>
       <c r="L48">
-        <v>4.164950349798493</v>
+        <v>7.144662169202202</v>
       </c>
       <c r="M48">
-        <v>2.62080621265884</v>
+        <v>4.495797891396149</v>
       </c>
       <c r="N48">
-        <v>0.02419308719482936</v>
+        <v>0.04150143946985357</v>
       </c>
       <c r="O48">
-        <v>0.1005478969951805</v>
+        <v>0.1724824296858815</v>
       </c>
       <c r="P48">
-        <v>15.25058333824819</v>
+        <v>26.16124003502683</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2704,49 +2704,49 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.4895223611445254</v>
+        <v>0.8397391567505819</v>
       </c>
       <c r="C49">
-        <v>3.281067001053306</v>
+        <v>5.628426105530274</v>
       </c>
       <c r="D49">
-        <v>0.00236857561613339</v>
+        <v>0.004063115086186268</v>
       </c>
       <c r="E49">
-        <v>0.2252937285113476</v>
+        <v>0.3864746140686682</v>
       </c>
       <c r="F49">
-        <v>0.6244176577653517</v>
+        <v>1.071141992709181</v>
       </c>
       <c r="G49">
-        <v>1.014423163949116</v>
+        <v>1.740167395604202</v>
       </c>
       <c r="H49">
-        <v>0.08201411236071635</v>
+        <v>0.1406891023209097</v>
       </c>
       <c r="I49">
-        <v>0.6078570540575055</v>
+        <v>1.042733510284816</v>
       </c>
       <c r="J49">
-        <v>0.7254570583262859</v>
+        <v>1.244467560160783</v>
       </c>
       <c r="K49">
-        <v>0.9608175410070174</v>
+        <v>1.648210941355123</v>
       </c>
       <c r="L49">
-        <v>3.348293418465455</v>
+        <v>5.743748018378244</v>
       </c>
       <c r="M49">
-        <v>2.106922641549263</v>
+        <v>3.614268893083176</v>
       </c>
       <c r="N49">
-        <v>0.01209654359741468</v>
+        <v>0.02075071973492678</v>
       </c>
       <c r="O49">
-        <v>0.05027394849759026</v>
+        <v>0.08624121484294073</v>
       </c>
       <c r="P49">
-        <v>13.53082480590103</v>
+        <v>23.21112233991001</v>
       </c>
     </row>
   </sheetData>
